--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CA2D0-0B68-414A-A8BC-4C1DF28895E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E42B1-B2ED-4E31-B25C-7BC34FB99327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="4">
   <si>
     <t> </t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>с</t>
-  </si>
-  <si>
-    <t>av</t>
-  </si>
-  <si>
-    <t>std</t>
   </si>
 </sst>
 </file>
@@ -77,18 +71,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,7 +111,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1600,15 +1588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1618,8 +1606,11 @@
       <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1896</v>
       </c>
@@ -1683,8 +1674,21 @@
       <c r="U2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1897</v>
       </c>
@@ -1748,8 +1752,21 @@
       <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1898</v>
       </c>
@@ -1813,8 +1830,20 @@
       <c r="U4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA4" s="7"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1899</v>
       </c>
@@ -1878,8 +1907,20 @@
       <c r="U5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA5" s="7"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1900</v>
       </c>
@@ -1943,8 +1984,20 @@
       <c r="U6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA6" s="7"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1901</v>
       </c>
@@ -2008,8 +2061,20 @@
       <c r="U7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA7" s="7"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1902</v>
       </c>
@@ -2073,8 +2138,20 @@
       <c r="U8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA8" s="7"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1903</v>
       </c>
@@ -2138,8 +2215,20 @@
       <c r="U9" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA9" s="7"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1904</v>
       </c>
@@ -2203,8 +2292,21 @@
       <c r="U10" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1905</v>
       </c>
@@ -2268,8 +2370,21 @@
       <c r="U11" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1906</v>
       </c>
@@ -2333,8 +2448,21 @@
       <c r="U12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1907</v>
       </c>
@@ -2398,8 +2526,21 @@
       <c r="U13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1908</v>
       </c>
@@ -2463,8 +2604,21 @@
       <c r="U14" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1909</v>
       </c>
@@ -2528,8 +2682,21 @@
       <c r="U15" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1910</v>
       </c>
@@ -2593,8 +2760,21 @@
       <c r="U16" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1911</v>
       </c>
@@ -2658,8 +2838,21 @@
       <c r="U17" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1912</v>
       </c>
@@ -2723,8 +2916,21 @@
       <c r="U18" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1913</v>
       </c>
@@ -2788,8 +2994,21 @@
       <c r="U19" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1914</v>
       </c>
@@ -2853,8 +3072,21 @@
       <c r="U20" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="G21" s="1"/>
@@ -2862,7 +3094,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="G22" s="1"/>
@@ -2870,7 +3102,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="G23" s="1"/>
@@ -2878,7 +3110,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="G24" s="1"/>
@@ -2886,7 +3118,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="G25" s="1"/>
@@ -2894,7 +3126,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="G26" s="1"/>
@@ -2902,7 +3134,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2914,7 +3146,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2926,7 +3158,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2938,7 +3170,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2950,7 +3182,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3139,1119 +3371,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EA4FDA-0212-4956-90E3-7029233D557B}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1896</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>155295</v>
-      </c>
-      <c r="D2" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2062</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1288</v>
-      </c>
-      <c r="I2" s="5">
-        <v>55</v>
-      </c>
-      <c r="J2" s="1">
-        <v>222321</v>
-      </c>
-      <c r="K2" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L2" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="M2" s="4">
-        <v>3.5</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1897</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>177351</v>
-      </c>
-      <c r="D3" s="3">
-        <v>30.9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>17.3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5476</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3068</v>
-      </c>
-      <c r="I3" s="5">
-        <v>103</v>
-      </c>
-      <c r="J3" s="1">
-        <v>223150</v>
-      </c>
-      <c r="K3" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>13.7</v>
-      </c>
-      <c r="M3" s="4">
-        <v>10.8</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1898</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>198836</v>
-      </c>
-      <c r="D4" s="3">
-        <v>29.6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5893</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3530</v>
-      </c>
-      <c r="I4" s="2">
-        <v>480</v>
-      </c>
-      <c r="J4" s="1">
-        <v>225661</v>
-      </c>
-      <c r="K4" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="M4" s="4">
-        <v>10.5</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1899</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>227950</v>
-      </c>
-      <c r="D5" s="3">
-        <v>31.9</v>
-      </c>
-      <c r="E5" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7276</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4906</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1019</v>
-      </c>
-      <c r="J5" s="1">
-        <v>228504</v>
-      </c>
-      <c r="K5" s="4">
-        <v>31.8</v>
-      </c>
-      <c r="L5" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="M5" s="4">
-        <v>10.4</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1900</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>243666</v>
-      </c>
-      <c r="D6" s="3">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20.9</v>
-      </c>
-      <c r="F6" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8115</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5085</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5902</v>
-      </c>
-      <c r="J6" s="1">
-        <v>231893</v>
-      </c>
-      <c r="K6" s="4">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4">
-        <v>21.9</v>
-      </c>
-      <c r="M6" s="4">
-        <v>13.1</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>1901</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>268592</v>
-      </c>
-      <c r="D7" s="3">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8060</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4744</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2906</v>
-      </c>
-      <c r="J7" s="1">
-        <v>240825</v>
-      </c>
-      <c r="K7" s="4">
-        <v>33.5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="M7" s="4">
-        <v>13.8</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1902</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>281000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>31.4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8815</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5044</v>
-      </c>
-      <c r="I8" s="5">
-        <v>6402</v>
-      </c>
-      <c r="J8" s="1">
-        <v>247047</v>
-      </c>
-      <c r="K8" s="4">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="L8" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="M8" s="4">
-        <v>15.3</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1903</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>300370</v>
-      </c>
-      <c r="D9" s="3">
-        <v>33.4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10029</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5037</v>
-      </c>
-      <c r="I9" s="5">
-        <v>7301</v>
-      </c>
-      <c r="J9" s="1">
-        <v>257220</v>
-      </c>
-      <c r="K9" s="4">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="M9" s="4">
-        <v>19.399999999999999</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>1904</v>
-      </c>
-      <c r="B10" s="1">
-        <v>242900</v>
-      </c>
-      <c r="C10" s="1">
-        <v>330204</v>
-      </c>
-      <c r="D10" s="3">
-        <v>26.8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="F10" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8834</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4260</v>
-      </c>
-      <c r="I10" s="5">
-        <v>-143</v>
-      </c>
-      <c r="J10" s="1">
-        <v>269513</v>
-      </c>
-      <c r="K10" s="4">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="L10" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="M10" s="4">
-        <v>17</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>1905</v>
-      </c>
-      <c r="B11" s="1">
-        <v>246800</v>
-      </c>
-      <c r="C11" s="1">
-        <v>252210</v>
-      </c>
-      <c r="D11" s="3">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="E11" s="3">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F11" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8506</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4273</v>
-      </c>
-      <c r="I11" s="5">
-        <v>-36</v>
-      </c>
-      <c r="J11" s="1">
-        <v>273944</v>
-      </c>
-      <c r="K11" s="9">
-        <v>31.1</v>
-      </c>
-      <c r="L11" s="9">
-        <v>15.6</v>
-      </c>
-      <c r="M11" s="4">
-        <v>15.5</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>1906</v>
-      </c>
-      <c r="B12" s="1">
-        <v>252100</v>
-      </c>
-      <c r="C12" s="1">
-        <v>239970</v>
-      </c>
-      <c r="D12" s="3">
-        <v>44.9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20.6</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10768</v>
-      </c>
-      <c r="H12" s="1">
-        <v>5818</v>
-      </c>
-      <c r="I12" s="5">
-        <v>13290</v>
-      </c>
-      <c r="J12" s="1">
-        <v>278141</v>
-      </c>
-      <c r="K12" s="4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="L12" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="M12" s="4">
-        <v>17.8</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>1907</v>
-      </c>
-      <c r="B13" s="1">
-        <v>267300</v>
-      </c>
-      <c r="C13" s="1">
-        <v>359138</v>
-      </c>
-      <c r="D13" s="3">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="E13" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12819</v>
-      </c>
-      <c r="H13" s="1">
-        <v>7842</v>
-      </c>
-      <c r="I13" s="5">
-        <v>74512</v>
-      </c>
-      <c r="J13" s="1">
-        <v>296382</v>
-      </c>
-      <c r="K13" s="4">
-        <v>43.3</v>
-      </c>
-      <c r="L13" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="M13" s="4">
-        <v>16.8</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>1908</v>
-      </c>
-      <c r="B14" s="1">
-        <v>289600</v>
-      </c>
-      <c r="C14" s="1">
-        <v>516767</v>
-      </c>
-      <c r="D14" s="3">
-        <v>38.6</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>19955</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10335</v>
-      </c>
-      <c r="I14" s="5">
-        <v>20590</v>
-      </c>
-      <c r="J14" s="1">
-        <v>376141</v>
-      </c>
-      <c r="K14" s="4">
-        <v>53.1</v>
-      </c>
-      <c r="L14" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="M14" s="4">
-        <v>25.6</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>1909</v>
-      </c>
-      <c r="B15" s="1">
-        <v>268900</v>
-      </c>
-      <c r="C15" s="1">
-        <v>530805</v>
-      </c>
-      <c r="D15" s="3">
-        <v>30.2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="F15" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>16017</v>
-      </c>
-      <c r="H15" s="1">
-        <v>7388</v>
-      </c>
-      <c r="I15" s="5">
-        <v>18588</v>
-      </c>
-      <c r="J15" s="1">
-        <v>406352</v>
-      </c>
-      <c r="K15" s="4">
-        <v>39.4</v>
-      </c>
-      <c r="L15" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="M15" s="4">
-        <v>21.2</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>1910</v>
-      </c>
-      <c r="B16" s="1">
-        <v>281100</v>
-      </c>
-      <c r="C16" s="1">
-        <v>517863</v>
-      </c>
-      <c r="D16" s="3">
-        <v>31.7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>16433</v>
-      </c>
-      <c r="H16" s="1">
-        <v>7515</v>
-      </c>
-      <c r="I16" s="5">
-        <v>9272</v>
-      </c>
-      <c r="J16" s="1">
-        <v>433569</v>
-      </c>
-      <c r="K16" s="4">
-        <v>37.9</v>
-      </c>
-      <c r="L16" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="M16" s="4">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>1911</v>
-      </c>
-      <c r="B17" s="1">
-        <v>533100</v>
-      </c>
-      <c r="C17" s="1">
-        <v>505992</v>
-      </c>
-      <c r="D17" s="3">
-        <v>34.1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="G17" s="1">
-        <v>17257</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9270</v>
-      </c>
-      <c r="I17" s="5">
-        <v>7494</v>
-      </c>
-      <c r="J17" s="1">
-        <v>452041</v>
-      </c>
-      <c r="K17" s="4">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="L17" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="M17" s="4">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>1912</v>
-      </c>
-      <c r="B18" s="1">
-        <v>572000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>545397</v>
-      </c>
-      <c r="D18" s="3">
-        <v>35.9</v>
-      </c>
-      <c r="E18" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="G18" s="1">
-        <v>19607</v>
-      </c>
-      <c r="H18" s="1">
-        <v>9897</v>
-      </c>
-      <c r="I18" s="5">
-        <v>9981</v>
-      </c>
-      <c r="J18" s="1">
-        <v>467963</v>
-      </c>
-      <c r="K18" s="4">
-        <v>41.9</v>
-      </c>
-      <c r="L18" s="4">
-        <v>21.1</v>
-      </c>
-      <c r="M18" s="4">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1913</v>
-      </c>
-      <c r="B19" s="1">
-        <v>604000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>584572</v>
-      </c>
-      <c r="D19" s="3">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E19" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F19" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G19" s="1">
-        <v>21214</v>
-      </c>
-      <c r="H19" s="1">
-        <v>9601</v>
-      </c>
-      <c r="I19" s="5">
-        <v>8464</v>
-      </c>
-      <c r="J19" s="1">
-        <v>487887</v>
-      </c>
-      <c r="K19" s="4">
-        <v>43.5</v>
-      </c>
-      <c r="L19" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="M19" s="4">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>1914</v>
-      </c>
-      <c r="B20" s="1">
-        <v>606600</v>
-      </c>
-      <c r="C20" s="1">
-        <v>619185</v>
-      </c>
-      <c r="D20" s="3">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="E20" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="G20" s="1">
-        <v>20264</v>
-      </c>
-      <c r="H20" s="1">
-        <v>8707</v>
-      </c>
-      <c r="I20" s="5">
-        <v>11102</v>
-      </c>
-      <c r="J20" s="1">
-        <v>508058</v>
-      </c>
-      <c r="K20" s="4">
-        <v>39.9</v>
-      </c>
-      <c r="L20" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="M20" s="4">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D24" s="3">
-        <f>AVERAGE(B25:B39)</f>
-        <v>20.513333333333332</v>
-      </c>
-      <c r="E24">
-        <f>_xlfn.STDEV.S(B25:B39)</f>
-        <v>3.1595358308882404</v>
-      </c>
-      <c r="O24" s="7">
-        <f>AVERAGE(M25:M35)</f>
-        <v>40.699999999999996</v>
-      </c>
-      <c r="P24">
-        <f>_xlfn.STDEV.S(M25:M35)</f>
-        <v>5.0548986142157597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>1899</v>
-      </c>
-      <c r="B25" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="G25">
-        <f>ABS(B25-$D$24)/$E$24</f>
-        <v>0.31228215772102402</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1903</v>
-      </c>
-      <c r="M25" s="4">
-        <v>39</v>
-      </c>
-      <c r="R25">
-        <f>ABS(M25-$O$24)/$P$24</f>
-        <v>0.33630743754565717</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>1900</v>
-      </c>
-      <c r="B26" s="4">
-        <v>21.9</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G39" si="0">ABS(B26-$D$24)/$E$24</f>
-        <v>0.43888303247278987</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1904</v>
-      </c>
-      <c r="M26" s="4">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="R26">
-        <f t="shared" ref="R26:R35" si="1">ABS(M26-$O$24)/$P$24</f>
-        <v>1.5628404450651165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>1901</v>
-      </c>
-      <c r="B27" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0.25742177866192456</v>
-      </c>
-      <c r="L27" s="7">
-        <v>1906</v>
-      </c>
-      <c r="M27" s="4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="1"/>
-        <v>0.39565580887724333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>1902</v>
-      </c>
-      <c r="B28" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>3.5870247846333768E-2</v>
-      </c>
-      <c r="L28" s="7">
-        <v>1907</v>
-      </c>
-      <c r="M28" s="4">
-        <v>43.3</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="1"/>
-        <v>0.51435255154041848</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>1903</v>
-      </c>
-      <c r="B29" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0.28907199734986549</v>
-      </c>
-      <c r="L29" s="7">
-        <v>1908</v>
-      </c>
-      <c r="M29" s="4">
-        <v>53.1</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
-        <v>2.4530660150389187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>1904</v>
-      </c>
-      <c r="B30" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>1.4917803074916456</v>
-      </c>
-      <c r="L30" s="7">
-        <v>1909</v>
-      </c>
-      <c r="M30" s="4">
-        <v>39.4</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="1"/>
-        <v>0.25717627577020852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>1906</v>
-      </c>
-      <c r="B31" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0.1223808455933741</v>
-      </c>
-      <c r="L31" s="7">
-        <v>1910</v>
-      </c>
-      <c r="M31" s="4">
-        <v>37.9</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="1"/>
-        <v>0.55391813242814214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>1907</v>
-      </c>
-      <c r="B32" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>1.8947930921181029</v>
-      </c>
-      <c r="L32" s="7">
-        <v>1911</v>
-      </c>
-      <c r="M32" s="4">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="1"/>
-        <v>0.49456976109655454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>1908</v>
-      </c>
-      <c r="B33" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>2.2112952789975187</v>
-      </c>
-      <c r="L33" s="7">
-        <v>1912</v>
-      </c>
-      <c r="M33" s="4">
-        <v>41.9</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="1"/>
-        <v>0.23739348532634741</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>1909</v>
-      </c>
-      <c r="B34" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0.73217505898104818</v>
-      </c>
-      <c r="L34" s="7">
-        <v>1913</v>
-      </c>
-      <c r="M34" s="4">
-        <v>43.5</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="1"/>
-        <v>0.55391813242814347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>1910</v>
-      </c>
-      <c r="B35" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>1.0170270271725219</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1914</v>
-      </c>
-      <c r="M35" s="4">
-        <v>39.9</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="1"/>
-        <v>0.15826232355089734</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>1911</v>
-      </c>
-      <c r="B36" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>4.2200291583917452E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>1912</v>
-      </c>
-      <c r="B37" s="4">
-        <v>21.1</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0.18568128296925815</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>1913</v>
-      </c>
-      <c r="B38" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0.25742177866192456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>1914</v>
-      </c>
-      <c r="B39" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>1.0803274645484049</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4269,92 +3765,48 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
-        <v>1903</v>
-      </c>
-      <c r="B1" s="4">
-        <v>39</v>
-      </c>
+      <c r="A1" s="7"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1904</v>
-      </c>
-      <c r="B2" s="4">
-        <v>32.799999999999997</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1906</v>
-      </c>
-      <c r="B3" s="4">
-        <v>38.700000000000003</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1907</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43.3</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1908</v>
-      </c>
-      <c r="B5" s="4">
-        <v>53.1</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1909</v>
-      </c>
-      <c r="B6" s="4">
-        <v>39.4</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>1910</v>
-      </c>
-      <c r="B7" s="4">
-        <v>37.9</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1911</v>
-      </c>
-      <c r="B8" s="4">
-        <v>38.200000000000003</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1912</v>
-      </c>
-      <c r="B9" s="4">
-        <v>41.9</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>1913</v>
-      </c>
-      <c r="B10" s="4">
-        <v>43.5</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>1914</v>
-      </c>
-      <c r="B11" s="4">
-        <v>39.9</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E42B1-B2ED-4E31-B25C-7BC34FB99327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1785E-F66D-4C97-B3DB-C341F1DA4D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="4">
   <si>
     <t> </t>
   </si>
@@ -694,7 +694,610 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>р</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$66:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$66:$K$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC8B-49AA-BA67-526F214C5A9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>с</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$66:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$66:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC8B-49AA-BA67-526F214C5A9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="746675112"/>
+        <c:axId val="746675440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="746675112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1914"/>
+          <c:min val="1896"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746675440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="746675440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746675112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1250,6 +1853,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1283,6 +2402,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F8B1C7-675E-405A-AF08-773B71CD50AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1588,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,6 +4518,1228 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>1896</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>155295</v>
+      </c>
+      <c r="D66" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8728</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4359</v>
+      </c>
+      <c r="I66" s="5">
+        <v>55</v>
+      </c>
+      <c r="J66" s="1">
+        <v>222321</v>
+      </c>
+      <c r="K66" s="4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="L66" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M66" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="N66" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>0</v>
+      </c>
+      <c r="U66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>1897</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>177351</v>
+      </c>
+      <c r="D67" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="F67" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8728</v>
+      </c>
+      <c r="H67" s="1">
+        <v>4359</v>
+      </c>
+      <c r="I67" s="5">
+        <v>103</v>
+      </c>
+      <c r="J67" s="1">
+        <v>223150</v>
+      </c>
+      <c r="K67" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="L67" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="M67" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N67" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>0</v>
+      </c>
+      <c r="U67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>1898</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>198836</v>
+      </c>
+      <c r="D68" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="E68" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>8819</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4404</v>
+      </c>
+      <c r="I68" s="2">
+        <v>480</v>
+      </c>
+      <c r="J68" s="1">
+        <v>225661</v>
+      </c>
+      <c r="K68" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="L68" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="M68" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N68" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>0</v>
+      </c>
+      <c r="U68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>1899</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>227950</v>
+      </c>
+      <c r="D69" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="E69" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="F69" s="3">
+        <v>18</v>
+      </c>
+      <c r="G69" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4906</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1019</v>
+      </c>
+      <c r="J69" s="1">
+        <v>230556</v>
+      </c>
+      <c r="K69" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="L69" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="M69" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="N69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1900</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>243666</v>
+      </c>
+      <c r="D70" s="3">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E70" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="F70" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G70" s="1">
+        <v>9210</v>
+      </c>
+      <c r="H70" s="1">
+        <v>5085</v>
+      </c>
+      <c r="I70" s="5">
+        <v>5902</v>
+      </c>
+      <c r="J70" s="1">
+        <v>235679</v>
+      </c>
+      <c r="K70" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="L70" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="M70" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>0</v>
+      </c>
+      <c r="T70" t="s">
+        <v>0</v>
+      </c>
+      <c r="U70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>1901</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>268592</v>
+      </c>
+      <c r="D71" s="3">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E71" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="F71" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G71" s="1">
+        <v>9602</v>
+      </c>
+      <c r="H71" s="1">
+        <v>4744</v>
+      </c>
+      <c r="I71" s="5">
+        <v>2906</v>
+      </c>
+      <c r="J71" s="1">
+        <v>245706</v>
+      </c>
+      <c r="K71" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="L71" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="M71" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="N71" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
+        <v>0</v>
+      </c>
+      <c r="T71" t="s">
+        <v>0</v>
+      </c>
+      <c r="U71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>1902</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>281000</v>
+      </c>
+      <c r="D72" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>18</v>
+      </c>
+      <c r="F72" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="G72" s="1">
+        <v>8815</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5044</v>
+      </c>
+      <c r="I72" s="5">
+        <v>6402</v>
+      </c>
+      <c r="J72" s="1">
+        <v>253470</v>
+      </c>
+      <c r="K72" s="4">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="L72" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M72" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="N72" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>0</v>
+      </c>
+      <c r="T72" t="s">
+        <v>0</v>
+      </c>
+      <c r="U72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>1903</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>300370</v>
+      </c>
+      <c r="D73" s="3">
+        <v>33.4</v>
+      </c>
+      <c r="E73" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="F73" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G73" s="1">
+        <v>10029</v>
+      </c>
+      <c r="H73" s="1">
+        <v>5037</v>
+      </c>
+      <c r="I73" s="5">
+        <v>7301</v>
+      </c>
+      <c r="J73" s="1">
+        <v>263643</v>
+      </c>
+      <c r="K73" s="4">
+        <v>38</v>
+      </c>
+      <c r="L73" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M73" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N73" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>0</v>
+      </c>
+      <c r="U73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>1904</v>
+      </c>
+      <c r="B74" s="1">
+        <v>242900</v>
+      </c>
+      <c r="C74" s="1">
+        <v>330204</v>
+      </c>
+      <c r="D74" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="E74" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F74" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G74" s="1">
+        <v>8834</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4260</v>
+      </c>
+      <c r="I74" s="5">
+        <v>-143</v>
+      </c>
+      <c r="J74" s="1">
+        <v>275936</v>
+      </c>
+      <c r="K74" s="4">
+        <v>32</v>
+      </c>
+      <c r="L74" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="M74" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N74" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>0</v>
+      </c>
+      <c r="U74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>1905</v>
+      </c>
+      <c r="B75" s="1">
+        <v>246800</v>
+      </c>
+      <c r="C75" s="1">
+        <v>252210</v>
+      </c>
+      <c r="D75" s="3">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E75" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F75" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="G75" s="1">
+        <v>8506</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4273</v>
+      </c>
+      <c r="I75" s="5">
+        <v>-36</v>
+      </c>
+      <c r="J75" s="1">
+        <v>280367</v>
+      </c>
+      <c r="K75" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="L75" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="M75" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>0</v>
+      </c>
+      <c r="T75" t="s">
+        <v>0</v>
+      </c>
+      <c r="U75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>1906</v>
+      </c>
+      <c r="B76" s="1">
+        <v>252100</v>
+      </c>
+      <c r="C76" s="1">
+        <v>239970</v>
+      </c>
+      <c r="D76" s="3">
+        <v>44.9</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10768</v>
+      </c>
+      <c r="H76" s="1">
+        <v>5818</v>
+      </c>
+      <c r="I76" s="5">
+        <v>13290</v>
+      </c>
+      <c r="J76" s="1">
+        <v>284564</v>
+      </c>
+      <c r="K76" s="4">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="L76" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M76" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N76" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" t="s">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>0</v>
+      </c>
+      <c r="U76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>1907</v>
+      </c>
+      <c r="B77" s="1">
+        <v>267300</v>
+      </c>
+      <c r="C77" s="1">
+        <v>359138</v>
+      </c>
+      <c r="D77" s="3">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E77" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="F77" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>12819</v>
+      </c>
+      <c r="H77" s="1">
+        <v>7842</v>
+      </c>
+      <c r="I77" s="5">
+        <v>74512</v>
+      </c>
+      <c r="J77" s="1">
+        <v>302804</v>
+      </c>
+      <c r="K77" s="4">
+        <v>42.3</v>
+      </c>
+      <c r="L77" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="M77" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N77" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
+        <v>0</v>
+      </c>
+      <c r="S77" t="s">
+        <v>0</v>
+      </c>
+      <c r="T77" t="s">
+        <v>0</v>
+      </c>
+      <c r="U77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>1908</v>
+      </c>
+      <c r="B78" s="1">
+        <v>289600</v>
+      </c>
+      <c r="C78" s="1">
+        <v>516767</v>
+      </c>
+      <c r="D78" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="E78" s="3">
+        <v>20</v>
+      </c>
+      <c r="F78" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G78" s="1">
+        <v>19955</v>
+      </c>
+      <c r="H78" s="1">
+        <v>10335</v>
+      </c>
+      <c r="I78" s="5">
+        <v>20590</v>
+      </c>
+      <c r="J78" s="1">
+        <v>382293</v>
+      </c>
+      <c r="K78" s="4">
+        <v>52.2</v>
+      </c>
+      <c r="L78" s="4">
+        <v>27</v>
+      </c>
+      <c r="M78" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>0</v>
+      </c>
+      <c r="T78" t="s">
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>1909</v>
+      </c>
+      <c r="B79" s="1">
+        <v>268900</v>
+      </c>
+      <c r="C79" s="1">
+        <v>530805</v>
+      </c>
+      <c r="D79" s="3">
+        <v>30.2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="F79" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="G79" s="1">
+        <v>16017</v>
+      </c>
+      <c r="H79" s="1">
+        <v>7388</v>
+      </c>
+      <c r="I79" s="5">
+        <v>18588</v>
+      </c>
+      <c r="J79" s="1">
+        <v>412503</v>
+      </c>
+      <c r="K79" s="4">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="L79" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M79" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="N79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" t="s">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>0</v>
+      </c>
+      <c r="U79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>1910</v>
+      </c>
+      <c r="B80" s="1">
+        <v>281100</v>
+      </c>
+      <c r="C80" s="1">
+        <v>517863</v>
+      </c>
+      <c r="D80" s="3">
+        <v>31.7</v>
+      </c>
+      <c r="E80" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="F80" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>16433</v>
+      </c>
+      <c r="H80" s="1">
+        <v>7515</v>
+      </c>
+      <c r="I80" s="5">
+        <v>9272</v>
+      </c>
+      <c r="J80" s="1">
+        <v>439720</v>
+      </c>
+      <c r="K80" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="L80" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M80" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
+        <v>0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>0</v>
+      </c>
+      <c r="U80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>1911</v>
+      </c>
+      <c r="B81" s="1">
+        <v>533100</v>
+      </c>
+      <c r="C81" s="1">
+        <v>505992</v>
+      </c>
+      <c r="D81" s="3">
+        <v>34.1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="F81" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="G81" s="1">
+        <v>17257</v>
+      </c>
+      <c r="H81" s="1">
+        <v>9270</v>
+      </c>
+      <c r="I81" s="5">
+        <v>7494</v>
+      </c>
+      <c r="J81" s="1">
+        <v>457910</v>
+      </c>
+      <c r="K81" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L81" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="M81" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N81" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>0</v>
+      </c>
+      <c r="U81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>1912</v>
+      </c>
+      <c r="B82" s="1">
+        <v>572000</v>
+      </c>
+      <c r="C82" s="1">
+        <v>545397</v>
+      </c>
+      <c r="D82" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="E82" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F82" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="G82" s="1">
+        <v>19607</v>
+      </c>
+      <c r="H82" s="1">
+        <v>9897</v>
+      </c>
+      <c r="I82" s="5">
+        <v>9981</v>
+      </c>
+      <c r="J82" s="1">
+        <v>473391</v>
+      </c>
+      <c r="K82" s="4">
+        <v>41.4</v>
+      </c>
+      <c r="L82" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="M82" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>0</v>
+      </c>
+      <c r="T82" t="s">
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>1913</v>
+      </c>
+      <c r="B83" s="1">
+        <v>604000</v>
+      </c>
+      <c r="C83" s="1">
+        <v>584572</v>
+      </c>
+      <c r="D83" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E83" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F83" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G83" s="1">
+        <v>21214</v>
+      </c>
+      <c r="H83" s="1">
+        <v>9601</v>
+      </c>
+      <c r="I83" s="5">
+        <v>8464</v>
+      </c>
+      <c r="J83" s="1">
+        <v>493082</v>
+      </c>
+      <c r="K83" s="4">
+        <v>43</v>
+      </c>
+      <c r="L83" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="M83" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="N83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>0</v>
+      </c>
+      <c r="R83" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" t="s">
+        <v>0</v>
+      </c>
+      <c r="T83" t="s">
+        <v>0</v>
+      </c>
+      <c r="U83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>1914</v>
+      </c>
+      <c r="B84" s="1">
+        <v>606600</v>
+      </c>
+      <c r="C84" s="1">
+        <v>619185</v>
+      </c>
+      <c r="D84" s="3">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E84" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="G84" s="1">
+        <v>20264</v>
+      </c>
+      <c r="H84" s="1">
+        <v>8707</v>
+      </c>
+      <c r="I84" s="5">
+        <v>11102</v>
+      </c>
+      <c r="J84" s="1">
+        <v>513159</v>
+      </c>
+      <c r="K84" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="L84" s="4">
+        <v>17</v>
+      </c>
+      <c r="M84" s="4">
+        <v>22.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1785E-F66D-4C97-B3DB-C341F1DA4D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AA4C1D-4FD1-4915-BD14-4EAFCA89F0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="7">
   <si>
     <t> </t>
   </si>
@@ -46,13 +46,23 @@
   <si>
     <t>с</t>
   </si>
+  <si>
+    <t>чр</t>
+  </si>
+  <si>
+    <t>чс</t>
+  </si>
+  <si>
+    <t>миг</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -112,6 +122,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -259,64 +273,64 @@
             <c:numRef>
               <c:f>Sheet1!$K$2:$K$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.1</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.8</c:v>
+                  <c:v>36.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.5</c:v>
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.799999999999997</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.1</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.700000000000003</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.3</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.1</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.4</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.9</c:v>
+                  <c:v>45.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>49.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.9</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.5</c:v>
+                  <c:v>46.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.9</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,64 +450,64 @@
             <c:numRef>
               <c:f>Sheet1!$L$2:$L$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>5.8</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.7</c:v>
+                  <c:v>19.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.6</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.9</c:v>
+                  <c:v>25.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>19.7</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.9</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.5</c:v>
+                  <c:v>35.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.5</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.2</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.3</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.5</c:v>
+                  <c:v>25.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.1</c:v>
+                  <c:v>26.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.7</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,7 +615,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2747,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,6 +2771,15 @@
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
@@ -2775,37 +2798,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>155295</v>
+        <v>81356</v>
       </c>
       <c r="D2" s="3">
-        <v>13.3</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3">
-        <v>8.3000000000000007</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
-        <v>2062</v>
+        <v>3822</v>
       </c>
       <c r="H2" s="1">
-        <v>1288</v>
+        <v>2195</v>
       </c>
       <c r="I2" s="5">
-        <v>55</v>
+        <v>1869</v>
       </c>
       <c r="J2" s="1">
-        <v>222321</v>
-      </c>
-      <c r="K2" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L2" s="4">
-        <v>5.8</v>
+        <v>116530</v>
+      </c>
+      <c r="K2" s="11">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L2" s="11">
+        <v>18.8</v>
       </c>
       <c r="M2" s="4">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
@@ -2832,11 +2855,11 @@
         <v>0</v>
       </c>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="5"/>
@@ -2853,37 +2876,37 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>177351</v>
+        <v>91156</v>
       </c>
       <c r="D3" s="3">
-        <v>30.9</v>
+        <v>53.3</v>
       </c>
       <c r="E3" s="3">
-        <v>17.3</v>
+        <v>26.3</v>
       </c>
       <c r="F3" s="3">
-        <v>13.6</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
-        <v>5476</v>
+        <v>4858</v>
       </c>
       <c r="H3" s="1">
-        <v>3068</v>
+        <v>2394</v>
       </c>
       <c r="I3" s="5">
-        <v>103</v>
+        <v>1317</v>
       </c>
       <c r="J3" s="1">
-        <v>223150</v>
-      </c>
-      <c r="K3" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>13.7</v>
+        <v>120026</v>
+      </c>
+      <c r="K3" s="11">
+        <v>40.5</v>
+      </c>
+      <c r="L3" s="11">
+        <v>19.899999999999999</v>
       </c>
       <c r="M3" s="4">
-        <v>10.8</v>
+        <v>20.5</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -2910,11 +2933,11 @@
         <v>0</v>
       </c>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="5"/>
@@ -2927,41 +2950,41 @@
       <c r="A4" s="7">
         <v>1898</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>198836</v>
+        <v>92296</v>
       </c>
       <c r="D4" s="3">
-        <v>29.6</v>
+        <v>42.8</v>
       </c>
       <c r="E4" s="3">
-        <v>17.8</v>
+        <v>22.1</v>
       </c>
       <c r="F4" s="3">
-        <v>11.9</v>
+        <v>20.7</v>
       </c>
       <c r="G4" s="1">
-        <v>5893</v>
+        <v>3953</v>
       </c>
       <c r="H4" s="1">
-        <v>3530</v>
-      </c>
-      <c r="I4" s="2">
-        <v>480</v>
+        <v>2043</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3930</v>
       </c>
       <c r="J4" s="1">
-        <v>225661</v>
-      </c>
-      <c r="K4" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>15.6</v>
+        <v>123807</v>
+      </c>
+      <c r="K4" s="11">
+        <v>31.9</v>
+      </c>
+      <c r="L4" s="11">
+        <v>16.5</v>
       </c>
       <c r="M4" s="4">
-        <v>10.5</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
@@ -2988,10 +3011,11 @@
         <v>0</v>
       </c>
       <c r="AA4" s="7"/>
-      <c r="AC4" s="1"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="2"/>
@@ -3004,41 +3028,41 @@
       <c r="A5" s="7">
         <v>1899</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>227950</v>
+        <v>93784</v>
       </c>
       <c r="D5" s="3">
-        <v>31.9</v>
+        <v>49.9</v>
       </c>
       <c r="E5" s="3">
-        <v>21.5</v>
+        <v>30.1</v>
       </c>
       <c r="F5" s="3">
-        <v>10.4</v>
+        <v>19.8</v>
       </c>
       <c r="G5" s="1">
-        <v>7276</v>
+        <v>4683</v>
       </c>
       <c r="H5" s="1">
-        <v>4906</v>
+        <v>2826</v>
       </c>
       <c r="I5" s="5">
-        <v>1019</v>
+        <v>1377</v>
       </c>
       <c r="J5" s="1">
-        <v>228504</v>
-      </c>
-      <c r="K5" s="4">
-        <v>31.8</v>
-      </c>
-      <c r="L5" s="4">
-        <v>21.5</v>
+        <v>129647</v>
+      </c>
+      <c r="K5" s="11">
+        <v>36.1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>21.8</v>
       </c>
       <c r="M5" s="4">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
@@ -3065,10 +3089,11 @@
         <v>0</v>
       </c>
       <c r="AA5" s="7"/>
-      <c r="AC5" s="1"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="5"/>
@@ -3081,41 +3106,41 @@
       <c r="A6" s="7">
         <v>1900</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>243666</v>
+        <v>96103</v>
       </c>
       <c r="D6" s="3">
-        <v>33.299999999999997</v>
+        <v>51.9</v>
       </c>
       <c r="E6" s="3">
-        <v>20.9</v>
+        <v>35.5</v>
       </c>
       <c r="F6" s="3">
-        <v>12.4</v>
+        <v>16.3</v>
       </c>
       <c r="G6" s="1">
-        <v>8115</v>
+        <v>4985</v>
       </c>
       <c r="H6" s="1">
-        <v>5085</v>
+        <v>3414</v>
       </c>
       <c r="I6" s="5">
-        <v>5902</v>
+        <v>6725</v>
       </c>
       <c r="J6" s="1">
-        <v>231893</v>
-      </c>
-      <c r="K6" s="4">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4">
-        <v>21.9</v>
+        <v>132881</v>
+      </c>
+      <c r="K6" s="11">
+        <v>37.5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>25.7</v>
       </c>
       <c r="M6" s="4">
-        <v>13.1</v>
+        <v>11.8</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -3142,10 +3167,11 @@
         <v>0</v>
       </c>
       <c r="AA6" s="7"/>
-      <c r="AC6" s="1"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="5"/>
@@ -3158,41 +3184,41 @@
       <c r="A7" s="7">
         <v>1901</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>268592</v>
+        <v>101637</v>
       </c>
       <c r="D7" s="3">
-        <v>30</v>
+        <v>52.3</v>
       </c>
       <c r="E7" s="3">
-        <v>17.7</v>
+        <v>30.6</v>
       </c>
       <c r="F7" s="3">
-        <v>12.3</v>
+        <v>21.7</v>
       </c>
       <c r="G7" s="1">
-        <v>8060</v>
+        <v>5320</v>
       </c>
       <c r="H7" s="1">
-        <v>4744</v>
+        <v>3113</v>
       </c>
       <c r="I7" s="5">
-        <v>2906</v>
+        <v>3163</v>
       </c>
       <c r="J7" s="1">
-        <v>240825</v>
-      </c>
-      <c r="K7" s="4">
-        <v>33.5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>19.7</v>
+        <v>141177</v>
+      </c>
+      <c r="K7" s="11">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L7" s="11">
+        <v>22.1</v>
       </c>
       <c r="M7" s="4">
-        <v>13.8</v>
+        <v>15.6</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
@@ -3219,10 +3245,11 @@
         <v>0</v>
       </c>
       <c r="AA7" s="7"/>
-      <c r="AC7" s="1"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="5"/>
@@ -3235,41 +3262,41 @@
       <c r="A8" s="7">
         <v>1902</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>281000</v>
+        <v>104165</v>
       </c>
       <c r="D8" s="3">
-        <v>31.4</v>
+        <v>60.2</v>
       </c>
       <c r="E8" s="3">
-        <v>18</v>
+        <v>33.4</v>
       </c>
       <c r="F8" s="3">
-        <v>13.4</v>
+        <v>26.9</v>
       </c>
       <c r="G8" s="1">
-        <v>8815</v>
+        <v>6275</v>
       </c>
       <c r="H8" s="1">
-        <v>5044</v>
+        <v>3476</v>
       </c>
       <c r="I8" s="5">
-        <v>6402</v>
+        <v>7421</v>
       </c>
       <c r="J8" s="1">
-        <v>247047</v>
-      </c>
-      <c r="K8" s="4">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="L8" s="4">
-        <v>20.399999999999999</v>
+        <v>146547</v>
+      </c>
+      <c r="K8" s="11">
+        <v>42.8</v>
+      </c>
+      <c r="L8" s="11">
+        <v>23.7</v>
       </c>
       <c r="M8" s="4">
-        <v>15.3</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
@@ -3296,10 +3323,11 @@
         <v>0</v>
       </c>
       <c r="AA8" s="7"/>
-      <c r="AC8" s="1"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="5"/>
@@ -3312,41 +3340,41 @@
       <c r="A9" s="7">
         <v>1903</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>300370</v>
+        <v>111351</v>
       </c>
       <c r="D9" s="3">
-        <v>33.4</v>
+        <v>55.5</v>
       </c>
       <c r="E9" s="3">
-        <v>16.8</v>
+        <v>25.7</v>
       </c>
       <c r="F9" s="3">
-        <v>16.600000000000001</v>
+        <v>29.8</v>
       </c>
       <c r="G9" s="1">
-        <v>10029</v>
+        <v>6184</v>
       </c>
       <c r="H9" s="1">
-        <v>5037</v>
+        <v>2861</v>
       </c>
       <c r="I9" s="5">
-        <v>7301</v>
+        <v>3682</v>
       </c>
       <c r="J9" s="1">
-        <v>257220</v>
-      </c>
-      <c r="K9" s="4">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4">
-        <v>19.600000000000001</v>
+        <v>156767</v>
+      </c>
+      <c r="K9" s="11">
+        <v>39.4</v>
+      </c>
+      <c r="L9" s="11">
+        <v>18.3</v>
       </c>
       <c r="M9" s="4">
-        <v>19.399999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
@@ -3373,10 +3401,11 @@
         <v>0</v>
       </c>
       <c r="AA9" s="7"/>
-      <c r="AC9" s="1"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="5"/>
@@ -3390,40 +3419,40 @@
         <v>1904</v>
       </c>
       <c r="B10" s="1">
-        <v>242900</v>
+        <v>139000</v>
       </c>
       <c r="C10" s="1">
-        <v>330204</v>
+        <v>124271</v>
       </c>
       <c r="D10" s="3">
-        <v>26.8</v>
+        <v>56.1</v>
       </c>
       <c r="E10" s="3">
-        <v>12.9</v>
+        <v>24.6</v>
       </c>
       <c r="F10" s="3">
-        <v>13.9</v>
+        <v>31.5</v>
       </c>
       <c r="G10" s="1">
-        <v>8834</v>
+        <v>6968</v>
       </c>
       <c r="H10" s="1">
-        <v>4260</v>
+        <v>3056</v>
       </c>
       <c r="I10" s="5">
-        <v>-143</v>
+        <v>-199</v>
       </c>
       <c r="J10" s="1">
-        <v>269513</v>
-      </c>
-      <c r="K10" s="4">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="L10" s="4">
-        <v>15.8</v>
+        <v>163774</v>
+      </c>
+      <c r="K10" s="11">
+        <v>42.5</v>
+      </c>
+      <c r="L10" s="11">
+        <v>18.7</v>
       </c>
       <c r="M10" s="4">
-        <v>17</v>
+        <v>23.9</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
@@ -3450,11 +3479,11 @@
         <v>0</v>
       </c>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="5"/>
@@ -3468,40 +3497,40 @@
         <v>1905</v>
       </c>
       <c r="B11" s="1">
-        <v>246800</v>
+        <v>143700</v>
       </c>
       <c r="C11" s="1">
-        <v>252210</v>
+        <v>126688</v>
       </c>
       <c r="D11" s="3">
-        <v>33.700000000000003</v>
+        <v>55.2</v>
       </c>
       <c r="E11" s="3">
-        <v>16.899999999999999</v>
+        <v>27.7</v>
       </c>
       <c r="F11" s="3">
-        <v>16.8</v>
+        <v>27.5</v>
       </c>
       <c r="G11" s="1">
-        <v>8506</v>
+        <v>6997</v>
       </c>
       <c r="H11" s="1">
-        <v>4273</v>
+        <v>3507</v>
       </c>
       <c r="I11" s="5">
-        <v>-36</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1">
-        <v>273944</v>
-      </c>
-      <c r="K11" s="4">
-        <v>31.1</v>
-      </c>
-      <c r="L11" s="4">
-        <v>15.6</v>
+        <v>167541</v>
+      </c>
+      <c r="K11" s="11">
+        <v>41.8</v>
+      </c>
+      <c r="L11" s="11">
+        <v>20.9</v>
       </c>
       <c r="M11" s="4">
-        <v>15.5</v>
+        <v>20.8</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
@@ -3528,11 +3557,11 @@
         <v>0</v>
       </c>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="5"/>
@@ -3546,40 +3575,40 @@
         <v>1906</v>
       </c>
       <c r="B12" s="1">
-        <v>252100</v>
+        <v>148700</v>
       </c>
       <c r="C12" s="1">
-        <v>239970</v>
+        <v>130032</v>
       </c>
       <c r="D12" s="3">
-        <v>44.9</v>
+        <v>55.4</v>
       </c>
       <c r="E12" s="3">
-        <v>24.2</v>
+        <v>25.9</v>
       </c>
       <c r="F12" s="3">
-        <v>20.6</v>
+        <v>29.5</v>
       </c>
       <c r="G12" s="1">
-        <v>10768</v>
+        <v>7205</v>
       </c>
       <c r="H12" s="1">
-        <v>5818</v>
+        <v>3370</v>
       </c>
       <c r="I12" s="5">
-        <v>13290</v>
+        <v>4590</v>
       </c>
       <c r="J12" s="1">
-        <v>278141</v>
-      </c>
-      <c r="K12" s="4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="L12" s="4">
-        <v>20.9</v>
+        <v>171171</v>
+      </c>
+      <c r="K12" s="11">
+        <v>42.1</v>
+      </c>
+      <c r="L12" s="11">
+        <v>19.7</v>
       </c>
       <c r="M12" s="4">
-        <v>17.8</v>
+        <v>22.4</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
@@ -3606,11 +3635,11 @@
         <v>0</v>
       </c>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="5"/>
@@ -3624,40 +3653,40 @@
         <v>1907</v>
       </c>
       <c r="B13" s="1">
-        <v>267300</v>
+        <v>154200</v>
       </c>
       <c r="C13" s="1">
-        <v>359138</v>
+        <v>134166</v>
       </c>
       <c r="D13" s="3">
-        <v>35.700000000000003</v>
+        <v>59.6</v>
       </c>
       <c r="E13" s="3">
-        <v>21.8</v>
+        <v>48.1</v>
       </c>
       <c r="F13" s="3">
-        <v>13.9</v>
+        <v>11.5</v>
       </c>
       <c r="G13" s="1">
-        <v>12819</v>
+        <v>7996</v>
       </c>
       <c r="H13" s="1">
-        <v>7842</v>
+        <v>6447</v>
       </c>
       <c r="I13" s="5">
-        <v>74512</v>
+        <v>16910</v>
       </c>
       <c r="J13" s="1">
-        <v>296382</v>
-      </c>
-      <c r="K13" s="4">
-        <v>43.3</v>
-      </c>
-      <c r="L13" s="4">
-        <v>26.5</v>
+        <v>179596</v>
+      </c>
+      <c r="K13" s="11">
+        <v>44.5</v>
+      </c>
+      <c r="L13" s="11">
+        <v>35.9</v>
       </c>
       <c r="M13" s="4">
-        <v>16.8</v>
+        <v>8.6</v>
       </c>
       <c r="N13" t="s">
         <v>0</v>
@@ -3684,11 +3713,11 @@
         <v>0</v>
       </c>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="5"/>
@@ -3702,40 +3731,40 @@
         <v>1908</v>
       </c>
       <c r="B14" s="1">
-        <v>289600</v>
+        <v>160400</v>
       </c>
       <c r="C14" s="1">
-        <v>516767</v>
+        <v>154636</v>
       </c>
       <c r="D14" s="3">
-        <v>38.6</v>
+        <v>56.3</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>30.6</v>
       </c>
       <c r="F14" s="3">
-        <v>18.600000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="G14" s="1">
-        <v>19955</v>
+        <v>8708</v>
       </c>
       <c r="H14" s="1">
-        <v>10335</v>
+        <v>4725</v>
       </c>
       <c r="I14" s="5">
-        <v>20590</v>
+        <v>8946</v>
       </c>
       <c r="J14" s="1">
-        <v>376141</v>
-      </c>
-      <c r="K14" s="4">
-        <v>53.1</v>
-      </c>
-      <c r="L14" s="4">
-        <v>27.5</v>
+        <v>198055</v>
+      </c>
+      <c r="K14" s="11">
+        <v>44</v>
+      </c>
+      <c r="L14" s="11">
+        <v>23.9</v>
       </c>
       <c r="M14" s="4">
-        <v>25.6</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
@@ -3762,11 +3791,11 @@
         <v>0</v>
       </c>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="5"/>
@@ -3780,40 +3809,40 @@
         <v>1909</v>
       </c>
       <c r="B15" s="1">
-        <v>268900</v>
+        <v>195200</v>
       </c>
       <c r="C15" s="1">
-        <v>530805</v>
+        <v>157272</v>
       </c>
       <c r="D15" s="3">
-        <v>30.2</v>
+        <v>53.1</v>
       </c>
       <c r="E15" s="3">
-        <v>13.9</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F15" s="3">
-        <v>16.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G15" s="1">
-        <v>16017</v>
+        <v>8355</v>
       </c>
       <c r="H15" s="1">
-        <v>7388</v>
+        <v>5228</v>
       </c>
       <c r="I15" s="5">
-        <v>18588</v>
+        <v>22417</v>
       </c>
       <c r="J15" s="1">
-        <v>406352</v>
-      </c>
-      <c r="K15" s="4">
-        <v>39.4</v>
-      </c>
-      <c r="L15" s="4">
-        <v>18.2</v>
+        <v>210984</v>
+      </c>
+      <c r="K15" s="11">
+        <v>39.6</v>
+      </c>
+      <c r="L15" s="11">
+        <v>24.8</v>
       </c>
       <c r="M15" s="4">
-        <v>21.2</v>
+        <v>14.8</v>
       </c>
       <c r="N15" t="s">
         <v>0</v>
@@ -3840,11 +3869,11 @@
         <v>0</v>
       </c>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="5"/>
@@ -3858,40 +3887,40 @@
         <v>1910</v>
       </c>
       <c r="B16" s="1">
-        <v>281100</v>
+        <v>217700</v>
       </c>
       <c r="C16" s="1">
-        <v>517863</v>
+        <v>198860</v>
       </c>
       <c r="D16" s="3">
-        <v>31.7</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3">
-        <v>14.5</v>
+        <v>33.9</v>
       </c>
       <c r="F16" s="3">
-        <v>17.2</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>16433</v>
+        <v>10736</v>
       </c>
       <c r="H16" s="1">
-        <v>7515</v>
+        <v>6750</v>
       </c>
       <c r="I16" s="5">
-        <v>9272</v>
+        <v>17794</v>
       </c>
       <c r="J16" s="1">
-        <v>433569</v>
-      </c>
-      <c r="K16" s="4">
-        <v>37.9</v>
-      </c>
-      <c r="L16" s="4">
-        <v>17.3</v>
+        <v>236528</v>
+      </c>
+      <c r="K16" s="11">
+        <v>45.4</v>
+      </c>
+      <c r="L16" s="11">
+        <v>28.5</v>
       </c>
       <c r="M16" s="4">
-        <v>20.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="N16" t="s">
         <v>0</v>
@@ -3918,11 +3947,11 @@
         <v>0</v>
       </c>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="5"/>
@@ -3936,40 +3965,40 @@
         <v>1911</v>
       </c>
       <c r="B17" s="1">
-        <v>533100</v>
+        <v>230200</v>
       </c>
       <c r="C17" s="1">
-        <v>505992</v>
+        <v>198511</v>
       </c>
       <c r="D17" s="3">
-        <v>34.1</v>
+        <v>64.5</v>
       </c>
       <c r="E17" s="3">
-        <v>18.3</v>
+        <v>33.5</v>
       </c>
       <c r="F17" s="3">
-        <v>15.8</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1">
-        <v>17257</v>
+        <v>12802</v>
       </c>
       <c r="H17" s="1">
-        <v>9270</v>
+        <v>6647</v>
       </c>
       <c r="I17" s="5">
-        <v>7494</v>
+        <v>4235</v>
       </c>
       <c r="J17" s="1">
-        <v>452041</v>
-      </c>
-      <c r="K17" s="4">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="L17" s="4">
-        <v>20.5</v>
+        <v>258308</v>
+      </c>
+      <c r="K17" s="11">
+        <v>49.6</v>
+      </c>
+      <c r="L17" s="11">
+        <v>25.7</v>
       </c>
       <c r="M17" s="4">
-        <v>17.7</v>
+        <v>23.8</v>
       </c>
       <c r="N17" t="s">
         <v>0</v>
@@ -3996,11 +4025,11 @@
         <v>0</v>
       </c>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="5"/>
@@ -4014,40 +4043,40 @@
         <v>1912</v>
       </c>
       <c r="B18" s="1">
-        <v>572000</v>
+        <v>230200</v>
       </c>
       <c r="C18" s="1">
-        <v>545397</v>
+        <v>268743</v>
       </c>
       <c r="D18" s="3">
-        <v>35.9</v>
+        <v>47.6</v>
       </c>
       <c r="E18" s="3">
-        <v>18.100000000000001</v>
+        <v>26.7</v>
       </c>
       <c r="F18" s="3">
-        <v>17.8</v>
+        <v>20.8</v>
       </c>
       <c r="G18" s="1">
-        <v>19607</v>
+        <v>12782</v>
       </c>
       <c r="H18" s="1">
-        <v>9897</v>
+        <v>7187</v>
       </c>
       <c r="I18" s="5">
-        <v>9981</v>
+        <v>6156</v>
       </c>
       <c r="J18" s="1">
-        <v>467963</v>
-      </c>
-      <c r="K18" s="4">
-        <v>41.9</v>
-      </c>
-      <c r="L18" s="4">
-        <v>21.1</v>
+        <v>268698</v>
+      </c>
+      <c r="K18" s="11">
+        <v>47.6</v>
+      </c>
+      <c r="L18" s="11">
+        <v>26.7</v>
       </c>
       <c r="M18" s="4">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N18" t="s">
         <v>0</v>
@@ -4074,11 +4103,11 @@
         <v>0</v>
       </c>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="5"/>
@@ -4092,40 +4121,40 @@
         <v>1913</v>
       </c>
       <c r="B19" s="1">
-        <v>604000</v>
+        <v>241100</v>
       </c>
       <c r="C19" s="1">
-        <v>584572</v>
+        <v>276914</v>
       </c>
       <c r="D19" s="3">
-        <v>36.299999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="E19" s="3">
-        <v>16.399999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="F19" s="3">
-        <v>19.899999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="G19" s="1">
-        <v>21214</v>
+        <v>13088</v>
       </c>
       <c r="H19" s="1">
-        <v>9601</v>
+        <v>5388</v>
       </c>
       <c r="I19" s="5">
-        <v>8464</v>
+        <v>7715</v>
       </c>
       <c r="J19" s="1">
-        <v>487887</v>
-      </c>
-      <c r="K19" s="4">
-        <v>43.5</v>
-      </c>
-      <c r="L19" s="4">
-        <v>19.7</v>
+        <v>280449</v>
+      </c>
+      <c r="K19" s="11">
+        <v>46.7</v>
+      </c>
+      <c r="L19" s="11">
+        <v>19.2</v>
       </c>
       <c r="M19" s="4">
-        <v>23.8</v>
+        <v>27.5</v>
       </c>
       <c r="N19" t="s">
         <v>0</v>
@@ -4152,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="AA19" s="7"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="5"/>
@@ -4170,71 +4199,52 @@
         <v>1914</v>
       </c>
       <c r="B20" s="1">
-        <v>606600</v>
+        <v>250400</v>
       </c>
       <c r="C20" s="1">
-        <v>619185</v>
+        <v>321794</v>
       </c>
       <c r="D20" s="3">
-        <v>32.700000000000003</v>
+        <v>52.8</v>
       </c>
       <c r="E20" s="3">
-        <v>14.1</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3">
-        <v>18.7</v>
+        <v>28.8</v>
       </c>
       <c r="G20" s="1">
-        <v>20264</v>
+        <v>16999</v>
       </c>
       <c r="H20" s="1">
-        <v>8707</v>
+        <v>7728</v>
       </c>
       <c r="I20" s="5">
-        <v>11102</v>
+        <v>14699</v>
       </c>
       <c r="J20" s="1">
-        <v>508058</v>
-      </c>
-      <c r="K20" s="4">
-        <v>39.9</v>
-      </c>
-      <c r="L20" s="4">
-        <v>17.100000000000001</v>
+        <v>295864</v>
+      </c>
+      <c r="K20" s="11">
+        <v>57.5</v>
+      </c>
+      <c r="L20" s="11">
+        <v>26.1</v>
       </c>
       <c r="M20" s="4">
-        <v>22.7</v>
-      </c>
-      <c r="N20" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>31.3</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="2"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="5"/>
@@ -4246,10 +4256,31 @@
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="1">
+        <f>SUM(G2:G20)</f>
+        <v>152716</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SUM(H2:H20)</f>
+        <v>82355</v>
+      </c>
+      <c r="I21" s="1">
+        <f>SUM(I2:I20)</f>
+        <v>132769</v>
+      </c>
       <c r="J21" s="1"/>
+      <c r="V21" s="1">
+        <f>G21-H21</f>
+        <v>70361</v>
+      </c>
+      <c r="W21" s="1">
+        <f>V21+I21</f>
+        <v>203130</v>
+      </c>
+      <c r="Y21">
+        <f>I21/W21</f>
+        <v>0.65361591099296013</v>
+      </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AA4C1D-4FD1-4915-BD14-4EAFCA89F0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFFF723-7014-417B-B64F-E4CCBDFEA028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="11">
   <si>
     <t> </t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>миг</t>
+  </si>
+  <si>
+    <t>ест прирост</t>
+  </si>
+  <si>
+    <t>весь прирост</t>
+  </si>
+  <si>
+    <t>% мигр</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -276,61 +288,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>32.799999999999997</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.5</c:v>
+                  <c:v>32.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.9</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.1</c:v>
+                  <c:v>30.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.5</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.700000000000003</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.8</c:v>
+                  <c:v>31.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.4</c:v>
+                  <c:v>34.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.8</c:v>
+                  <c:v>37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.1</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.5</c:v>
+                  <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.6</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.4</c:v>
+                  <c:v>36.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.6</c:v>
+                  <c:v>34.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.6</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.7</c:v>
+                  <c:v>37.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,61 +465,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>18.8</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>21.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.5</c:v>
+                  <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.8</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.7</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.1</c:v>
+                  <c:v>18.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.7</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.3</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>18.7</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.9</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.8</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.5</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.7</c:v>
+                  <c:v>21.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.7</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.2</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.1</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,10 +2774,13 @@
   <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -2798,61 +2813,61 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>81356</v>
+        <v>986247</v>
       </c>
       <c r="D2" s="3">
-        <v>47</v>
+        <v>33.4</v>
       </c>
       <c r="E2" s="3">
-        <v>27</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="G2" s="1">
-        <v>3822</v>
+        <v>32982</v>
       </c>
       <c r="H2" s="1">
-        <v>2195</v>
+        <v>19852</v>
       </c>
       <c r="I2" s="5">
-        <v>1869</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1">
-        <v>116530</v>
+        <v>1036891</v>
       </c>
       <c r="K2" s="11">
-        <v>32.799999999999997</v>
+        <v>31.8</v>
       </c>
       <c r="L2" s="11">
-        <v>18.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="M2" s="4">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>0</v>
+        <v>12.7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1032807</v>
+      </c>
+      <c r="O2" s="3">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>36145</v>
+      </c>
+      <c r="S2" s="1">
+        <v>19175</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>0</v>
+      <c r="U2" s="2">
+        <v>91</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="10"/>
@@ -2876,61 +2891,61 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>91156</v>
+        <v>1038742</v>
       </c>
       <c r="D3" s="3">
-        <v>53.3</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E3" s="3">
-        <v>26.3</v>
+        <v>21.3</v>
       </c>
       <c r="F3" s="3">
-        <v>27</v>
+        <v>11.9</v>
       </c>
       <c r="G3" s="1">
-        <v>4858</v>
+        <v>34504</v>
       </c>
       <c r="H3" s="1">
-        <v>2394</v>
+        <v>22107</v>
       </c>
       <c r="I3" s="5">
-        <v>1317</v>
+        <v>201</v>
       </c>
       <c r="J3" s="1">
-        <v>120026</v>
+        <v>1050100</v>
       </c>
       <c r="K3" s="11">
-        <v>40.5</v>
+        <v>32.9</v>
       </c>
       <c r="L3" s="11">
-        <v>19.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="M3" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>0</v>
+        <v>11.8</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1049742</v>
+      </c>
+      <c r="O3" s="3">
+        <v>35</v>
+      </c>
+      <c r="P3" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R3" s="1">
+        <v>36738</v>
+      </c>
+      <c r="S3" s="1">
+        <v>19489</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>0</v>
+      <c r="U3" s="2">
+        <v>94</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="10"/>
@@ -2954,61 +2969,61 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>92296</v>
+        <v>1051885</v>
       </c>
       <c r="D4" s="3">
-        <v>42.8</v>
+        <v>31.6</v>
       </c>
       <c r="E4" s="3">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
-        <v>20.7</v>
+        <v>10.5</v>
       </c>
       <c r="G4" s="1">
-        <v>3953</v>
+        <v>33194</v>
       </c>
       <c r="H4" s="1">
-        <v>2043</v>
+        <v>22125</v>
       </c>
       <c r="I4" s="5">
-        <v>3930</v>
+        <v>191</v>
       </c>
       <c r="J4" s="1">
-        <v>123807</v>
+        <v>1062698</v>
       </c>
       <c r="K4" s="11">
-        <v>31.9</v>
+        <v>31.2</v>
       </c>
       <c r="L4" s="11">
-        <v>16.5</v>
+        <v>20.8</v>
       </c>
       <c r="M4" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>0</v>
+        <v>10.4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1066954</v>
+      </c>
+      <c r="O4" s="3">
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R4" s="1">
+        <v>37340</v>
+      </c>
+      <c r="S4" s="1">
+        <v>19809</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>0</v>
+      <c r="U4" s="2">
+        <v>89</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="10"/>
@@ -3032,61 +3047,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>93784</v>
+        <v>1063155</v>
       </c>
       <c r="D5" s="3">
-        <v>49.9</v>
+        <v>31.3</v>
       </c>
       <c r="E5" s="3">
-        <v>30.1</v>
+        <v>23.7</v>
       </c>
       <c r="F5" s="3">
-        <v>19.8</v>
+        <v>7.6</v>
       </c>
       <c r="G5" s="1">
-        <v>4683</v>
+        <v>33230</v>
       </c>
       <c r="H5" s="1">
-        <v>2826</v>
+        <v>25190</v>
       </c>
       <c r="I5" s="5">
-        <v>1377</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1">
-        <v>129647</v>
+        <v>1073958</v>
       </c>
       <c r="K5" s="11">
-        <v>36.1</v>
+        <v>30.9</v>
       </c>
       <c r="L5" s="11">
-        <v>21.8</v>
+        <v>23.5</v>
       </c>
       <c r="M5" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>0</v>
+        <v>7.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1084449</v>
+      </c>
+      <c r="O5" s="3">
+        <v>35</v>
+      </c>
+      <c r="P5" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R5" s="1">
+        <v>37953</v>
+      </c>
+      <c r="S5" s="1">
+        <v>20134</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>0</v>
+      <c r="U5" s="2">
+        <v>88</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="10"/>
@@ -3110,61 +3125,61 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>96103</v>
+        <v>1075235</v>
       </c>
       <c r="D6" s="3">
-        <v>51.9</v>
+        <v>32.6</v>
       </c>
       <c r="E6" s="3">
-        <v>35.5</v>
+        <v>19.7</v>
       </c>
       <c r="F6" s="3">
-        <v>16.3</v>
+        <v>12.9</v>
       </c>
       <c r="G6" s="1">
-        <v>4985</v>
+        <v>35042</v>
       </c>
       <c r="H6" s="1">
-        <v>3414</v>
+        <v>21141</v>
       </c>
       <c r="I6" s="5">
-        <v>6725</v>
+        <v>75</v>
       </c>
       <c r="J6" s="1">
-        <v>132881</v>
+        <v>1082148</v>
       </c>
       <c r="K6" s="11">
-        <v>37.5</v>
+        <v>32.4</v>
       </c>
       <c r="L6" s="11">
-        <v>25.7</v>
+        <v>19.5</v>
       </c>
       <c r="M6" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>0</v>
+        <v>12.8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1102231</v>
+      </c>
+      <c r="O6" s="3">
+        <v>35</v>
+      </c>
+      <c r="P6" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R6" s="1">
+        <v>38575</v>
+      </c>
+      <c r="S6" s="1">
+        <v>20464</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>0</v>
+      <c r="U6" s="2">
+        <v>91</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="10"/>
@@ -3188,61 +3203,61 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>101637</v>
+        <v>1079119</v>
       </c>
       <c r="D7" s="3">
-        <v>52.3</v>
+        <v>33.6</v>
       </c>
       <c r="E7" s="3">
-        <v>30.6</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3">
-        <v>21.7</v>
+        <v>14.5</v>
       </c>
       <c r="G7" s="1">
-        <v>5320</v>
+        <v>36213</v>
       </c>
       <c r="H7" s="1">
-        <v>3113</v>
+        <v>20534</v>
       </c>
       <c r="I7" s="5">
-        <v>3163</v>
+        <v>140</v>
       </c>
       <c r="J7" s="1">
-        <v>141177</v>
+        <v>1096124</v>
       </c>
       <c r="K7" s="11">
-        <v>37.700000000000003</v>
+        <v>33</v>
       </c>
       <c r="L7" s="11">
-        <v>22.1</v>
+        <v>18.7</v>
       </c>
       <c r="M7" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>0</v>
+        <v>14.3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1120304</v>
+      </c>
+      <c r="O7" s="3">
+        <v>35</v>
+      </c>
+      <c r="P7" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>39208</v>
+      </c>
+      <c r="S7" s="1">
+        <v>20799</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>0</v>
+      <c r="U7" s="2">
+        <v>92</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="10"/>
@@ -3266,61 +3281,61 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>104165</v>
+        <v>1083214</v>
       </c>
       <c r="D8" s="3">
-        <v>60.2</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E8" s="3">
-        <v>33.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F8" s="3">
-        <v>26.9</v>
+        <v>14.3</v>
       </c>
       <c r="G8" s="1">
-        <v>6275</v>
+        <v>34941</v>
       </c>
       <c r="H8" s="1">
-        <v>3476</v>
+        <v>19405</v>
       </c>
       <c r="I8" s="5">
-        <v>7421</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1">
-        <v>146547</v>
+        <v>1111943</v>
       </c>
       <c r="K8" s="11">
-        <v>42.8</v>
+        <v>31.4</v>
       </c>
       <c r="L8" s="11">
-        <v>23.7</v>
+        <v>17.5</v>
       </c>
       <c r="M8" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1138673</v>
+      </c>
+      <c r="O8" s="3">
+        <v>35</v>
+      </c>
+      <c r="P8" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>39850</v>
+      </c>
+      <c r="S8" s="1">
+        <v>21140</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>0</v>
+      <c r="U8" s="2">
+        <v>88</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="10"/>
@@ -3344,61 +3359,61 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>111351</v>
+        <v>969533</v>
       </c>
       <c r="D9" s="3">
-        <v>55.5</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E9" s="3">
-        <v>25.7</v>
+        <v>21.7</v>
       </c>
       <c r="F9" s="3">
-        <v>29.8</v>
+        <v>18.5</v>
       </c>
       <c r="G9" s="1">
-        <v>6184</v>
+        <v>38992</v>
       </c>
       <c r="H9" s="1">
-        <v>2861</v>
+        <v>21014</v>
       </c>
       <c r="I9" s="5">
-        <v>3682</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1">
-        <v>156767</v>
+        <v>1127533</v>
       </c>
       <c r="K9" s="11">
-        <v>39.4</v>
+        <v>34.6</v>
       </c>
       <c r="L9" s="11">
-        <v>18.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M9" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>0</v>
+        <v>15.9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1157344</v>
+      </c>
+      <c r="O9" s="3">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P9" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>38992</v>
+      </c>
+      <c r="S9" s="1">
+        <v>21014</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U9" s="2">
+        <v>100</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="10"/>
@@ -3419,64 +3434,64 @@
         <v>1904</v>
       </c>
       <c r="B10" s="1">
-        <v>139000</v>
+        <v>1035600</v>
       </c>
       <c r="C10" s="1">
-        <v>124271</v>
+        <v>994575</v>
       </c>
       <c r="D10" s="3">
-        <v>56.1</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="E10" s="3">
-        <v>24.6</v>
+        <v>18.5</v>
       </c>
       <c r="F10" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>36086</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18370</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-82</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1145668</v>
+      </c>
+      <c r="K10" s="11">
         <v>31.5</v>
       </c>
-      <c r="G10" s="1">
-        <v>6968</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3056</v>
-      </c>
-      <c r="I10" s="5">
-        <v>-199</v>
-      </c>
-      <c r="J10" s="1">
-        <v>163774</v>
-      </c>
-      <c r="K10" s="11">
-        <v>42.5</v>
-      </c>
       <c r="L10" s="11">
-        <v>18.7</v>
+        <v>16</v>
       </c>
       <c r="M10" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>0</v>
+        <v>15.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1175345</v>
+      </c>
+      <c r="O10" s="3">
+        <v>30.7</v>
+      </c>
+      <c r="P10" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>36086</v>
+      </c>
+      <c r="S10" s="1">
+        <v>18370</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U10" s="2">
+        <v>100</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="10"/>
@@ -3497,64 +3512,64 @@
         <v>1905</v>
       </c>
       <c r="B11" s="1">
-        <v>143700</v>
+        <v>1138400</v>
       </c>
       <c r="C11" s="1">
-        <v>126688</v>
+        <v>1118549</v>
       </c>
       <c r="D11" s="3">
-        <v>55.2</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E11" s="3">
-        <v>27.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F11" s="3">
-        <v>27.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6997</v>
+        <v>43320</v>
       </c>
       <c r="H11" s="1">
-        <v>3507</v>
+        <v>20802</v>
       </c>
       <c r="I11" s="5">
-        <v>22</v>
+        <v>-209</v>
       </c>
       <c r="J11" s="1">
-        <v>167541</v>
+        <v>1163302</v>
       </c>
       <c r="K11" s="11">
-        <v>41.8</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="L11" s="11">
-        <v>20.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M11" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>0</v>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1192979</v>
+      </c>
+      <c r="O11" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="P11" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <v>43320</v>
+      </c>
+      <c r="S11" s="1">
+        <v>20802</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U11" s="2">
+        <v>100</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="10"/>
@@ -3575,64 +3590,64 @@
         <v>1906</v>
       </c>
       <c r="B12" s="1">
-        <v>148700</v>
+        <v>1081900</v>
       </c>
       <c r="C12" s="1">
-        <v>130032</v>
+        <v>1109063</v>
       </c>
       <c r="D12" s="3">
-        <v>55.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E12" s="3">
-        <v>25.9</v>
+        <v>18.3</v>
       </c>
       <c r="F12" s="3">
-        <v>29.5</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>7205</v>
+        <v>42466</v>
       </c>
       <c r="H12" s="1">
-        <v>3370</v>
+        <v>20302</v>
       </c>
       <c r="I12" s="5">
-        <v>4590</v>
+        <v>-354</v>
       </c>
       <c r="J12" s="1">
-        <v>171171</v>
+        <v>1185611</v>
       </c>
       <c r="K12" s="11">
-        <v>42.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="L12" s="11">
-        <v>19.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M12" s="4">
-        <v>22.4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>0</v>
+        <v>18.7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1215288</v>
+      </c>
+      <c r="O12" s="3">
+        <v>34.9</v>
+      </c>
+      <c r="P12" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>42466</v>
+      </c>
+      <c r="S12" s="1">
+        <v>20302</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U12" s="2">
+        <v>100</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="10"/>
@@ -3653,64 +3668,64 @@
         <v>1907</v>
       </c>
       <c r="B13" s="1">
-        <v>154200</v>
+        <v>1097600</v>
       </c>
       <c r="C13" s="1">
-        <v>134166</v>
+        <v>1150488</v>
       </c>
       <c r="D13" s="3">
-        <v>59.6</v>
+        <v>36.9</v>
       </c>
       <c r="E13" s="3">
-        <v>48.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F13" s="3">
-        <v>11.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7996</v>
+        <v>42397</v>
       </c>
       <c r="H13" s="1">
-        <v>6447</v>
+        <v>21192</v>
       </c>
       <c r="I13" s="5">
-        <v>16910</v>
+        <v>-66</v>
       </c>
       <c r="J13" s="1">
-        <v>179596</v>
+        <v>1209070</v>
       </c>
       <c r="K13" s="11">
-        <v>44.5</v>
+        <v>35.1</v>
       </c>
       <c r="L13" s="11">
-        <v>35.9</v>
+        <v>17.5</v>
       </c>
       <c r="M13" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>0</v>
+        <v>17.5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1237098</v>
+      </c>
+      <c r="O13" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="P13" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R13" s="1">
+        <v>42397</v>
+      </c>
+      <c r="S13" s="1">
+        <v>21192</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U13" s="2">
+        <v>100</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="10"/>
@@ -3731,64 +3746,64 @@
         <v>1908</v>
       </c>
       <c r="B14" s="1">
-        <v>160400</v>
+        <v>1117100</v>
       </c>
       <c r="C14" s="1">
-        <v>154636</v>
+        <v>1173452</v>
       </c>
       <c r="D14" s="3">
-        <v>56.3</v>
+        <v>35.5</v>
       </c>
       <c r="E14" s="3">
-        <v>30.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>25.8</v>
+        <v>15.9</v>
       </c>
       <c r="G14" s="1">
-        <v>8708</v>
+        <v>41648</v>
       </c>
       <c r="H14" s="1">
-        <v>4725</v>
+        <v>23004</v>
       </c>
       <c r="I14" s="5">
-        <v>8946</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1">
-        <v>198055</v>
+        <v>1232259</v>
       </c>
       <c r="K14" s="11">
-        <v>44</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="L14" s="11">
-        <v>23.9</v>
+        <v>18.7</v>
       </c>
       <c r="M14" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>0</v>
+        <v>15.1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1258237</v>
+      </c>
+      <c r="O14" s="3">
+        <v>33.1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="R14" s="1">
+        <v>41648</v>
+      </c>
+      <c r="S14" s="1">
+        <v>23004</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U14" s="2">
+        <v>100</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="10"/>
@@ -3809,64 +3824,64 @@
         <v>1909</v>
       </c>
       <c r="B15" s="1">
-        <v>195200</v>
+        <v>1145400</v>
       </c>
       <c r="C15" s="1">
-        <v>157272</v>
+        <v>1247473</v>
       </c>
       <c r="D15" s="3">
-        <v>53.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E15" s="3">
-        <v>33.200000000000003</v>
+        <v>19.2</v>
       </c>
       <c r="F15" s="3">
-        <v>19.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>8355</v>
+        <v>44648</v>
       </c>
       <c r="H15" s="1">
-        <v>5228</v>
+        <v>23920</v>
       </c>
       <c r="I15" s="5">
-        <v>22417</v>
+        <v>96</v>
       </c>
       <c r="J15" s="1">
-        <v>210984</v>
+        <v>1252681</v>
       </c>
       <c r="K15" s="11">
-        <v>39.6</v>
+        <v>35.6</v>
       </c>
       <c r="L15" s="11">
-        <v>24.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="M15" s="4">
-        <v>14.8</v>
-      </c>
-      <c r="N15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>0</v>
+        <v>16.5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1276907</v>
+      </c>
+      <c r="O15" s="3">
+        <v>35</v>
+      </c>
+      <c r="P15" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>44648</v>
+      </c>
+      <c r="S15" s="1">
+        <v>23920</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U15" s="2">
+        <v>100</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="10"/>
@@ -3887,64 +3902,64 @@
         <v>1910</v>
       </c>
       <c r="B16" s="1">
-        <v>217700</v>
+        <v>1163600</v>
       </c>
       <c r="C16" s="1">
-        <v>198860</v>
+        <v>1201894</v>
       </c>
       <c r="D16" s="3">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3">
-        <v>33.9</v>
+        <v>21.6</v>
       </c>
       <c r="F16" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>46848</v>
+      </c>
+      <c r="H16" s="1">
+        <v>25911</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-130</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1273505</v>
+      </c>
+      <c r="K16" s="11">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L16" s="11">
+        <v>20.3</v>
+      </c>
+      <c r="M16" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1297731</v>
+      </c>
+      <c r="O16" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="P16" s="3">
         <v>20</v>
       </c>
-      <c r="G16" s="1">
-        <v>10736</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6750</v>
-      </c>
-      <c r="I16" s="5">
-        <v>17794</v>
-      </c>
-      <c r="J16" s="1">
-        <v>236528</v>
-      </c>
-      <c r="K16" s="11">
-        <v>45.4</v>
-      </c>
-      <c r="L16" s="11">
-        <v>28.5</v>
-      </c>
-      <c r="M16" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="N16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>0</v>
+      <c r="Q16" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R16" s="1">
+        <v>46848</v>
+      </c>
+      <c r="S16" s="1">
+        <v>25911</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U16" s="2">
+        <v>100</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="10"/>
@@ -3965,64 +3980,64 @@
         <v>1911</v>
       </c>
       <c r="B17" s="1">
-        <v>230200</v>
+        <v>1183300</v>
       </c>
       <c r="C17" s="1">
-        <v>198511</v>
+        <v>1277290</v>
       </c>
       <c r="D17" s="3">
-        <v>64.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E17" s="3">
-        <v>33.5</v>
+        <v>21.6</v>
       </c>
       <c r="F17" s="3">
-        <v>31</v>
+        <v>13.1</v>
       </c>
       <c r="G17" s="1">
-        <v>12802</v>
+        <v>44346</v>
       </c>
       <c r="H17" s="1">
-        <v>6647</v>
+        <v>27557</v>
       </c>
       <c r="I17" s="5">
-        <v>4235</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1">
-        <v>258308</v>
+        <v>1294421</v>
       </c>
       <c r="K17" s="11">
-        <v>49.6</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="L17" s="11">
-        <v>25.7</v>
+        <v>21.3</v>
       </c>
       <c r="M17" s="4">
-        <v>23.8</v>
-      </c>
-      <c r="N17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1318538</v>
+      </c>
+      <c r="O17" s="3">
+        <v>33.6</v>
+      </c>
+      <c r="P17" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="R17" s="1">
+        <v>44346</v>
+      </c>
+      <c r="S17" s="1">
+        <v>27557</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U17" s="2">
+        <v>100</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="10"/>
@@ -4043,64 +4058,64 @@
         <v>1912</v>
       </c>
       <c r="B18" s="1">
-        <v>230200</v>
+        <v>1202500</v>
       </c>
       <c r="C18" s="1">
-        <v>268743</v>
+        <v>1378972</v>
       </c>
       <c r="D18" s="3">
-        <v>47.6</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3">
-        <v>26.7</v>
+        <v>19.7</v>
       </c>
       <c r="F18" s="3">
-        <v>20.8</v>
+        <v>18.2</v>
       </c>
       <c r="G18" s="1">
-        <v>12782</v>
+        <v>52346</v>
       </c>
       <c r="H18" s="1">
-        <v>7187</v>
+        <v>27199</v>
       </c>
       <c r="I18" s="5">
-        <v>6156</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1">
-        <v>268698</v>
+        <v>1311316</v>
       </c>
       <c r="K18" s="11">
-        <v>47.6</v>
+        <v>39.9</v>
       </c>
       <c r="L18" s="11">
-        <v>26.7</v>
+        <v>20.7</v>
       </c>
       <c r="M18" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="N18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>0</v>
+        <v>19.2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1335368</v>
+      </c>
+      <c r="O18" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="P18" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="R18" s="1">
+        <v>52346</v>
+      </c>
+      <c r="S18" s="1">
+        <v>27199</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U18" s="2">
+        <v>100</v>
       </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="10"/>
@@ -4121,64 +4136,64 @@
         <v>1913</v>
       </c>
       <c r="B19" s="1">
-        <v>241100</v>
+        <v>1219700</v>
       </c>
       <c r="C19" s="1">
-        <v>276914</v>
+        <v>1402001</v>
       </c>
       <c r="D19" s="3">
-        <v>47.3</v>
+        <v>35.6</v>
       </c>
       <c r="E19" s="3">
-        <v>19.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F19" s="3">
-        <v>27.8</v>
+        <v>16.2</v>
       </c>
       <c r="G19" s="1">
-        <v>13088</v>
+        <v>49956</v>
       </c>
       <c r="H19" s="1">
-        <v>5388</v>
+        <v>27175</v>
       </c>
       <c r="I19" s="5">
-        <v>7715</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1">
-        <v>280449</v>
+        <v>1336596</v>
       </c>
       <c r="K19" s="11">
-        <v>46.7</v>
+        <v>37.4</v>
       </c>
       <c r="L19" s="11">
-        <v>19.2</v>
+        <v>20.3</v>
       </c>
       <c r="M19" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1360550</v>
+      </c>
+      <c r="O19" s="3">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="P19" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>49956</v>
+      </c>
+      <c r="S19" s="1">
+        <v>27175</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U19" s="2">
+        <v>100</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="10"/>
@@ -4199,46 +4214,74 @@
         <v>1914</v>
       </c>
       <c r="B20" s="1">
-        <v>250400</v>
+        <v>1359600</v>
       </c>
       <c r="C20" s="1">
-        <v>321794</v>
+        <v>1507330</v>
       </c>
       <c r="D20" s="3">
-        <v>52.8</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E20" s="3">
-        <v>24</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F20" s="3">
-        <v>28.8</v>
+        <v>15.4</v>
       </c>
       <c r="G20" s="1">
-        <v>16999</v>
+        <v>50260</v>
       </c>
       <c r="H20" s="1">
-        <v>7728</v>
+        <v>26984</v>
       </c>
       <c r="I20" s="5">
-        <v>14699</v>
+        <v>-155</v>
       </c>
       <c r="J20" s="1">
-        <v>295864</v>
+        <v>1359442</v>
       </c>
       <c r="K20" s="11">
-        <v>57.5</v>
+        <v>37</v>
       </c>
       <c r="L20" s="11">
-        <v>26.1</v>
+        <v>19.8</v>
       </c>
       <c r="M20" s="4">
-        <v>31.3</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="2"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1383395</v>
+      </c>
+      <c r="O20" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="P20" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="R20" s="1">
+        <v>50260</v>
+      </c>
+      <c r="S20" s="1">
+        <v>26984</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="2">
+        <v>100</v>
+      </c>
+      <c r="V20" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>9</v>
+      </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -4258,28 +4301,28 @@
       <c r="C21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(G2:G20)</f>
-        <v>152716</v>
+        <v>773419</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(H2:H20)</f>
-        <v>82355</v>
+        <v>433784</v>
       </c>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>132769</v>
+        <v>179</v>
       </c>
       <c r="J21" s="1"/>
       <c r="V21" s="1">
         <f>G21-H21</f>
-        <v>70361</v>
+        <v>339635</v>
       </c>
       <c r="W21" s="1">
         <f>V21+I21</f>
-        <v>203130</v>
+        <v>339814</v>
       </c>
       <c r="Y21">
         <f>I21/W21</f>
-        <v>0.65361591099296013</v>
+        <v>5.2675875626077796E-4</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFFF723-7014-417B-B64F-E4CCBDFEA028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2BAAE-51CE-4C70-86C3-E355005743E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="charts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="10">
   <si>
     <t> </t>
   </si>
@@ -63,9 +61,6 @@
   </si>
   <si>
     <t>% мигр</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -113,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -132,9 +127,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -182,7 +174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>charts!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -217,7 +209,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>charts!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="45"/>
@@ -283,66 +275,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$46</c:f>
+              <c:f>charts!$K$2:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>31.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.9</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.4</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.4</c:v>
+                  <c:v>35.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.6</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.5</c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.200000000000003</c:v>
+                  <c:v>31.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.799999999999997</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.799999999999997</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.6</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.799999999999997</c:v>
+                  <c:v>37.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.299999999999997</c:v>
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>39.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,7 +351,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>charts!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -394,7 +386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>charts!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="45"/>
@@ -460,66 +452,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$46</c:f>
+              <c:f>charts!$L$2:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>19.100000000000001</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>21.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +737,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$65</c:f>
+              <c:f>charts!$K$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -780,7 +772,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$66:$A$84</c:f>
+              <c:f>charts!$A$66:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -846,66 +838,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$66:$K$84</c:f>
+              <c:f>charts!$K$66:$K$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>39.299999999999997</c:v>
+                  <c:v>18.548002626584271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.1</c:v>
+                  <c:v>48.892857142857146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.1</c:v>
+                  <c:v>51.46230493140397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.1</c:v>
+                  <c:v>62.000443103771495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.1</c:v>
+                  <c:v>67.208865110192718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.1</c:v>
+                  <c:v>62.155388471177943</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>64.865302398139761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>68.658862189361258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>55.783232194388837</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.3</c:v>
+                  <c:v>52.250082926889199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.799999999999997</c:v>
+                  <c:v>64.482517021875424</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.3</c:v>
+                  <c:v>69.205104949468776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.2</c:v>
+                  <c:v>75.304444301881958</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>54.257762481284004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.4</c:v>
+                  <c:v>50.96783998461629</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.700000000000003</c:v>
+                  <c:v>50.623219738860811</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.4</c:v>
+                  <c:v>54.950352145241347</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43</c:v>
+                  <c:v>56.309839490148299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.5</c:v>
+                  <c:v>51.054652463543192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,7 +914,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$65</c:f>
+              <c:f>charts!$L$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -957,7 +949,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$66:$A$84</c:f>
+              <c:f>charts!$A$66:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1023,66 +1015,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$66:$L$84</c:f>
+              <c:f>charts!$L$66:$L$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>11.585755277905209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.5</c:v>
+                  <c:v>27.392857142857142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.5</c:v>
+                  <c:v>30.826732802962162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.3</c:v>
+                  <c:v>41.805136595258787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.6</c:v>
+                  <c:v>42.114242647606901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.3</c:v>
+                  <c:v>36.583767110082903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>37.116345467523196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.100000000000001</c:v>
+                  <c:v>34.483466830971452</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.4</c:v>
+                  <c:v>26.900222905602948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.2</c:v>
+                  <c:v>26.247896114107398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>34.840200968914495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.9</c:v>
+                  <c:v>42.336097434568543</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27</c:v>
+                  <c:v>39.001324573287391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.899999999999999</c:v>
+                  <c:v>25.026930711851545</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>23.308179728862132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.2</c:v>
+                  <c:v>27.19344306537867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.9</c:v>
+                  <c:v>27.737218094632201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.5</c:v>
+                  <c:v>25.48462189803497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>21.937073578763844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1182,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2774,7 +2766,7 @@
   <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,71 +2805,71 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>986247</v>
+        <v>155295</v>
       </c>
       <c r="D2" s="3">
-        <v>33.4</v>
+        <v>13.3</v>
       </c>
       <c r="E2" s="3">
-        <v>20.100000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F2" s="3">
-        <v>13.3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>32982</v>
+        <v>2062</v>
       </c>
       <c r="H2" s="1">
-        <v>19852</v>
+        <v>1288</v>
       </c>
       <c r="I2" s="5">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1">
-        <v>1036891</v>
-      </c>
-      <c r="K2" s="11">
-        <v>31.8</v>
-      </c>
-      <c r="L2" s="11">
-        <v>19.100000000000001</v>
+        <v>222321</v>
+      </c>
+      <c r="K2" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L2" s="10">
+        <v>5.8</v>
       </c>
       <c r="M2" s="4">
-        <v>12.7</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1032807</v>
-      </c>
-      <c r="O2" s="3">
-        <v>35</v>
-      </c>
-      <c r="P2" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R2" s="1">
-        <v>36145</v>
-      </c>
-      <c r="S2" s="1">
-        <v>19175</v>
+        <v>3.5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="2">
-        <v>91</v>
+      <c r="U2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="5"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="10"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
@@ -2891,71 +2883,71 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1038742</v>
+        <v>177351</v>
       </c>
       <c r="D3" s="3">
-        <v>33.200000000000003</v>
+        <v>30.9</v>
       </c>
       <c r="E3" s="3">
-        <v>21.3</v>
+        <v>17.3</v>
       </c>
       <c r="F3" s="3">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="G3" s="1">
-        <v>34504</v>
+        <v>5476</v>
       </c>
       <c r="H3" s="1">
-        <v>22107</v>
+        <v>3068</v>
       </c>
       <c r="I3" s="5">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1">
-        <v>1050100</v>
-      </c>
-      <c r="K3" s="11">
-        <v>32.9</v>
-      </c>
-      <c r="L3" s="11">
-        <v>21.1</v>
+        <v>223150</v>
+      </c>
+      <c r="K3" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="L3" s="10">
+        <v>13.7</v>
       </c>
       <c r="M3" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1049742</v>
-      </c>
-      <c r="O3" s="3">
-        <v>35</v>
-      </c>
-      <c r="P3" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R3" s="1">
-        <v>36738</v>
-      </c>
-      <c r="S3" s="1">
-        <v>19489</v>
+        <v>10.8</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="2">
-        <v>94</v>
+      <c r="U3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="5"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="10"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
@@ -2969,71 +2961,71 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1051885</v>
+        <v>198836</v>
       </c>
       <c r="D4" s="3">
-        <v>31.6</v>
+        <v>29.6</v>
       </c>
       <c r="E4" s="3">
-        <v>21</v>
+        <v>17.8</v>
       </c>
       <c r="F4" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5893</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3530</v>
+      </c>
+      <c r="I4" s="5">
+        <v>480</v>
+      </c>
+      <c r="J4" s="1">
+        <v>225661</v>
+      </c>
+      <c r="K4" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>15.6</v>
+      </c>
+      <c r="M4" s="4">
         <v>10.5</v>
       </c>
-      <c r="G4" s="1">
-        <v>33194</v>
-      </c>
-      <c r="H4" s="1">
-        <v>22125</v>
-      </c>
-      <c r="I4" s="5">
-        <v>191</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1062698</v>
-      </c>
-      <c r="K4" s="11">
-        <v>31.2</v>
-      </c>
-      <c r="L4" s="11">
-        <v>20.8</v>
-      </c>
-      <c r="M4" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1066954</v>
-      </c>
-      <c r="O4" s="3">
-        <v>35</v>
-      </c>
-      <c r="P4" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R4" s="1">
-        <v>37340</v>
-      </c>
-      <c r="S4" s="1">
-        <v>19809</v>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="2">
-        <v>89</v>
+      <c r="U4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="2"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="10"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
@@ -3047,71 +3039,71 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1063155</v>
+        <v>227950</v>
       </c>
       <c r="D5" s="3">
-        <v>31.3</v>
+        <v>31.9</v>
       </c>
       <c r="E5" s="3">
-        <v>23.7</v>
+        <v>21.5</v>
       </c>
       <c r="F5" s="3">
-        <v>7.6</v>
+        <v>10.4</v>
       </c>
       <c r="G5" s="1">
-        <v>33230</v>
+        <v>7276</v>
       </c>
       <c r="H5" s="1">
-        <v>25190</v>
+        <v>4906</v>
       </c>
       <c r="I5" s="5">
-        <v>150</v>
+        <v>1019</v>
       </c>
       <c r="J5" s="1">
-        <v>1073958</v>
-      </c>
-      <c r="K5" s="11">
-        <v>30.9</v>
-      </c>
-      <c r="L5" s="11">
-        <v>23.5</v>
+        <v>228504</v>
+      </c>
+      <c r="K5" s="10">
+        <v>31.8</v>
+      </c>
+      <c r="L5" s="10">
+        <v>21.5</v>
       </c>
       <c r="M5" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1084449</v>
-      </c>
-      <c r="O5" s="3">
-        <v>35</v>
-      </c>
-      <c r="P5" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R5" s="1">
-        <v>37953</v>
-      </c>
-      <c r="S5" s="1">
-        <v>20134</v>
+        <v>10.4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="2">
-        <v>88</v>
+      <c r="U5" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="5"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="10"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
@@ -3125,71 +3117,71 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1075235</v>
+        <v>243666</v>
       </c>
       <c r="D6" s="3">
-        <v>32.6</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E6" s="3">
-        <v>19.7</v>
+        <v>20.9</v>
       </c>
       <c r="F6" s="3">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="G6" s="1">
-        <v>35042</v>
+        <v>8115</v>
       </c>
       <c r="H6" s="1">
-        <v>21141</v>
+        <v>5085</v>
       </c>
       <c r="I6" s="5">
-        <v>75</v>
+        <v>5902</v>
       </c>
       <c r="J6" s="1">
-        <v>1082148</v>
-      </c>
-      <c r="K6" s="11">
-        <v>32.4</v>
-      </c>
-      <c r="L6" s="11">
-        <v>19.5</v>
+        <v>231893</v>
+      </c>
+      <c r="K6" s="10">
+        <v>35</v>
+      </c>
+      <c r="L6" s="10">
+        <v>21.9</v>
       </c>
       <c r="M6" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1102231</v>
-      </c>
-      <c r="O6" s="3">
-        <v>35</v>
-      </c>
-      <c r="P6" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R6" s="1">
-        <v>38575</v>
-      </c>
-      <c r="S6" s="1">
-        <v>20464</v>
+        <v>13.1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="2">
-        <v>91</v>
+      <c r="U6" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="5"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="10"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
@@ -3203,71 +3195,71 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1079119</v>
+        <v>268592</v>
       </c>
       <c r="D7" s="3">
-        <v>33.6</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>19</v>
+        <v>17.7</v>
       </c>
       <c r="F7" s="3">
-        <v>14.5</v>
+        <v>12.3</v>
       </c>
       <c r="G7" s="1">
-        <v>36213</v>
+        <v>8060</v>
       </c>
       <c r="H7" s="1">
-        <v>20534</v>
+        <v>4744</v>
       </c>
       <c r="I7" s="5">
-        <v>140</v>
+        <v>2906</v>
       </c>
       <c r="J7" s="1">
-        <v>1096124</v>
-      </c>
-      <c r="K7" s="11">
-        <v>33</v>
-      </c>
-      <c r="L7" s="11">
-        <v>18.7</v>
+        <v>240825</v>
+      </c>
+      <c r="K7" s="10">
+        <v>33.5</v>
+      </c>
+      <c r="L7" s="10">
+        <v>19.7</v>
       </c>
       <c r="M7" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1120304</v>
-      </c>
-      <c r="O7" s="3">
-        <v>35</v>
-      </c>
-      <c r="P7" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R7" s="1">
-        <v>39208</v>
-      </c>
-      <c r="S7" s="1">
-        <v>20799</v>
+        <v>13.8</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="2">
-        <v>92</v>
+      <c r="U7" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="5"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="10"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
@@ -3281,71 +3273,71 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1083214</v>
+        <v>281000</v>
       </c>
       <c r="D8" s="3">
-        <v>32.299999999999997</v>
+        <v>31.4</v>
       </c>
       <c r="E8" s="3">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3">
-        <v>14.3</v>
+        <v>13.4</v>
       </c>
       <c r="G8" s="1">
-        <v>34941</v>
+        <v>8815</v>
       </c>
       <c r="H8" s="1">
-        <v>19405</v>
+        <v>5044</v>
       </c>
       <c r="I8" s="5">
-        <v>54</v>
+        <v>6402</v>
       </c>
       <c r="J8" s="1">
-        <v>1111943</v>
-      </c>
-      <c r="K8" s="11">
-        <v>31.4</v>
-      </c>
-      <c r="L8" s="11">
-        <v>17.5</v>
+        <v>247047</v>
+      </c>
+      <c r="K8" s="10">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="L8" s="10">
+        <v>20.399999999999999</v>
       </c>
       <c r="M8" s="4">
-        <v>14</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1138673</v>
-      </c>
-      <c r="O8" s="3">
-        <v>35</v>
-      </c>
-      <c r="P8" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R8" s="1">
-        <v>39850</v>
-      </c>
-      <c r="S8" s="1">
-        <v>21140</v>
+        <v>15.3</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="2">
-        <v>88</v>
+      <c r="U8" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="5"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="10"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
@@ -3359,71 +3351,71 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>969533</v>
+        <v>300370</v>
       </c>
       <c r="D9" s="3">
-        <v>40.200000000000003</v>
+        <v>33.4</v>
       </c>
       <c r="E9" s="3">
-        <v>21.7</v>
+        <v>16.8</v>
       </c>
       <c r="F9" s="3">
-        <v>18.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>38992</v>
+        <v>10029</v>
       </c>
       <c r="H9" s="1">
-        <v>21014</v>
+        <v>5037</v>
       </c>
       <c r="I9" s="5">
-        <v>23</v>
+        <v>7301</v>
       </c>
       <c r="J9" s="1">
-        <v>1127533</v>
-      </c>
-      <c r="K9" s="11">
-        <v>34.6</v>
-      </c>
-      <c r="L9" s="11">
-        <v>18.600000000000001</v>
+        <v>257220</v>
+      </c>
+      <c r="K9" s="10">
+        <v>39</v>
+      </c>
+      <c r="L9" s="10">
+        <v>19.600000000000001</v>
       </c>
       <c r="M9" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1157344</v>
-      </c>
-      <c r="O9" s="3">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="P9" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="R9" s="1">
-        <v>38992</v>
-      </c>
-      <c r="S9" s="1">
-        <v>21014</v>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="5"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="10"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
@@ -3434,74 +3426,74 @@
         <v>1904</v>
       </c>
       <c r="B10" s="1">
-        <v>1035600</v>
+        <v>242900</v>
       </c>
       <c r="C10" s="1">
-        <v>994575</v>
+        <v>330204</v>
       </c>
       <c r="D10" s="3">
-        <v>36.299999999999997</v>
+        <v>26.8</v>
       </c>
       <c r="E10" s="3">
-        <v>18.5</v>
+        <v>12.9</v>
       </c>
       <c r="F10" s="3">
-        <v>17.8</v>
+        <v>13.9</v>
       </c>
       <c r="G10" s="1">
-        <v>36086</v>
+        <v>8834</v>
       </c>
       <c r="H10" s="1">
-        <v>18370</v>
+        <v>4260</v>
       </c>
       <c r="I10" s="5">
-        <v>-82</v>
+        <v>-143</v>
       </c>
       <c r="J10" s="1">
-        <v>1145668</v>
-      </c>
-      <c r="K10" s="11">
-        <v>31.5</v>
-      </c>
-      <c r="L10" s="11">
-        <v>16</v>
+        <v>269513</v>
+      </c>
+      <c r="K10" s="10">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L10" s="10">
+        <v>15.8</v>
       </c>
       <c r="M10" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1175345</v>
-      </c>
-      <c r="O10" s="3">
-        <v>30.7</v>
-      </c>
-      <c r="P10" s="3">
-        <v>15.6</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>36086</v>
-      </c>
-      <c r="S10" s="1">
-        <v>18370</v>
+        <v>17</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="5"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="10"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
@@ -3512,74 +3504,74 @@
         <v>1905</v>
       </c>
       <c r="B11" s="1">
-        <v>1138400</v>
+        <v>246800</v>
       </c>
       <c r="C11" s="1">
-        <v>1118549</v>
+        <v>252210</v>
       </c>
       <c r="D11" s="3">
-        <v>38.700000000000003</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E11" s="3">
-        <v>18.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F11" s="3">
-        <v>20.100000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="G11" s="1">
-        <v>43320</v>
+        <v>8506</v>
       </c>
       <c r="H11" s="1">
-        <v>20802</v>
+        <v>4273</v>
       </c>
       <c r="I11" s="5">
-        <v>-209</v>
+        <v>-36</v>
       </c>
       <c r="J11" s="1">
-        <v>1163302</v>
-      </c>
-      <c r="K11" s="11">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="L11" s="11">
-        <v>17.899999999999999</v>
+        <v>273944</v>
+      </c>
+      <c r="K11" s="10">
+        <v>31.1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>15.6</v>
       </c>
       <c r="M11" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1192979</v>
-      </c>
-      <c r="O11" s="3">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="P11" s="3">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="R11" s="1">
-        <v>43320</v>
-      </c>
-      <c r="S11" s="1">
-        <v>20802</v>
+        <v>15.5</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="5"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="10"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
@@ -3590,74 +3582,74 @@
         <v>1906</v>
       </c>
       <c r="B12" s="1">
-        <v>1081900</v>
+        <v>252100</v>
       </c>
       <c r="C12" s="1">
-        <v>1109063</v>
+        <v>239970</v>
       </c>
       <c r="D12" s="3">
-        <v>38.299999999999997</v>
+        <v>44.9</v>
       </c>
       <c r="E12" s="3">
-        <v>18.3</v>
+        <v>24.2</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="G12" s="1">
-        <v>42466</v>
+        <v>10768</v>
       </c>
       <c r="H12" s="1">
-        <v>20302</v>
+        <v>5818</v>
       </c>
       <c r="I12" s="5">
-        <v>-354</v>
+        <v>13290</v>
       </c>
       <c r="J12" s="1">
-        <v>1185611</v>
-      </c>
-      <c r="K12" s="11">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="L12" s="11">
-        <v>17.100000000000001</v>
+        <v>278141</v>
+      </c>
+      <c r="K12" s="10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="L12" s="10">
+        <v>20.9</v>
       </c>
       <c r="M12" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1215288</v>
-      </c>
-      <c r="O12" s="3">
-        <v>34.9</v>
-      </c>
-      <c r="P12" s="3">
-        <v>16.7</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>42466</v>
-      </c>
-      <c r="S12" s="1">
-        <v>20302</v>
+        <v>17.8</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="5"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="10"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
@@ -3668,74 +3660,74 @@
         <v>1907</v>
       </c>
       <c r="B13" s="1">
-        <v>1097600</v>
+        <v>267300</v>
       </c>
       <c r="C13" s="1">
-        <v>1150488</v>
+        <v>359138</v>
       </c>
       <c r="D13" s="3">
-        <v>36.9</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E13" s="3">
-        <v>18.399999999999999</v>
+        <v>21.8</v>
       </c>
       <c r="F13" s="3">
-        <v>18.399999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="G13" s="1">
-        <v>42397</v>
+        <v>12819</v>
       </c>
       <c r="H13" s="1">
-        <v>21192</v>
+        <v>7842</v>
       </c>
       <c r="I13" s="5">
-        <v>-66</v>
+        <v>74512</v>
       </c>
       <c r="J13" s="1">
-        <v>1209070</v>
-      </c>
-      <c r="K13" s="11">
-        <v>35.1</v>
-      </c>
-      <c r="L13" s="11">
-        <v>17.5</v>
+        <v>296382</v>
+      </c>
+      <c r="K13" s="10">
+        <v>43.3</v>
+      </c>
+      <c r="L13" s="10">
+        <v>26.5</v>
       </c>
       <c r="M13" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1237098</v>
-      </c>
-      <c r="O13" s="3">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="P13" s="3">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="R13" s="1">
-        <v>42397</v>
-      </c>
-      <c r="S13" s="1">
-        <v>21192</v>
+        <v>16.8</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="5"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="10"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
@@ -3746,74 +3738,74 @@
         <v>1908</v>
       </c>
       <c r="B14" s="1">
-        <v>1117100</v>
+        <v>289600</v>
       </c>
       <c r="C14" s="1">
-        <v>1173452</v>
+        <v>516767</v>
       </c>
       <c r="D14" s="3">
-        <v>35.5</v>
+        <v>38.6</v>
       </c>
       <c r="E14" s="3">
-        <v>19.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
-        <v>15.9</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G14" s="1">
-        <v>41648</v>
+        <v>19955</v>
       </c>
       <c r="H14" s="1">
-        <v>23004</v>
+        <v>10335</v>
       </c>
       <c r="I14" s="5">
-        <v>26</v>
+        <v>20590</v>
       </c>
       <c r="J14" s="1">
-        <v>1232259</v>
-      </c>
-      <c r="K14" s="11">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="L14" s="11">
-        <v>18.7</v>
+        <v>376141</v>
+      </c>
+      <c r="K14" s="10">
+        <v>53.1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>27.5</v>
       </c>
       <c r="M14" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1258237</v>
-      </c>
-      <c r="O14" s="3">
-        <v>33.1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>14.8</v>
-      </c>
-      <c r="R14" s="1">
-        <v>41648</v>
-      </c>
-      <c r="S14" s="1">
-        <v>23004</v>
+        <v>25.6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="5"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="10"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
@@ -3824,74 +3816,74 @@
         <v>1909</v>
       </c>
       <c r="B15" s="1">
-        <v>1145400</v>
+        <v>268900</v>
       </c>
       <c r="C15" s="1">
-        <v>1247473</v>
+        <v>530805</v>
       </c>
       <c r="D15" s="3">
-        <v>35.799999999999997</v>
+        <v>30.2</v>
       </c>
       <c r="E15" s="3">
-        <v>19.2</v>
+        <v>13.9</v>
       </c>
       <c r="F15" s="3">
-        <v>16.600000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="G15" s="1">
-        <v>44648</v>
+        <v>16017</v>
       </c>
       <c r="H15" s="1">
-        <v>23920</v>
+        <v>7388</v>
       </c>
       <c r="I15" s="5">
-        <v>96</v>
+        <v>18588</v>
       </c>
       <c r="J15" s="1">
-        <v>1252681</v>
-      </c>
-      <c r="K15" s="11">
-        <v>35.6</v>
-      </c>
-      <c r="L15" s="11">
-        <v>19.100000000000001</v>
+        <v>406352</v>
+      </c>
+      <c r="K15" s="10">
+        <v>39.4</v>
+      </c>
+      <c r="L15" s="10">
+        <v>18.2</v>
       </c>
       <c r="M15" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1276907</v>
-      </c>
-      <c r="O15" s="3">
-        <v>35</v>
-      </c>
-      <c r="P15" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="R15" s="1">
-        <v>44648</v>
-      </c>
-      <c r="S15" s="1">
-        <v>23920</v>
+        <v>21.2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="5"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="10"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
@@ -3902,74 +3894,74 @@
         <v>1910</v>
       </c>
       <c r="B16" s="1">
-        <v>1163600</v>
+        <v>281100</v>
       </c>
       <c r="C16" s="1">
-        <v>1201894</v>
+        <v>517863</v>
       </c>
       <c r="D16" s="3">
-        <v>39</v>
+        <v>31.7</v>
       </c>
       <c r="E16" s="3">
-        <v>21.6</v>
+        <v>14.5</v>
       </c>
       <c r="F16" s="3">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="G16" s="1">
-        <v>46848</v>
+        <v>16433</v>
       </c>
       <c r="H16" s="1">
-        <v>25911</v>
+        <v>7515</v>
       </c>
       <c r="I16" s="5">
-        <v>-130</v>
+        <v>9272</v>
       </c>
       <c r="J16" s="1">
-        <v>1273505</v>
-      </c>
-      <c r="K16" s="11">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="L16" s="11">
-        <v>20.3</v>
+        <v>433569</v>
+      </c>
+      <c r="K16" s="10">
+        <v>37.9</v>
+      </c>
+      <c r="L16" s="10">
+        <v>17.3</v>
       </c>
       <c r="M16" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1297731</v>
-      </c>
-      <c r="O16" s="3">
-        <v>36.1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="R16" s="1">
-        <v>46848</v>
-      </c>
-      <c r="S16" s="1">
-        <v>25911</v>
+        <v>20.6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="5"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="10"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
@@ -3980,74 +3972,74 @@
         <v>1911</v>
       </c>
       <c r="B17" s="1">
-        <v>1183300</v>
+        <v>533100</v>
       </c>
       <c r="C17" s="1">
-        <v>1277290</v>
+        <v>505992</v>
       </c>
       <c r="D17" s="3">
-        <v>34.700000000000003</v>
+        <v>34.1</v>
       </c>
       <c r="E17" s="3">
-        <v>21.6</v>
+        <v>18.3</v>
       </c>
       <c r="F17" s="3">
-        <v>13.1</v>
+        <v>15.8</v>
       </c>
       <c r="G17" s="1">
-        <v>44346</v>
+        <v>17257</v>
       </c>
       <c r="H17" s="1">
-        <v>27557</v>
+        <v>9270</v>
       </c>
       <c r="I17" s="5">
-        <v>41</v>
+        <v>7494</v>
       </c>
       <c r="J17" s="1">
-        <v>1294421</v>
-      </c>
-      <c r="K17" s="11">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="L17" s="11">
-        <v>21.3</v>
+        <v>452041</v>
+      </c>
+      <c r="K17" s="10">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L17" s="10">
+        <v>20.5</v>
       </c>
       <c r="M17" s="4">
-        <v>13</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1318538</v>
-      </c>
-      <c r="O17" s="3">
-        <v>33.6</v>
-      </c>
-      <c r="P17" s="3">
-        <v>20.9</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="R17" s="1">
-        <v>44346</v>
-      </c>
-      <c r="S17" s="1">
-        <v>27557</v>
+        <v>17.7</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U17" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="5"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="10"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
@@ -4058,74 +4050,74 @@
         <v>1912</v>
       </c>
       <c r="B18" s="1">
-        <v>1202500</v>
+        <v>572000</v>
       </c>
       <c r="C18" s="1">
-        <v>1378972</v>
+        <v>545397</v>
       </c>
       <c r="D18" s="3">
-        <v>38</v>
+        <v>35.9</v>
       </c>
       <c r="E18" s="3">
-        <v>19.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F18" s="3">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="G18" s="1">
-        <v>52346</v>
+        <v>19607</v>
       </c>
       <c r="H18" s="1">
-        <v>27199</v>
+        <v>9897</v>
       </c>
       <c r="I18" s="5">
-        <v>35</v>
+        <v>9981</v>
       </c>
       <c r="J18" s="1">
-        <v>1311316</v>
-      </c>
-      <c r="K18" s="11">
-        <v>39.9</v>
-      </c>
-      <c r="L18" s="11">
+        <v>467963</v>
+      </c>
+      <c r="K18" s="10">
+        <v>41.9</v>
+      </c>
+      <c r="L18" s="10">
+        <v>21.1</v>
+      </c>
+      <c r="M18" s="4">
         <v>20.7</v>
       </c>
-      <c r="M18" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1335368</v>
-      </c>
-      <c r="O18" s="3">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="P18" s="3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="R18" s="1">
-        <v>52346</v>
-      </c>
-      <c r="S18" s="1">
-        <v>27199</v>
+      <c r="N18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="5"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="10"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
@@ -4136,74 +4128,74 @@
         <v>1913</v>
       </c>
       <c r="B19" s="1">
-        <v>1219700</v>
+        <v>604000</v>
       </c>
       <c r="C19" s="1">
-        <v>1402001</v>
+        <v>584572</v>
       </c>
       <c r="D19" s="3">
-        <v>35.6</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="E19" s="3">
-        <v>19.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F19" s="3">
-        <v>16.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G19" s="1">
-        <v>49956</v>
+        <v>21214</v>
       </c>
       <c r="H19" s="1">
-        <v>27175</v>
+        <v>9601</v>
       </c>
       <c r="I19" s="5">
-        <v>64</v>
+        <v>8464</v>
       </c>
       <c r="J19" s="1">
-        <v>1336596</v>
-      </c>
-      <c r="K19" s="11">
-        <v>37.4</v>
-      </c>
-      <c r="L19" s="11">
-        <v>20.3</v>
+        <v>487887</v>
+      </c>
+      <c r="K19" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="L19" s="10">
+        <v>19.7</v>
       </c>
       <c r="M19" s="4">
-        <v>17</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1360550</v>
-      </c>
-      <c r="O19" s="3">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="P19" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>16.7</v>
-      </c>
-      <c r="R19" s="1">
-        <v>49956</v>
-      </c>
-      <c r="S19" s="1">
-        <v>27175</v>
+        <v>23.8</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA19" s="7"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="5"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="10"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
@@ -4214,65 +4206,49 @@
         <v>1914</v>
       </c>
       <c r="B20" s="1">
-        <v>1359600</v>
+        <v>606600</v>
       </c>
       <c r="C20" s="1">
-        <v>1507330</v>
+        <v>619185</v>
       </c>
       <c r="D20" s="3">
-        <v>33.299999999999997</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="E20" s="3">
-        <v>17.899999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="F20" s="3">
-        <v>15.4</v>
+        <v>18.7</v>
       </c>
       <c r="G20" s="1">
-        <v>50260</v>
+        <v>20264</v>
       </c>
       <c r="H20" s="1">
-        <v>26984</v>
+        <v>8707</v>
       </c>
       <c r="I20" s="5">
-        <v>-155</v>
+        <v>11102</v>
       </c>
       <c r="J20" s="1">
-        <v>1359442</v>
-      </c>
-      <c r="K20" s="11">
-        <v>37</v>
-      </c>
-      <c r="L20" s="11">
-        <v>19.8</v>
+        <v>508058</v>
+      </c>
+      <c r="K20" s="10">
+        <v>39.9</v>
+      </c>
+      <c r="L20" s="10">
+        <v>17.100000000000001</v>
       </c>
       <c r="M20" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1383395</v>
-      </c>
-      <c r="O20" s="3">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="P20" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="R20" s="1">
-        <v>50260</v>
-      </c>
-      <c r="S20" s="1">
-        <v>26984</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U20" s="2">
-        <v>100</v>
-      </c>
+        <v>22.7</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="2"/>
       <c r="V20" t="s">
         <v>7</v>
       </c>
@@ -4283,14 +4259,14 @@
         <v>9</v>
       </c>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="5"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="10"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
@@ -4301,28 +4277,28 @@
       <c r="C21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(G2:G20)</f>
-        <v>773419</v>
+        <v>227400</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(H2:H20)</f>
-        <v>433784</v>
+        <v>117608</v>
       </c>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>179</v>
+        <v>197282</v>
       </c>
       <c r="J21" s="1"/>
       <c r="V21" s="1">
         <f>G21-H21</f>
-        <v>339635</v>
+        <v>109792</v>
       </c>
       <c r="W21" s="1">
         <f>V21+I21</f>
-        <v>339814</v>
+        <v>307074</v>
       </c>
       <c r="Y21">
         <f>I21/W21</f>
-        <v>5.2675875626077796E-4</v>
+        <v>0.64245751838319098</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
@@ -4348,6 +4324,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -4356,6 +4334,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -4364,6 +4344,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
@@ -4376,6 +4362,8 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
@@ -4388,6 +4376,8 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
@@ -4400,6 +4390,8 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
@@ -4412,6 +4404,8 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
@@ -4424,8 +4418,10 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+    </row>
+    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4436,8 +4432,10 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+    </row>
+    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4448,8 +4446,10 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+    </row>
+    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4460,8 +4460,10 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+    </row>
+    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4472,8 +4474,10 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+    </row>
+    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4484,8 +4488,10 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+    </row>
+    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4496,8 +4502,10 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+    </row>
+    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4508,8 +4516,10 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+    </row>
+    <row r="40" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4520,8 +4530,10 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+    </row>
+    <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4532,8 +4544,10 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+    </row>
+    <row r="42" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4544,8 +4558,10 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+    </row>
+    <row r="43" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4557,7 +4573,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4569,7 +4585,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4581,7 +4597,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4635,11 +4651,11 @@
       <c r="J66" s="1">
         <v>222321</v>
       </c>
-      <c r="K66" s="4">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="L66" s="4">
-        <v>19.600000000000001</v>
+      <c r="K66" s="10">
+        <v>18.548002626584271</v>
+      </c>
+      <c r="L66" s="10">
+        <v>11.585755277905209</v>
       </c>
       <c r="M66" s="4">
         <v>19.7</v>
@@ -4700,11 +4716,11 @@
       <c r="J67" s="1">
         <v>223150</v>
       </c>
-      <c r="K67" s="4">
-        <v>39.1</v>
-      </c>
-      <c r="L67" s="4">
-        <v>19.5</v>
+      <c r="K67" s="10">
+        <v>48.892857142857146</v>
+      </c>
+      <c r="L67" s="10">
+        <v>27.392857142857142</v>
       </c>
       <c r="M67" s="4">
         <v>19.600000000000001</v>
@@ -4765,11 +4781,11 @@
       <c r="J68" s="1">
         <v>225661</v>
       </c>
-      <c r="K68" s="4">
-        <v>39.1</v>
-      </c>
-      <c r="L68" s="4">
-        <v>19.5</v>
+      <c r="K68" s="10">
+        <v>51.46230493140397</v>
+      </c>
+      <c r="L68" s="10">
+        <v>30.826732802962162</v>
       </c>
       <c r="M68" s="4">
         <v>19.600000000000001</v>
@@ -4830,11 +4846,11 @@
       <c r="J69" s="1">
         <v>230556</v>
       </c>
-      <c r="K69" s="4">
-        <v>39.1</v>
-      </c>
-      <c r="L69" s="4">
-        <v>21.3</v>
+      <c r="K69" s="10">
+        <v>62.000443103771495</v>
+      </c>
+      <c r="L69" s="10">
+        <v>41.805136595258787</v>
       </c>
       <c r="M69" s="4">
         <v>17.8</v>
@@ -4895,11 +4911,11 @@
       <c r="J70" s="1">
         <v>235679</v>
       </c>
-      <c r="K70" s="4">
-        <v>39.1</v>
-      </c>
-      <c r="L70" s="4">
-        <v>21.6</v>
+      <c r="K70" s="10">
+        <v>67.208865110192718</v>
+      </c>
+      <c r="L70" s="10">
+        <v>42.114242647606901</v>
       </c>
       <c r="M70" s="4">
         <v>17.5</v>
@@ -4960,11 +4976,11 @@
       <c r="J71" s="1">
         <v>245706</v>
       </c>
-      <c r="K71" s="4">
-        <v>39.1</v>
-      </c>
-      <c r="L71" s="4">
-        <v>19.3</v>
+      <c r="K71" s="10">
+        <v>62.155388471177943</v>
+      </c>
+      <c r="L71" s="10">
+        <v>36.583767110082903</v>
       </c>
       <c r="M71" s="4">
         <v>19.8</v>
@@ -5025,11 +5041,11 @@
       <c r="J72" s="1">
         <v>253470</v>
       </c>
-      <c r="K72" s="4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="L72" s="4">
-        <v>19.899999999999999</v>
+      <c r="K72" s="10">
+        <v>64.865302398139761</v>
+      </c>
+      <c r="L72" s="10">
+        <v>37.116345467523196</v>
       </c>
       <c r="M72" s="4">
         <v>14.9</v>
@@ -5090,11 +5106,11 @@
       <c r="J73" s="1">
         <v>263643</v>
       </c>
-      <c r="K73" s="4">
-        <v>38</v>
-      </c>
-      <c r="L73" s="4">
-        <v>19.100000000000001</v>
+      <c r="K73" s="10">
+        <v>68.658862189361258</v>
+      </c>
+      <c r="L73" s="10">
+        <v>34.483466830971452</v>
       </c>
       <c r="M73" s="4">
         <v>18.899999999999999</v>
@@ -5155,11 +5171,11 @@
       <c r="J74" s="1">
         <v>275936</v>
       </c>
-      <c r="K74" s="4">
-        <v>32</v>
-      </c>
-      <c r="L74" s="4">
-        <v>15.4</v>
+      <c r="K74" s="10">
+        <v>55.783232194388837</v>
+      </c>
+      <c r="L74" s="10">
+        <v>26.900222905602948</v>
       </c>
       <c r="M74" s="4">
         <v>16.600000000000001</v>
@@ -5220,11 +5236,11 @@
       <c r="J75" s="1">
         <v>280367</v>
       </c>
-      <c r="K75" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="L75" s="4">
-        <v>15.2</v>
+      <c r="K75" s="10">
+        <v>52.250082926889199</v>
+      </c>
+      <c r="L75" s="10">
+        <v>26.247896114107398</v>
       </c>
       <c r="M75" s="4">
         <v>15.1</v>
@@ -5285,11 +5301,11 @@
       <c r="J76" s="1">
         <v>284564</v>
       </c>
-      <c r="K76" s="4">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="L76" s="4">
-        <v>20.399999999999999</v>
+      <c r="K76" s="10">
+        <v>64.482517021875424</v>
+      </c>
+      <c r="L76" s="10">
+        <v>34.840200968914495</v>
       </c>
       <c r="M76" s="4">
         <v>17.399999999999999</v>
@@ -5350,11 +5366,11 @@
       <c r="J77" s="1">
         <v>302804</v>
       </c>
-      <c r="K77" s="4">
-        <v>42.3</v>
-      </c>
-      <c r="L77" s="4">
-        <v>25.9</v>
+      <c r="K77" s="10">
+        <v>69.205104949468776</v>
+      </c>
+      <c r="L77" s="10">
+        <v>42.336097434568543</v>
       </c>
       <c r="M77" s="4">
         <v>16.399999999999999</v>
@@ -5415,11 +5431,11 @@
       <c r="J78" s="1">
         <v>382293</v>
       </c>
-      <c r="K78" s="4">
-        <v>52.2</v>
-      </c>
-      <c r="L78" s="4">
-        <v>27</v>
+      <c r="K78" s="10">
+        <v>75.304444301881958</v>
+      </c>
+      <c r="L78" s="10">
+        <v>39.001324573287391</v>
       </c>
       <c r="M78" s="4">
         <v>25.2</v>
@@ -5480,11 +5496,11 @@
       <c r="J79" s="1">
         <v>412503</v>
       </c>
-      <c r="K79" s="4">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="L79" s="4">
-        <v>17.899999999999999</v>
+      <c r="K79" s="10">
+        <v>54.257762481284004</v>
+      </c>
+      <c r="L79" s="10">
+        <v>25.026930711851545</v>
       </c>
       <c r="M79" s="4">
         <v>20.9</v>
@@ -5545,11 +5561,11 @@
       <c r="J80" s="1">
         <v>439720</v>
       </c>
-      <c r="K80" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="L80" s="4">
-        <v>17.100000000000001</v>
+      <c r="K80" s="10">
+        <v>50.96783998461629</v>
+      </c>
+      <c r="L80" s="10">
+        <v>23.308179728862132</v>
       </c>
       <c r="M80" s="4">
         <v>20.3</v>
@@ -5610,11 +5626,11 @@
       <c r="J81" s="1">
         <v>457910</v>
       </c>
-      <c r="K81" s="4">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="L81" s="4">
-        <v>20.2</v>
+      <c r="K81" s="10">
+        <v>50.623219738860811</v>
+      </c>
+      <c r="L81" s="10">
+        <v>27.19344306537867</v>
       </c>
       <c r="M81" s="4">
         <v>17.399999999999999</v>
@@ -5675,11 +5691,11 @@
       <c r="J82" s="1">
         <v>473391</v>
       </c>
-      <c r="K82" s="4">
-        <v>41.4</v>
-      </c>
-      <c r="L82" s="4">
-        <v>20.9</v>
+      <c r="K82" s="10">
+        <v>54.950352145241347</v>
+      </c>
+      <c r="L82" s="10">
+        <v>27.737218094632201</v>
       </c>
       <c r="M82" s="4">
         <v>20.5</v>
@@ -5740,11 +5756,11 @@
       <c r="J83" s="1">
         <v>493082</v>
       </c>
-      <c r="K83" s="4">
-        <v>43</v>
-      </c>
-      <c r="L83" s="4">
-        <v>19.5</v>
+      <c r="K83" s="10">
+        <v>56.309839490148299</v>
+      </c>
+      <c r="L83" s="10">
+        <v>25.48462189803497</v>
       </c>
       <c r="M83" s="4">
         <v>23.6</v>
@@ -5805,11 +5821,11 @@
       <c r="J84" s="1">
         <v>513159</v>
       </c>
-      <c r="K84" s="4">
-        <v>39.5</v>
-      </c>
-      <c r="L84" s="4">
-        <v>17</v>
+      <c r="K84" s="10">
+        <v>51.054652463543192</v>
+      </c>
+      <c r="L84" s="10">
+        <v>21.937073578763844</v>
       </c>
       <c r="M84" s="4">
         <v>22.5</v>
@@ -5820,448 +5836,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EA4FDA-0212-4956-90E3-7029233D557B}">
-  <dimension ref="A1:O39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="4"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F878B545-B418-4CDA-BEF3-9E82EB5B0B21}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2BAAE-51CE-4C70-86C3-E355005743E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB72CC0-EC45-4719-80B5-453F719927BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
+    <workbookView xWindow="1635" yWindow="1725" windowWidth="32910" windowHeight="19110" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
   <sheets>
     <sheet name="charts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
   <si>
     <t> </t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>% мигр</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Акмол</t>
+  </si>
+  <si>
+    <t>Тург</t>
   </si>
 </sst>
 </file>
@@ -280,61 +289,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.5</c:v>
+                  <c:v>34.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.1</c:v>
+                  <c:v>30.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.8</c:v>
+                  <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>40.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.5</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.799999999999997</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.1</c:v>
+                  <c:v>35.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.700000000000003</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.1</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.4</c:v>
+                  <c:v>38.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.9</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>47.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.9</c:v>
+                  <c:v>46.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.5</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.9</c:v>
+                  <c:v>46.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,61 +466,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>5.8</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.7</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.6</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>26.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.9</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.8</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.6</c:v>
+                  <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.9</c:v>
+                  <c:v>27.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.5</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.2</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.3</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.5</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.1</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.7</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>25.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,61 +852,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>18.548002626584271</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.892857142857146</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.46230493140397</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.000443103771495</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.208865110192718</c:v>
+                  <c:v>32.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.155388471177943</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.865302398139761</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.658862189361258</c:v>
+                  <c:v>39.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.783232194388837</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.250082926889199</c:v>
+                  <c:v>37.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.482517021875424</c:v>
+                  <c:v>35.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.205104949468776</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.304444301881958</c:v>
+                  <c:v>44.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.257762481284004</c:v>
+                  <c:v>43.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.96783998461629</c:v>
+                  <c:v>42.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.623219738860811</c:v>
+                  <c:v>49.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.950352145241347</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.309839490148299</c:v>
+                  <c:v>52.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.054652463543192</c:v>
+                  <c:v>51.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,61 +1029,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>11.585755277905209</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.392857142857142</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.826732802962162</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.805136595258787</c:v>
+                  <c:v>19.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.114242647606901</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.583767110082903</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.116345467523196</c:v>
+                  <c:v>23.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.483466830971452</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.900222905602948</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.247896114107398</c:v>
+                  <c:v>21.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.840200968914495</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.336097434568543</c:v>
+                  <c:v>23.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.001324573287391</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.026930711851545</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.308179728862132</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.19344306537867</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.737218094632201</c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.48462189803497</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.937073578763844</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,61 +2814,64 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>155295</v>
+        <v>556302</v>
       </c>
       <c r="D2" s="3">
-        <v>13.3</v>
+        <v>31.9</v>
       </c>
       <c r="E2" s="3">
-        <v>8.3000000000000007</v>
+        <v>22.1</v>
       </c>
       <c r="F2" s="3">
-        <v>5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G2" s="1">
-        <v>2062</v>
+        <v>17737</v>
       </c>
       <c r="H2" s="1">
-        <v>1288</v>
+        <v>12303</v>
       </c>
       <c r="I2" s="5">
-        <v>55</v>
+        <v>40610</v>
       </c>
       <c r="J2" s="1">
-        <v>222321</v>
+        <v>634968</v>
       </c>
       <c r="K2" s="10">
-        <v>9.3000000000000007</v>
+        <v>27.9</v>
       </c>
       <c r="L2" s="10">
-        <v>5.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
+        <v>8.6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>668258</v>
+      </c>
+      <c r="O2" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P2" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45068</v>
+      </c>
+      <c r="S2" s="1">
+        <v>26589</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>0</v>
+      <c r="U2" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>11</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="9"/>
@@ -2883,61 +2895,61 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>177351</v>
+        <v>653185</v>
       </c>
       <c r="D3" s="3">
-        <v>30.9</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E3" s="3">
-        <v>17.3</v>
+        <v>23.1</v>
       </c>
       <c r="F3" s="3">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
-        <v>5476</v>
+        <v>23640</v>
       </c>
       <c r="H3" s="1">
-        <v>3068</v>
+        <v>15117</v>
       </c>
       <c r="I3" s="5">
-        <v>103</v>
+        <v>13046</v>
       </c>
       <c r="J3" s="1">
-        <v>223150</v>
+        <v>681012</v>
       </c>
       <c r="K3" s="10">
-        <v>24.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L3" s="10">
-        <v>13.7</v>
+        <v>22.2</v>
       </c>
       <c r="M3" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>0</v>
+        <v>12.5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>680703</v>
+      </c>
+      <c r="O3" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P3" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R3" s="1">
+        <v>45907</v>
+      </c>
+      <c r="S3" s="1">
+        <v>27085</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>0</v>
+      <c r="U3" s="2">
+        <v>51</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="9"/>
@@ -2961,61 +2973,61 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>198836</v>
+        <v>688306</v>
       </c>
       <c r="D4" s="3">
-        <v>29.6</v>
+        <v>31.3</v>
       </c>
       <c r="E4" s="3">
-        <v>17.8</v>
+        <v>19.5</v>
       </c>
       <c r="F4" s="3">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="G4" s="1">
-        <v>5893</v>
+        <v>21547</v>
       </c>
       <c r="H4" s="1">
-        <v>3530</v>
+        <v>13440</v>
       </c>
       <c r="I4" s="5">
-        <v>480</v>
+        <v>18758</v>
       </c>
       <c r="J4" s="1">
-        <v>225661</v>
+        <v>702581</v>
       </c>
       <c r="K4" s="10">
-        <v>26.1</v>
+        <v>30.7</v>
       </c>
       <c r="L4" s="10">
-        <v>15.6</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="M4" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>0</v>
+        <v>11.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>693380</v>
+      </c>
+      <c r="O4" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P4" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R4" s="1">
+        <v>46762</v>
+      </c>
+      <c r="S4" s="1">
+        <v>27589</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>0</v>
+      <c r="U4" s="2">
+        <v>46</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="9"/>
@@ -3039,61 +3051,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>227950</v>
+        <v>763626</v>
       </c>
       <c r="D5" s="3">
-        <v>31.9</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E5" s="3">
-        <v>21.5</v>
+        <v>25.1</v>
       </c>
       <c r="F5" s="3">
-        <v>10.4</v>
+        <v>13.2</v>
       </c>
       <c r="G5" s="1">
-        <v>7276</v>
+        <v>29244</v>
       </c>
       <c r="H5" s="1">
-        <v>4906</v>
+        <v>19180</v>
       </c>
       <c r="I5" s="5">
-        <v>1019</v>
+        <v>23115</v>
       </c>
       <c r="J5" s="1">
-        <v>228504</v>
+        <v>729446</v>
       </c>
       <c r="K5" s="10">
-        <v>31.8</v>
+        <v>40.1</v>
       </c>
       <c r="L5" s="10">
-        <v>21.5</v>
+        <v>26.3</v>
       </c>
       <c r="M5" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>0</v>
+        <v>13.8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>706293</v>
+      </c>
+      <c r="O5" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P5" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R5" s="1">
+        <v>47633</v>
+      </c>
+      <c r="S5" s="1">
+        <v>28103</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>0</v>
+      <c r="U5" s="2">
+        <v>61</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="9"/>
@@ -3117,61 +3129,61 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>243666</v>
+        <v>734729</v>
       </c>
       <c r="D6" s="3">
-        <v>33.299999999999997</v>
+        <v>41.9</v>
       </c>
       <c r="E6" s="3">
-        <v>20.9</v>
+        <v>28.6</v>
       </c>
       <c r="F6" s="3">
-        <v>12.4</v>
+        <v>13.3</v>
       </c>
       <c r="G6" s="1">
-        <v>8115</v>
+        <v>30772</v>
       </c>
       <c r="H6" s="1">
-        <v>5085</v>
+        <v>20992</v>
       </c>
       <c r="I6" s="5">
-        <v>5902</v>
+        <v>18766</v>
       </c>
       <c r="J6" s="1">
-        <v>231893</v>
+        <v>762625</v>
       </c>
       <c r="K6" s="10">
-        <v>35</v>
+        <v>40.4</v>
       </c>
       <c r="L6" s="10">
-        <v>21.9</v>
+        <v>27.5</v>
       </c>
       <c r="M6" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>0</v>
+        <v>12.8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>719446</v>
+      </c>
+      <c r="O6" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P6" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R6" s="1">
+        <v>48520</v>
+      </c>
+      <c r="S6" s="1">
+        <v>28626</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>0</v>
+      <c r="U6" s="2">
+        <v>63</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="9"/>
@@ -3195,61 +3207,61 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>268592</v>
+        <v>766126</v>
       </c>
       <c r="D7" s="3">
-        <v>30</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E7" s="3">
-        <v>17.7</v>
+        <v>22.5</v>
       </c>
       <c r="F7" s="3">
-        <v>12.3</v>
+        <v>16.7</v>
       </c>
       <c r="G7" s="1">
-        <v>8060</v>
+        <v>30063</v>
       </c>
       <c r="H7" s="1">
-        <v>4744</v>
+        <v>17235</v>
       </c>
       <c r="I7" s="5">
-        <v>2906</v>
+        <v>4901</v>
       </c>
       <c r="J7" s="1">
-        <v>240825</v>
+        <v>791171</v>
       </c>
       <c r="K7" s="10">
-        <v>33.5</v>
+        <v>38</v>
       </c>
       <c r="L7" s="10">
-        <v>19.7</v>
+        <v>21.8</v>
       </c>
       <c r="M7" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>0</v>
+        <v>16.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>732844</v>
+      </c>
+      <c r="O7" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P7" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R7" s="1">
+        <v>49424</v>
+      </c>
+      <c r="S7" s="1">
+        <v>29159</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>0</v>
+      <c r="U7" s="2">
+        <v>61</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="9"/>
@@ -3273,61 +3285,61 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>281000</v>
+        <v>800936</v>
       </c>
       <c r="D8" s="3">
-        <v>31.4</v>
+        <v>37.4</v>
       </c>
       <c r="E8" s="3">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="F8" s="3">
-        <v>13.4</v>
+        <v>17.5</v>
       </c>
       <c r="G8" s="1">
-        <v>8815</v>
+        <v>29952</v>
       </c>
       <c r="H8" s="1">
-        <v>5044</v>
+        <v>15897</v>
       </c>
       <c r="I8" s="5">
-        <v>6402</v>
+        <v>5346</v>
       </c>
       <c r="J8" s="1">
-        <v>247047</v>
+        <v>808900</v>
       </c>
       <c r="K8" s="10">
-        <v>35.700000000000003</v>
+        <v>37</v>
       </c>
       <c r="L8" s="10">
-        <v>20.399999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="M8" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>0</v>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>746492</v>
+      </c>
+      <c r="O8" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P8" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R8" s="1">
+        <v>50344</v>
+      </c>
+      <c r="S8" s="1">
+        <v>29702</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>0</v>
+      <c r="U8" s="2">
+        <v>59</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="9"/>
@@ -3351,61 +3363,61 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>300370</v>
+        <v>929531</v>
       </c>
       <c r="D9" s="3">
-        <v>33.4</v>
+        <v>32.5</v>
       </c>
       <c r="E9" s="3">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="F9" s="3">
-        <v>16.600000000000001</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>10029</v>
+        <v>30188</v>
       </c>
       <c r="H9" s="1">
-        <v>5037</v>
+        <v>16229</v>
       </c>
       <c r="I9" s="5">
-        <v>7301</v>
+        <v>6315</v>
       </c>
       <c r="J9" s="1">
-        <v>257220</v>
+        <v>828421</v>
       </c>
       <c r="K9" s="10">
-        <v>39</v>
+        <v>36.4</v>
       </c>
       <c r="L9" s="10">
         <v>19.600000000000001</v>
       </c>
       <c r="M9" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>0</v>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>760394</v>
+      </c>
+      <c r="O9" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P9" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R9" s="1">
+        <v>51282</v>
+      </c>
+      <c r="S9" s="1">
+        <v>30256</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>0</v>
+      <c r="U9" s="2">
+        <v>59</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="9"/>
@@ -3426,64 +3438,64 @@
         <v>1904</v>
       </c>
       <c r="B10" s="1">
-        <v>242900</v>
+        <v>763400</v>
       </c>
       <c r="C10" s="1">
-        <v>330204</v>
+        <v>832517</v>
       </c>
       <c r="D10" s="3">
-        <v>26.8</v>
+        <v>40.4</v>
       </c>
       <c r="E10" s="3">
-        <v>12.9</v>
+        <v>28.4</v>
       </c>
       <c r="F10" s="3">
-        <v>13.9</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>8834</v>
+        <v>33619</v>
       </c>
       <c r="H10" s="1">
-        <v>4260</v>
+        <v>23669</v>
       </c>
       <c r="I10" s="5">
-        <v>-143</v>
+        <v>4077</v>
       </c>
       <c r="J10" s="1">
-        <v>269513</v>
+        <v>848723</v>
       </c>
       <c r="K10" s="10">
-        <v>32.799999999999997</v>
+        <v>39.6</v>
       </c>
       <c r="L10" s="10">
-        <v>15.8</v>
+        <v>27.9</v>
       </c>
       <c r="M10" s="4">
-        <v>17</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>0</v>
+        <v>11.7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>774555</v>
+      </c>
+      <c r="O10" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P10" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R10" s="1">
+        <v>52237</v>
+      </c>
+      <c r="S10" s="1">
+        <v>30819</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>0</v>
+      <c r="U10" s="2">
+        <v>64</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="9"/>
@@ -3504,64 +3516,64 @@
         <v>1905</v>
       </c>
       <c r="B11" s="1">
-        <v>246800</v>
+        <v>778200</v>
       </c>
       <c r="C11" s="1">
-        <v>252210</v>
+        <v>892484</v>
       </c>
       <c r="D11" s="3">
-        <v>33.700000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E11" s="3">
-        <v>16.899999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="F11" s="3">
-        <v>16.8</v>
+        <v>12.8</v>
       </c>
       <c r="G11" s="1">
-        <v>8506</v>
+        <v>30962</v>
       </c>
       <c r="H11" s="1">
-        <v>4273</v>
+        <v>19566</v>
       </c>
       <c r="I11" s="5">
-        <v>-36</v>
+        <v>10182</v>
       </c>
       <c r="J11" s="1">
-        <v>273944</v>
+        <v>862801</v>
       </c>
       <c r="K11" s="10">
-        <v>31.1</v>
+        <v>35.9</v>
       </c>
       <c r="L11" s="10">
-        <v>15.6</v>
+        <v>22.7</v>
       </c>
       <c r="M11" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>0</v>
+        <v>13.2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>788980</v>
+      </c>
+      <c r="O11" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P11" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R11" s="1">
+        <v>53209</v>
+      </c>
+      <c r="S11" s="1">
+        <v>31393</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>0</v>
+      <c r="U11" s="2">
+        <v>58</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="9"/>
@@ -3582,64 +3594,64 @@
         <v>1906</v>
       </c>
       <c r="B12" s="1">
-        <v>252100</v>
+        <v>787800</v>
       </c>
       <c r="C12" s="1">
-        <v>239970</v>
+        <v>934612</v>
       </c>
       <c r="D12" s="3">
-        <v>44.9</v>
+        <v>43.3</v>
       </c>
       <c r="E12" s="3">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
       <c r="F12" s="3">
-        <v>20.6</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>10768</v>
+        <v>40476</v>
       </c>
       <c r="H12" s="1">
-        <v>5818</v>
+        <v>24528</v>
       </c>
       <c r="I12" s="5">
-        <v>13290</v>
+        <v>54222</v>
       </c>
       <c r="J12" s="1">
-        <v>278141</v>
+        <v>884380</v>
       </c>
       <c r="K12" s="10">
-        <v>38.700000000000003</v>
+        <v>45.8</v>
       </c>
       <c r="L12" s="10">
-        <v>20.9</v>
+        <v>27.7</v>
       </c>
       <c r="M12" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="N12" s="1">
+        <v>803673</v>
+      </c>
+      <c r="O12" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P12" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R12" s="1">
+        <v>54200</v>
+      </c>
+      <c r="S12" s="1">
+        <v>31978</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>0</v>
+      <c r="U12" s="2">
+        <v>75</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="9"/>
@@ -3660,64 +3672,64 @@
         <v>1907</v>
       </c>
       <c r="B13" s="1">
-        <v>267300</v>
+        <v>797700</v>
       </c>
       <c r="C13" s="1">
-        <v>359138</v>
+        <v>956393</v>
       </c>
       <c r="D13" s="3">
-        <v>35.700000000000003</v>
+        <v>43.2</v>
       </c>
       <c r="E13" s="3">
-        <v>21.8</v>
+        <v>26.4</v>
       </c>
       <c r="F13" s="3">
-        <v>13.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>12819</v>
+        <v>41321</v>
       </c>
       <c r="H13" s="1">
-        <v>7842</v>
+        <v>25202</v>
       </c>
       <c r="I13" s="5">
-        <v>74512</v>
+        <v>64087</v>
       </c>
       <c r="J13" s="1">
-        <v>296382</v>
+        <v>954550</v>
       </c>
       <c r="K13" s="10">
         <v>43.3</v>
       </c>
       <c r="L13" s="10">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="M13" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>0</v>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N13" s="1">
+        <v>818640</v>
+      </c>
+      <c r="O13" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P13" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>55210</v>
+      </c>
+      <c r="S13" s="1">
+        <v>32573</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>0</v>
+      <c r="U13" s="2">
+        <v>75</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="9"/>
@@ -3738,64 +3750,64 @@
         <v>1908</v>
       </c>
       <c r="B14" s="1">
-        <v>289600</v>
+        <v>809700</v>
       </c>
       <c r="C14" s="1">
-        <v>516767</v>
+        <v>988005</v>
       </c>
       <c r="D14" s="3">
-        <v>38.6</v>
+        <v>42.7</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>25.6</v>
       </c>
       <c r="F14" s="3">
-        <v>18.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1">
-        <v>19955</v>
+        <v>42168</v>
       </c>
       <c r="H14" s="1">
-        <v>10335</v>
+        <v>25334</v>
       </c>
       <c r="I14" s="5">
-        <v>20590</v>
+        <v>122489</v>
       </c>
       <c r="J14" s="1">
-        <v>376141</v>
+        <v>1034756</v>
       </c>
       <c r="K14" s="10">
-        <v>53.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="L14" s="10">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="M14" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>0</v>
+        <v>16.3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>833886</v>
+      </c>
+      <c r="O14" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P14" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R14" s="1">
+        <v>56238</v>
+      </c>
+      <c r="S14" s="1">
+        <v>33180</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>0</v>
+      <c r="U14" s="2">
+        <v>75</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="9"/>
@@ -3816,64 +3828,64 @@
         <v>1909</v>
       </c>
       <c r="B15" s="1">
-        <v>268900</v>
+        <v>979200</v>
       </c>
       <c r="C15" s="1">
-        <v>530805</v>
+        <v>1121002</v>
       </c>
       <c r="D15" s="3">
-        <v>30.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E15" s="3">
-        <v>13.9</v>
+        <v>23.3</v>
       </c>
       <c r="F15" s="3">
-        <v>16.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G15" s="1">
-        <v>16017</v>
+        <v>45683</v>
       </c>
       <c r="H15" s="1">
-        <v>7388</v>
+        <v>26172</v>
       </c>
       <c r="I15" s="5">
-        <v>18588</v>
+        <v>84450</v>
       </c>
       <c r="J15" s="1">
-        <v>406352</v>
+        <v>1174079</v>
       </c>
       <c r="K15" s="10">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="L15" s="10">
-        <v>18.2</v>
+        <v>22.3</v>
       </c>
       <c r="M15" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>0</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>849415</v>
+      </c>
+      <c r="O15" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P15" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="R15" s="1">
+        <v>57285</v>
+      </c>
+      <c r="S15" s="1">
+        <v>33798</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>0</v>
+      <c r="U15" s="2">
+        <v>80</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="9"/>
@@ -3894,64 +3906,64 @@
         <v>1910</v>
       </c>
       <c r="B16" s="1">
-        <v>281100</v>
+        <v>1047300</v>
       </c>
       <c r="C16" s="1">
-        <v>517863</v>
+        <v>1217834</v>
       </c>
       <c r="D16" s="3">
-        <v>31.7</v>
+        <v>51.4</v>
       </c>
       <c r="E16" s="3">
-        <v>14.5</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F16" s="3">
-        <v>17.2</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1">
-        <v>16433</v>
+        <v>62588</v>
       </c>
       <c r="H16" s="1">
-        <v>7515</v>
+        <v>39390</v>
       </c>
       <c r="I16" s="5">
-        <v>9272</v>
+        <v>29216</v>
       </c>
       <c r="J16" s="1">
-        <v>433569</v>
+        <v>1278040</v>
       </c>
       <c r="K16" s="10">
-        <v>37.9</v>
+        <v>49</v>
       </c>
       <c r="L16" s="10">
-        <v>17.3</v>
+        <v>30.8</v>
       </c>
       <c r="M16" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>0</v>
+        <v>18.2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>865234</v>
+      </c>
+      <c r="O16" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="R16" s="1">
+        <v>62588</v>
+      </c>
+      <c r="S16" s="1">
+        <v>39390</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U16" s="2">
+        <v>100</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="9"/>
@@ -3972,64 +3984,64 @@
         <v>1911</v>
       </c>
       <c r="B17" s="1">
-        <v>533100</v>
+        <v>1064000</v>
       </c>
       <c r="C17" s="1">
-        <v>505992</v>
+        <v>1443721</v>
       </c>
       <c r="D17" s="3">
-        <v>34.1</v>
+        <v>43.6</v>
       </c>
       <c r="E17" s="3">
-        <v>18.3</v>
+        <v>25.7</v>
       </c>
       <c r="F17" s="3">
-        <v>15.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G17" s="1">
-        <v>17257</v>
+        <v>62978</v>
       </c>
       <c r="H17" s="1">
-        <v>9270</v>
+        <v>37073</v>
       </c>
       <c r="I17" s="5">
-        <v>7494</v>
+        <v>2661</v>
       </c>
       <c r="J17" s="1">
-        <v>452041</v>
+        <v>1330454</v>
       </c>
       <c r="K17" s="10">
-        <v>38.200000000000003</v>
+        <v>47.3</v>
       </c>
       <c r="L17" s="10">
-        <v>20.5</v>
+        <v>27.9</v>
       </c>
       <c r="M17" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>0</v>
+        <v>19.5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>917648</v>
+      </c>
+      <c r="O17" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="P17" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>62978</v>
+      </c>
+      <c r="S17" s="1">
+        <v>37073</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U17" s="2">
+        <v>100</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="9"/>
@@ -4050,64 +4062,64 @@
         <v>1912</v>
       </c>
       <c r="B18" s="1">
-        <v>572000</v>
+        <v>1454100</v>
       </c>
       <c r="C18" s="1">
-        <v>545397</v>
+        <v>1469401</v>
       </c>
       <c r="D18" s="3">
-        <v>35.9</v>
+        <v>42.9</v>
       </c>
       <c r="E18" s="3">
-        <v>18.100000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="F18" s="3">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="G18" s="1">
-        <v>19607</v>
+        <v>63078</v>
       </c>
       <c r="H18" s="1">
-        <v>9897</v>
+        <v>37135</v>
       </c>
       <c r="I18" s="5">
-        <v>9981</v>
+        <v>6623</v>
       </c>
       <c r="J18" s="1">
-        <v>467963</v>
+        <v>1359020</v>
       </c>
       <c r="K18" s="10">
-        <v>41.9</v>
+        <v>46.4</v>
       </c>
       <c r="L18" s="10">
-        <v>21.1</v>
+        <v>27.3</v>
       </c>
       <c r="M18" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>0</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>946214</v>
+      </c>
+      <c r="O18" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="P18" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>63078</v>
+      </c>
+      <c r="S18" s="1">
+        <v>37135</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U18" s="2">
+        <v>100</v>
       </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="9"/>
@@ -4128,64 +4140,64 @@
         <v>1913</v>
       </c>
       <c r="B19" s="1">
-        <v>604000</v>
+        <v>1491900</v>
       </c>
       <c r="C19" s="1">
-        <v>584572</v>
+        <v>1495669</v>
       </c>
       <c r="D19" s="3">
-        <v>36.299999999999997</v>
+        <v>42.4</v>
       </c>
       <c r="E19" s="3">
-        <v>16.399999999999999</v>
+        <v>25.1</v>
       </c>
       <c r="F19" s="3">
-        <v>19.899999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="G19" s="1">
-        <v>21214</v>
+        <v>63466</v>
       </c>
       <c r="H19" s="1">
-        <v>9601</v>
+        <v>37538</v>
       </c>
       <c r="I19" s="5">
-        <v>8464</v>
+        <v>29020</v>
       </c>
       <c r="J19" s="1">
-        <v>487887</v>
+        <v>1391586</v>
       </c>
       <c r="K19" s="10">
-        <v>43.5</v>
+        <v>45.6</v>
       </c>
       <c r="L19" s="10">
-        <v>19.7</v>
+        <v>27</v>
       </c>
       <c r="M19" s="4">
-        <v>23.8</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>0</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N19" s="1">
+        <v>978780</v>
+      </c>
+      <c r="O19" s="3">
+        <v>64.8</v>
+      </c>
+      <c r="P19" s="3">
+        <v>38.4</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="R19" s="1">
+        <v>63466</v>
+      </c>
+      <c r="S19" s="1">
+        <v>37538</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U19" s="2">
+        <v>100</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="9"/>
@@ -4206,49 +4218,65 @@
         <v>1914</v>
       </c>
       <c r="B20" s="1">
-        <v>606600</v>
+        <v>1523700</v>
       </c>
       <c r="C20" s="1">
-        <v>619185</v>
+        <v>1525543</v>
       </c>
       <c r="D20" s="3">
-        <v>32.700000000000003</v>
+        <v>43.9</v>
       </c>
       <c r="E20" s="3">
-        <v>14.1</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3">
-        <v>18.7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>20264</v>
+        <v>66915</v>
       </c>
       <c r="H20" s="1">
-        <v>8707</v>
+        <v>36618</v>
       </c>
       <c r="I20" s="5">
-        <v>11102</v>
+        <v>38707</v>
       </c>
       <c r="J20" s="1">
-        <v>508058</v>
+        <v>1446534</v>
       </c>
       <c r="K20" s="10">
-        <v>39.9</v>
+        <v>46.3</v>
       </c>
       <c r="L20" s="10">
-        <v>17.100000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="M20" s="4">
-        <v>22.7</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="2"/>
+        <v>20.9</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1033728</v>
+      </c>
+      <c r="O20" s="3">
+        <v>64.7</v>
+      </c>
+      <c r="P20" s="3">
+        <v>35.4</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>66915</v>
+      </c>
+      <c r="S20" s="1">
+        <v>36618</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="2">
+        <v>100</v>
+      </c>
       <c r="V20" t="s">
         <v>7</v>
       </c>
@@ -4277,28 +4305,28 @@
       <c r="C21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(G2:G20)</f>
-        <v>227400</v>
+        <v>766397</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(H2:H20)</f>
-        <v>117608</v>
+        <v>462618</v>
       </c>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>197282</v>
+        <v>576591</v>
       </c>
       <c r="J21" s="1"/>
       <c r="V21" s="1">
         <f>G21-H21</f>
-        <v>109792</v>
+        <v>303779</v>
       </c>
       <c r="W21" s="1">
         <f>V21+I21</f>
-        <v>307074</v>
+        <v>880370</v>
       </c>
       <c r="Y21">
         <f>I21/W21</f>
-        <v>0.64245751838319098</v>
+        <v>0.65494167225143973</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
@@ -4609,7 +4637,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>1</v>
       </c>
@@ -4620,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>1896</v>
       </c>
@@ -4628,64 +4656,67 @@
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>155295</v>
+        <v>375383</v>
       </c>
       <c r="D66" s="3">
-        <v>56.2</v>
+        <v>28.5</v>
       </c>
       <c r="E66" s="3">
-        <v>28.1</v>
+        <v>14.9</v>
       </c>
       <c r="F66" s="3">
-        <v>28.1</v>
+        <v>13.6</v>
       </c>
       <c r="G66" s="1">
-        <v>8728</v>
+        <v>10680</v>
       </c>
       <c r="H66" s="1">
-        <v>4359</v>
+        <v>5591</v>
       </c>
       <c r="I66" s="5">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J66" s="1">
-        <v>222321</v>
+        <v>447935</v>
       </c>
       <c r="K66" s="10">
-        <v>18.548002626584271</v>
+        <v>23.8</v>
       </c>
       <c r="L66" s="10">
-        <v>11.585755277905209</v>
+        <v>12.5</v>
       </c>
       <c r="M66" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="N66" t="s">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
-        <v>0</v>
-      </c>
-      <c r="P66" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>0</v>
-      </c>
-      <c r="S66" t="s">
-        <v>0</v>
+        <v>11.4</v>
+      </c>
+      <c r="N66" s="1">
+        <v>443408</v>
+      </c>
+      <c r="O66">
+        <v>62.5</v>
+      </c>
+      <c r="P66">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q66">
+        <v>26.8</v>
+      </c>
+      <c r="R66" s="1">
+        <v>27734</v>
+      </c>
+      <c r="S66" s="1">
+        <v>15835</v>
       </c>
       <c r="T66" t="s">
         <v>0</v>
       </c>
-      <c r="U66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>1897</v>
       </c>
@@ -4693,64 +4724,64 @@
         <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>177351</v>
+        <v>416418</v>
       </c>
       <c r="D67" s="3">
-        <v>49.2</v>
+        <v>25.5</v>
       </c>
       <c r="E67" s="3">
-        <v>24.6</v>
+        <v>15.2</v>
       </c>
       <c r="F67" s="3">
-        <v>24.6</v>
+        <v>10.3</v>
       </c>
       <c r="G67" s="1">
-        <v>8728</v>
+        <v>10607</v>
       </c>
       <c r="H67" s="1">
-        <v>4359</v>
+        <v>6325</v>
       </c>
       <c r="I67" s="5">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="J67" s="1">
-        <v>223150</v>
+        <v>453076</v>
       </c>
       <c r="K67" s="10">
-        <v>48.892857142857146</v>
+        <v>23.4</v>
       </c>
       <c r="L67" s="10">
-        <v>27.392857142857142</v>
+        <v>14</v>
       </c>
       <c r="M67" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="N67" t="s">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>0</v>
-      </c>
-      <c r="S67" t="s">
-        <v>0</v>
+        <v>9.5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>452690</v>
+      </c>
+      <c r="O67">
+        <v>62.5</v>
+      </c>
+      <c r="P67">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q67">
+        <v>26.8</v>
+      </c>
+      <c r="R67" s="1">
+        <v>28314</v>
+      </c>
+      <c r="S67" s="1">
+        <v>16166</v>
       </c>
       <c r="T67" t="s">
         <v>0</v>
       </c>
-      <c r="U67" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>1898</v>
       </c>
@@ -4758,64 +4789,64 @@
         <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>198836</v>
+        <v>436566</v>
       </c>
       <c r="D68" s="3">
-        <v>44.4</v>
+        <v>31.3</v>
       </c>
       <c r="E68" s="3">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="F68" s="3">
-        <v>22.2</v>
+        <v>10.3</v>
       </c>
       <c r="G68" s="1">
-        <v>8819</v>
+        <v>13659</v>
       </c>
       <c r="H68" s="1">
-        <v>4404</v>
-      </c>
-      <c r="I68" s="2">
-        <v>480</v>
+        <v>9179</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1219</v>
       </c>
       <c r="J68" s="1">
-        <v>225661</v>
+        <v>457678</v>
       </c>
       <c r="K68" s="10">
-        <v>51.46230493140397</v>
+        <v>29.8</v>
       </c>
       <c r="L68" s="10">
-        <v>30.826732802962162</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M68" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="N68" t="s">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>0</v>
-      </c>
-      <c r="P68" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>0</v>
-      </c>
-      <c r="R68" t="s">
-        <v>0</v>
-      </c>
-      <c r="S68" t="s">
-        <v>0</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N68" s="1">
+        <v>462166</v>
+      </c>
+      <c r="O68">
+        <v>62.5</v>
+      </c>
+      <c r="P68">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q68">
+        <v>26.8</v>
+      </c>
+      <c r="R68" s="1">
+        <v>28907</v>
+      </c>
+      <c r="S68" s="1">
+        <v>16505</v>
       </c>
       <c r="T68" t="s">
         <v>0</v>
       </c>
-      <c r="U68" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>1899</v>
       </c>
@@ -4823,64 +4854,64 @@
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>227950</v>
+        <v>447847</v>
       </c>
       <c r="D69" s="3">
-        <v>39.5</v>
+        <v>33.5</v>
       </c>
       <c r="E69" s="3">
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="F69" s="3">
-        <v>18</v>
+        <v>13.2</v>
       </c>
       <c r="G69" s="1">
-        <v>9010</v>
+        <v>15022</v>
       </c>
       <c r="H69" s="1">
-        <v>4906</v>
+        <v>9110</v>
       </c>
       <c r="I69" s="5">
-        <v>1019</v>
+        <v>3479</v>
       </c>
       <c r="J69" s="1">
-        <v>230556</v>
+        <v>463377</v>
       </c>
       <c r="K69" s="10">
-        <v>62.000443103771495</v>
+        <v>32.4</v>
       </c>
       <c r="L69" s="10">
-        <v>41.805136595258787</v>
+        <v>19.7</v>
       </c>
       <c r="M69" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="N69" t="s">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>0</v>
-      </c>
-      <c r="P69" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69" t="s">
-        <v>0</v>
-      </c>
-      <c r="S69" t="s">
-        <v>0</v>
+        <v>12.8</v>
+      </c>
+      <c r="N69" s="1">
+        <v>471840</v>
+      </c>
+      <c r="O69">
+        <v>62.5</v>
+      </c>
+      <c r="P69">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q69">
+        <v>26.8</v>
+      </c>
+      <c r="R69" s="1">
+        <v>29512</v>
+      </c>
+      <c r="S69" s="1">
+        <v>16850</v>
       </c>
       <c r="T69" t="s">
         <v>0</v>
       </c>
-      <c r="U69" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>1900</v>
       </c>
@@ -4888,64 +4919,64 @@
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>243666</v>
+        <v>449522</v>
       </c>
       <c r="D70" s="3">
-        <v>37.799999999999997</v>
+        <v>34</v>
       </c>
       <c r="E70" s="3">
-        <v>20.9</v>
+        <v>19.5</v>
       </c>
       <c r="F70" s="3">
-        <v>16.899999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="G70" s="1">
-        <v>9210</v>
+        <v>15268</v>
       </c>
       <c r="H70" s="1">
-        <v>5085</v>
+        <v>8788</v>
       </c>
       <c r="I70" s="5">
-        <v>5902</v>
+        <v>3134</v>
       </c>
       <c r="J70" s="1">
-        <v>235679</v>
+        <v>472768</v>
       </c>
       <c r="K70" s="10">
-        <v>67.208865110192718</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="L70" s="10">
-        <v>42.114242647606901</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M70" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="N70" t="s">
-        <v>0</v>
-      </c>
-      <c r="O70" t="s">
-        <v>0</v>
-      </c>
-      <c r="P70" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
-        <v>0</v>
-      </c>
-      <c r="S70" t="s">
-        <v>0</v>
+        <v>13.7</v>
+      </c>
+      <c r="N70" s="1">
+        <v>481717</v>
+      </c>
+      <c r="O70">
+        <v>62.5</v>
+      </c>
+      <c r="P70">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q70">
+        <v>26.8</v>
+      </c>
+      <c r="R70" s="1">
+        <v>30130</v>
+      </c>
+      <c r="S70" s="1">
+        <v>17203</v>
       </c>
       <c r="T70" t="s">
         <v>0</v>
       </c>
-      <c r="U70" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>1901</v>
       </c>
@@ -4953,64 +4984,64 @@
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>268592</v>
+        <v>461362</v>
       </c>
       <c r="D71" s="3">
+        <v>35</v>
+      </c>
+      <c r="E71" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="F71" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G71" s="1">
+        <v>16143</v>
+      </c>
+      <c r="H71" s="1">
+        <v>9457</v>
+      </c>
+      <c r="I71" s="5">
+        <v>3061</v>
+      </c>
+      <c r="J71" s="1">
+        <v>482382</v>
+      </c>
+      <c r="K71" s="10">
+        <v>33.5</v>
+      </c>
+      <c r="L71" s="10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M71" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="N71" s="1">
+        <v>491800</v>
+      </c>
+      <c r="O71">
+        <v>62.5</v>
+      </c>
+      <c r="P71">
         <v>35.700000000000003</v>
       </c>
-      <c r="E71" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="F71" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G71" s="1">
-        <v>9602</v>
-      </c>
-      <c r="H71" s="1">
-        <v>4744</v>
-      </c>
-      <c r="I71" s="5">
-        <v>2906</v>
-      </c>
-      <c r="J71" s="1">
-        <v>245706</v>
-      </c>
-      <c r="K71" s="10">
-        <v>62.155388471177943</v>
-      </c>
-      <c r="L71" s="10">
-        <v>36.583767110082903</v>
-      </c>
-      <c r="M71" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="N71" t="s">
-        <v>0</v>
-      </c>
-      <c r="O71" t="s">
-        <v>0</v>
-      </c>
-      <c r="P71" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>0</v>
-      </c>
-      <c r="S71" t="s">
-        <v>0</v>
+      <c r="Q71">
+        <v>26.8</v>
+      </c>
+      <c r="R71" s="1">
+        <v>30760</v>
+      </c>
+      <c r="S71" s="1">
+        <v>17563</v>
       </c>
       <c r="T71" t="s">
         <v>0</v>
       </c>
-      <c r="U71" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>1902</v>
       </c>
@@ -5018,64 +5049,64 @@
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>281000</v>
+        <v>489627</v>
       </c>
       <c r="D72" s="3">
-        <v>31.4</v>
+        <v>38</v>
       </c>
       <c r="E72" s="3">
-        <v>18</v>
+        <v>23.8</v>
       </c>
       <c r="F72" s="3">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="G72" s="1">
-        <v>8815</v>
+        <v>18599</v>
       </c>
       <c r="H72" s="1">
-        <v>5044</v>
+        <v>11639</v>
       </c>
       <c r="I72" s="5">
-        <v>6402</v>
+        <v>6549</v>
       </c>
       <c r="J72" s="1">
-        <v>253470</v>
+        <v>492129</v>
       </c>
       <c r="K72" s="10">
-        <v>64.865302398139761</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="L72" s="10">
-        <v>37.116345467523196</v>
+        <v>23.7</v>
       </c>
       <c r="M72" s="4">
-        <v>14.9</v>
-      </c>
-      <c r="N72" t="s">
-        <v>0</v>
-      </c>
-      <c r="O72" t="s">
-        <v>0</v>
-      </c>
-      <c r="P72" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>0</v>
-      </c>
-      <c r="R72" t="s">
-        <v>0</v>
-      </c>
-      <c r="S72" t="s">
-        <v>0</v>
+        <v>14.1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>502094</v>
+      </c>
+      <c r="O72">
+        <v>62.5</v>
+      </c>
+      <c r="P72">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q72">
+        <v>26.8</v>
+      </c>
+      <c r="R72" s="1">
+        <v>31404</v>
+      </c>
+      <c r="S72" s="1">
+        <v>17931</v>
       </c>
       <c r="T72" t="s">
         <v>0</v>
       </c>
-      <c r="U72" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>1903</v>
       </c>
@@ -5083,516 +5114,516 @@
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>300370</v>
+        <v>478080</v>
       </c>
       <c r="D73" s="3">
-        <v>33.4</v>
+        <v>41.6</v>
       </c>
       <c r="E73" s="3">
-        <v>16.8</v>
+        <v>24.7</v>
       </c>
       <c r="F73" s="3">
-        <v>16.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G73" s="1">
-        <v>10029</v>
+        <v>19893</v>
       </c>
       <c r="H73" s="1">
-        <v>5037</v>
+        <v>11819</v>
       </c>
       <c r="I73" s="5">
-        <v>7301</v>
+        <v>7974</v>
       </c>
       <c r="J73" s="1">
-        <v>263643</v>
+        <v>505638</v>
       </c>
       <c r="K73" s="10">
-        <v>68.658862189361258</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="L73" s="10">
-        <v>34.483466830971452</v>
+        <v>23.4</v>
       </c>
       <c r="M73" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N73" t="s">
-        <v>0</v>
-      </c>
-      <c r="O73" t="s">
-        <v>0</v>
-      </c>
-      <c r="P73" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>0</v>
-      </c>
-      <c r="R73" t="s">
-        <v>0</v>
-      </c>
-      <c r="S73" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="N73" s="1">
+        <v>512604</v>
+      </c>
+      <c r="O73">
+        <v>62.5</v>
+      </c>
+      <c r="P73">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q73">
+        <v>26.8</v>
+      </c>
+      <c r="R73" s="1">
+        <v>32062</v>
+      </c>
+      <c r="S73" s="1">
+        <v>18306</v>
       </c>
       <c r="T73" t="s">
         <v>0</v>
       </c>
-      <c r="U73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>1904</v>
       </c>
       <c r="B74" s="1">
-        <v>242900</v>
+        <v>496900</v>
       </c>
       <c r="C74" s="1">
-        <v>330204</v>
+        <v>534898</v>
       </c>
       <c r="D74" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="E74" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="F74" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G74" s="1">
+        <v>20086</v>
+      </c>
+      <c r="H74" s="1">
+        <v>12124</v>
+      </c>
+      <c r="I74" s="5">
+        <v>15141</v>
+      </c>
+      <c r="J74" s="1">
+        <v>521686</v>
+      </c>
+      <c r="K74" s="10">
+        <v>38.5</v>
+      </c>
+      <c r="L74" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="M74" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="N74" s="1">
+        <v>523334</v>
+      </c>
+      <c r="O74">
+        <v>62.5</v>
+      </c>
+      <c r="P74">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q74">
         <v>26.8</v>
       </c>
-      <c r="E74" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="F74" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="G74" s="1">
-        <v>8834</v>
-      </c>
-      <c r="H74" s="1">
-        <v>4260</v>
-      </c>
-      <c r="I74" s="5">
-        <v>-143</v>
-      </c>
-      <c r="J74" s="1">
-        <v>275936</v>
-      </c>
-      <c r="K74" s="10">
-        <v>55.783232194388837</v>
-      </c>
-      <c r="L74" s="10">
-        <v>26.900222905602948</v>
-      </c>
-      <c r="M74" s="4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="N74" t="s">
-        <v>0</v>
-      </c>
-      <c r="O74" t="s">
-        <v>0</v>
-      </c>
-      <c r="P74" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>0</v>
-      </c>
-      <c r="R74" t="s">
-        <v>0</v>
-      </c>
-      <c r="S74" t="s">
-        <v>0</v>
+      <c r="R74" s="1">
+        <v>32733</v>
+      </c>
+      <c r="S74" s="1">
+        <v>18689</v>
       </c>
       <c r="T74" t="s">
         <v>0</v>
       </c>
-      <c r="U74" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>1905</v>
       </c>
       <c r="B75" s="1">
-        <v>246800</v>
+        <v>504400</v>
       </c>
       <c r="C75" s="1">
-        <v>252210</v>
+        <v>577508</v>
       </c>
       <c r="D75" s="3">
-        <v>33.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E75" s="3">
-        <v>16.899999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F75" s="3">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
       <c r="G75" s="1">
-        <v>8506</v>
+        <v>20627</v>
       </c>
       <c r="H75" s="1">
-        <v>4273</v>
+        <v>11624</v>
       </c>
       <c r="I75" s="5">
-        <v>-36</v>
+        <v>7586</v>
       </c>
       <c r="J75" s="1">
-        <v>280367</v>
+        <v>544789</v>
       </c>
       <c r="K75" s="10">
-        <v>52.250082926889199</v>
+        <v>37.9</v>
       </c>
       <c r="L75" s="10">
-        <v>26.247896114107398</v>
+        <v>21.3</v>
       </c>
       <c r="M75" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="N75" t="s">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>0</v>
-      </c>
-      <c r="P75" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>0</v>
-      </c>
-      <c r="S75" t="s">
-        <v>0</v>
+        <v>16.5</v>
+      </c>
+      <c r="N75" s="1">
+        <v>534289</v>
+      </c>
+      <c r="O75">
+        <v>62.5</v>
+      </c>
+      <c r="P75">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q75">
+        <v>26.8</v>
+      </c>
+      <c r="R75" s="1">
+        <v>33418</v>
+      </c>
+      <c r="S75" s="1">
+        <v>19080</v>
       </c>
       <c r="T75" t="s">
         <v>0</v>
       </c>
-      <c r="U75" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>1906</v>
       </c>
       <c r="B76" s="1">
-        <v>252100</v>
+        <v>511800</v>
       </c>
       <c r="C76" s="1">
-        <v>239970</v>
+        <v>568342</v>
       </c>
       <c r="D76" s="3">
-        <v>44.9</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E76" s="3">
-        <v>24.2</v>
+        <v>21.8</v>
       </c>
       <c r="F76" s="3">
-        <v>20.6</v>
+        <v>13.5</v>
       </c>
       <c r="G76" s="1">
-        <v>10768</v>
+        <v>20049</v>
       </c>
       <c r="H76" s="1">
-        <v>5818</v>
+        <v>12399</v>
       </c>
       <c r="I76" s="5">
-        <v>13290</v>
+        <v>14822</v>
       </c>
       <c r="J76" s="1">
-        <v>284564</v>
+        <v>561378</v>
       </c>
       <c r="K76" s="10">
-        <v>64.482517021875424</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="L76" s="10">
-        <v>34.840200968914495</v>
+        <v>22.1</v>
       </c>
       <c r="M76" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="N76" t="s">
-        <v>0</v>
-      </c>
-      <c r="O76" t="s">
-        <v>0</v>
-      </c>
-      <c r="P76" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" t="s">
-        <v>0</v>
-      </c>
-      <c r="S76" t="s">
-        <v>0</v>
+        <v>13.6</v>
+      </c>
+      <c r="N76" s="1">
+        <v>545473</v>
+      </c>
+      <c r="O76">
+        <v>62.5</v>
+      </c>
+      <c r="P76">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q76">
+        <v>26.8</v>
+      </c>
+      <c r="R76" s="1">
+        <v>34117</v>
+      </c>
+      <c r="S76" s="1">
+        <v>19480</v>
       </c>
       <c r="T76" t="s">
         <v>0</v>
       </c>
-      <c r="U76" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>1907</v>
       </c>
       <c r="B77" s="1">
-        <v>267300</v>
+        <v>533100</v>
       </c>
       <c r="C77" s="1">
-        <v>359138</v>
+        <v>580628</v>
       </c>
       <c r="D77" s="3">
+        <v>39</v>
+      </c>
+      <c r="E77" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="F77" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>22654</v>
+      </c>
+      <c r="H77" s="1">
+        <v>13839</v>
+      </c>
+      <c r="I77" s="5">
+        <v>8957</v>
+      </c>
+      <c r="J77" s="1">
+        <v>583850</v>
+      </c>
+      <c r="K77" s="10">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="L77" s="10">
+        <v>23.7</v>
+      </c>
+      <c r="M77" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>556891</v>
+      </c>
+      <c r="O77">
+        <v>62.5</v>
+      </c>
+      <c r="P77">
         <v>35.700000000000003</v>
       </c>
-      <c r="E77" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="F77" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="G77" s="1">
-        <v>12819</v>
-      </c>
-      <c r="H77" s="1">
-        <v>7842</v>
-      </c>
-      <c r="I77" s="5">
-        <v>74512</v>
-      </c>
-      <c r="J77" s="1">
-        <v>302804</v>
-      </c>
-      <c r="K77" s="10">
-        <v>69.205104949468776</v>
-      </c>
-      <c r="L77" s="10">
-        <v>42.336097434568543</v>
-      </c>
-      <c r="M77" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N77" t="s">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
-        <v>0</v>
-      </c>
-      <c r="P77" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>0</v>
-      </c>
-      <c r="R77" t="s">
-        <v>0</v>
-      </c>
-      <c r="S77" t="s">
-        <v>0</v>
+      <c r="Q77">
+        <v>26.8</v>
+      </c>
+      <c r="R77" s="1">
+        <v>34832</v>
+      </c>
+      <c r="S77" s="1">
+        <v>19888</v>
       </c>
       <c r="T77" t="s">
         <v>0</v>
       </c>
-      <c r="U77" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>1908</v>
       </c>
       <c r="B78" s="1">
-        <v>289600</v>
+        <v>557100</v>
       </c>
       <c r="C78" s="1">
-        <v>516767</v>
+        <v>592551</v>
       </c>
       <c r="D78" s="3">
-        <v>38.6</v>
+        <v>45.4</v>
       </c>
       <c r="E78" s="3">
-        <v>20</v>
+        <v>27.9</v>
       </c>
       <c r="F78" s="3">
-        <v>18.600000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G78" s="1">
-        <v>19955</v>
+        <v>26910</v>
       </c>
       <c r="H78" s="1">
-        <v>10335</v>
+        <v>16508</v>
       </c>
       <c r="I78" s="5">
-        <v>20590</v>
+        <v>34377</v>
       </c>
       <c r="J78" s="1">
-        <v>382293</v>
+        <v>601634</v>
       </c>
       <c r="K78" s="10">
-        <v>75.304444301881958</v>
+        <v>44.7</v>
       </c>
       <c r="L78" s="10">
-        <v>39.001324573287391</v>
+        <v>27.4</v>
       </c>
       <c r="M78" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="N78" t="s">
-        <v>0</v>
-      </c>
-      <c r="O78" t="s">
-        <v>0</v>
-      </c>
-      <c r="P78" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>0</v>
-      </c>
-      <c r="S78" t="s">
-        <v>0</v>
+        <v>17.3</v>
+      </c>
+      <c r="N78" s="1">
+        <v>568548</v>
+      </c>
+      <c r="O78">
+        <v>62.5</v>
+      </c>
+      <c r="P78">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q78">
+        <v>26.8</v>
+      </c>
+      <c r="R78" s="1">
+        <v>35561</v>
+      </c>
+      <c r="S78" s="1">
+        <v>20304</v>
       </c>
       <c r="T78" t="s">
         <v>0</v>
       </c>
-      <c r="U78" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>1909</v>
       </c>
       <c r="B79" s="1">
-        <v>268900</v>
+        <v>566100</v>
       </c>
       <c r="C79" s="1">
-        <v>530805</v>
+        <v>614171</v>
       </c>
       <c r="D79" s="3">
-        <v>30.2</v>
+        <v>45.9</v>
       </c>
       <c r="E79" s="3">
-        <v>13.9</v>
+        <v>28.7</v>
       </c>
       <c r="F79" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>28162</v>
+      </c>
+      <c r="H79" s="1">
+        <v>17616</v>
+      </c>
+      <c r="I79" s="5">
+        <v>31975</v>
+      </c>
+      <c r="J79" s="1">
+        <v>646413</v>
+      </c>
+      <c r="K79" s="10">
+        <v>43.6</v>
+      </c>
+      <c r="L79" s="10">
+        <v>27.3</v>
+      </c>
+      <c r="M79" s="4">
         <v>16.3</v>
       </c>
-      <c r="G79" s="1">
-        <v>16017</v>
-      </c>
-      <c r="H79" s="1">
-        <v>7388</v>
-      </c>
-      <c r="I79" s="5">
-        <v>18588</v>
-      </c>
-      <c r="J79" s="1">
-        <v>412503</v>
-      </c>
-      <c r="K79" s="10">
-        <v>54.257762481284004</v>
-      </c>
-      <c r="L79" s="10">
-        <v>25.026930711851545</v>
-      </c>
-      <c r="M79" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="N79" t="s">
-        <v>0</v>
-      </c>
-      <c r="O79" t="s">
-        <v>0</v>
-      </c>
-      <c r="P79" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R79" t="s">
-        <v>0</v>
-      </c>
-      <c r="S79" t="s">
-        <v>0</v>
+      <c r="N79" s="1">
+        <v>580449</v>
+      </c>
+      <c r="O79">
+        <v>62.5</v>
+      </c>
+      <c r="P79">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q79">
+        <v>26.8</v>
+      </c>
+      <c r="R79" s="1">
+        <v>36305</v>
+      </c>
+      <c r="S79" s="1">
+        <v>20729</v>
       </c>
       <c r="T79" t="s">
         <v>0</v>
       </c>
-      <c r="U79" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>1910</v>
       </c>
       <c r="B80" s="1">
-        <v>281100</v>
+        <v>617200</v>
       </c>
       <c r="C80" s="1">
-        <v>517863</v>
+        <v>680510</v>
       </c>
       <c r="D80" s="3">
-        <v>31.7</v>
+        <v>43.2</v>
       </c>
       <c r="E80" s="3">
-        <v>14.5</v>
+        <v>30.3</v>
       </c>
       <c r="F80" s="3">
-        <v>17.2</v>
+        <v>12.9</v>
       </c>
       <c r="G80" s="1">
-        <v>16433</v>
+        <v>29382</v>
       </c>
       <c r="H80" s="1">
-        <v>7515</v>
+        <v>20590</v>
       </c>
       <c r="I80" s="5">
-        <v>9272</v>
+        <v>21811</v>
       </c>
       <c r="J80" s="1">
-        <v>439720</v>
+        <v>688934</v>
       </c>
       <c r="K80" s="10">
-        <v>50.96783998461629</v>
+        <v>42.6</v>
       </c>
       <c r="L80" s="10">
-        <v>23.308179728862132</v>
+        <v>29.9</v>
       </c>
       <c r="M80" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="N80" t="s">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>0</v>
-      </c>
-      <c r="P80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>0</v>
-      </c>
-      <c r="R80" t="s">
-        <v>0</v>
-      </c>
-      <c r="S80" t="s">
-        <v>0</v>
+        <v>12.8</v>
+      </c>
+      <c r="N80" s="1">
+        <v>592599</v>
+      </c>
+      <c r="O80">
+        <v>62.5</v>
+      </c>
+      <c r="P80">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q80">
+        <v>26.8</v>
+      </c>
+      <c r="R80" s="1">
+        <v>37065</v>
+      </c>
+      <c r="S80" s="1">
+        <v>21163</v>
       </c>
       <c r="T80" t="s">
         <v>0</v>
       </c>
-      <c r="U80" t="s">
-        <v>0</v>
+      <c r="U80">
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -5600,64 +5631,64 @@
         <v>1911</v>
       </c>
       <c r="B81" s="1">
-        <v>533100</v>
+        <v>624000</v>
       </c>
       <c r="C81" s="1">
-        <v>505992</v>
+        <v>712971</v>
       </c>
       <c r="D81" s="3">
-        <v>34.1</v>
+        <v>50.2</v>
       </c>
       <c r="E81" s="3">
-        <v>18.3</v>
+        <v>30.9</v>
       </c>
       <c r="F81" s="3">
-        <v>15.8</v>
+        <v>19.3</v>
       </c>
       <c r="G81" s="1">
-        <v>17257</v>
+        <v>35773</v>
       </c>
       <c r="H81" s="1">
-        <v>9270</v>
+        <v>22009</v>
       </c>
       <c r="I81" s="5">
-        <v>7494</v>
+        <v>-6249</v>
       </c>
       <c r="J81" s="1">
-        <v>457910</v>
+        <v>719537</v>
       </c>
       <c r="K81" s="10">
-        <v>50.623219738860811</v>
+        <v>49.7</v>
       </c>
       <c r="L81" s="10">
-        <v>27.19344306537867</v>
+        <v>30.6</v>
       </c>
       <c r="M81" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="N81" t="s">
-        <v>0</v>
-      </c>
-      <c r="O81" t="s">
-        <v>0</v>
-      </c>
-      <c r="P81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R81" t="s">
-        <v>0</v>
-      </c>
-      <c r="S81" t="s">
-        <v>0</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N81" s="1">
+        <v>605003</v>
+      </c>
+      <c r="O81">
+        <v>59.1</v>
+      </c>
+      <c r="P81">
+        <v>36.4</v>
+      </c>
+      <c r="Q81">
+        <v>22.8</v>
+      </c>
+      <c r="R81" s="1">
+        <v>35773</v>
+      </c>
+      <c r="S81" s="1">
+        <v>22009</v>
       </c>
       <c r="T81" t="s">
-        <v>0</v>
-      </c>
-      <c r="U81" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U81">
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -5665,64 +5696,64 @@
         <v>1912</v>
       </c>
       <c r="B82" s="1">
-        <v>572000</v>
+        <v>680100</v>
       </c>
       <c r="C82" s="1">
-        <v>545397</v>
+        <v>749143</v>
       </c>
       <c r="D82" s="3">
-        <v>35.9</v>
+        <v>55.7</v>
       </c>
       <c r="E82" s="3">
-        <v>18.100000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="F82" s="3">
-        <v>17.8</v>
+        <v>29.3</v>
       </c>
       <c r="G82" s="1">
-        <v>19607</v>
+        <v>41760</v>
       </c>
       <c r="H82" s="1">
-        <v>9897</v>
+        <v>19811</v>
       </c>
       <c r="I82" s="5">
-        <v>9981</v>
+        <v>840</v>
       </c>
       <c r="J82" s="1">
-        <v>473391</v>
+        <v>727052</v>
       </c>
       <c r="K82" s="10">
-        <v>54.950352145241347</v>
+        <v>57.4</v>
       </c>
       <c r="L82" s="10">
-        <v>27.737218094632201</v>
+        <v>27.2</v>
       </c>
       <c r="M82" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="N82" t="s">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>0</v>
-      </c>
-      <c r="P82" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>0</v>
-      </c>
-      <c r="R82" t="s">
-        <v>0</v>
-      </c>
-      <c r="S82" t="s">
-        <v>0</v>
+        <v>30.2</v>
+      </c>
+      <c r="N82" s="1">
+        <v>612518</v>
+      </c>
+      <c r="O82">
+        <v>68.2</v>
+      </c>
+      <c r="P82">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Q82">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R82" s="1">
+        <v>41760</v>
+      </c>
+      <c r="S82" s="1">
+        <v>19811</v>
       </c>
       <c r="T82" t="s">
-        <v>0</v>
-      </c>
-      <c r="U82" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U82">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -5730,64 +5761,64 @@
         <v>1913</v>
       </c>
       <c r="B83" s="1">
-        <v>604000</v>
+        <v>689500</v>
       </c>
       <c r="C83" s="1">
-        <v>584572</v>
+        <v>798737</v>
       </c>
       <c r="D83" s="3">
-        <v>36.299999999999997</v>
+        <v>49.6</v>
       </c>
       <c r="E83" s="3">
-        <v>16.399999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="F83" s="3">
-        <v>19.899999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="G83" s="1">
-        <v>21214</v>
+        <v>39620</v>
       </c>
       <c r="H83" s="1">
-        <v>9601</v>
+        <v>23407</v>
       </c>
       <c r="I83" s="5">
-        <v>8464</v>
+        <v>16828</v>
       </c>
       <c r="J83" s="1">
-        <v>493082</v>
+        <v>749841</v>
       </c>
       <c r="K83" s="10">
-        <v>56.309839490148299</v>
+        <v>52.8</v>
       </c>
       <c r="L83" s="10">
-        <v>25.48462189803497</v>
+        <v>31.2</v>
       </c>
       <c r="M83" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="N83" t="s">
-        <v>0</v>
-      </c>
-      <c r="O83" t="s">
-        <v>0</v>
-      </c>
-      <c r="P83" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>0</v>
-      </c>
-      <c r="R83" t="s">
-        <v>0</v>
-      </c>
-      <c r="S83" t="s">
-        <v>0</v>
+        <v>21.6</v>
+      </c>
+      <c r="N83" s="1">
+        <v>635307</v>
+      </c>
+      <c r="O83">
+        <v>62.4</v>
+      </c>
+      <c r="P83">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Q83">
+        <v>25.5</v>
+      </c>
+      <c r="R83" s="1">
+        <v>39620</v>
+      </c>
+      <c r="S83" s="1">
+        <v>23407</v>
       </c>
       <c r="T83" t="s">
-        <v>0</v>
-      </c>
-      <c r="U83" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U83">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -5795,40 +5826,64 @@
         <v>1914</v>
       </c>
       <c r="B84" s="1">
-        <v>606600</v>
+        <v>697700</v>
       </c>
       <c r="C84" s="1">
-        <v>619185</v>
+        <v>823885</v>
       </c>
       <c r="D84" s="3">
-        <v>32.700000000000003</v>
+        <v>49.1</v>
       </c>
       <c r="E84" s="3">
-        <v>14.1</v>
+        <v>30.2</v>
       </c>
       <c r="F84" s="3">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="G84" s="1">
-        <v>20264</v>
+        <v>40446</v>
       </c>
       <c r="H84" s="1">
-        <v>8707</v>
+        <v>24917</v>
       </c>
       <c r="I84" s="5">
-        <v>11102</v>
+        <v>23481</v>
       </c>
       <c r="J84" s="1">
-        <v>513159</v>
+        <v>782882</v>
       </c>
       <c r="K84" s="10">
-        <v>51.054652463543192</v>
+        <v>51.7</v>
       </c>
       <c r="L84" s="10">
-        <v>21.937073578763844</v>
+        <v>31.8</v>
       </c>
       <c r="M84" s="4">
-        <v>22.5</v>
+        <v>19.8</v>
+      </c>
+      <c r="N84" s="1">
+        <v>668348</v>
+      </c>
+      <c r="O84">
+        <v>60.5</v>
+      </c>
+      <c r="P84">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="Q84">
+        <v>23.2</v>
+      </c>
+      <c r="R84" s="1">
+        <v>40446</v>
+      </c>
+      <c r="S84" s="1">
+        <v>24917</v>
+      </c>
+      <c r="T84" t="s">
+        <v>10</v>
+      </c>
+      <c r="U84">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB72CC0-EC45-4719-80B5-453F719927BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B8AF7-50E5-4ACC-B1FB-347FA679702C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1725" windowWidth="32910" windowHeight="19110" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
+    <workbookView xWindow="705" yWindow="1380" windowWidth="32910" windowHeight="19110" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
   <sheets>
     <sheet name="charts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t> </t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>Акмол</t>
-  </si>
-  <si>
-    <t>Тург</t>
   </si>
 </sst>
 </file>
@@ -289,61 +283,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>27.9</c:v>
+                  <c:v>37.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>34.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.4</c:v>
+                  <c:v>34.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.6</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.9</c:v>
+                  <c:v>32.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.8</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>43.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>38.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.3</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.4</c:v>
+                  <c:v>42.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.6</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.3</c:v>
+                  <c:v>48.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,61 +460,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>23.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.2</c:v>
+                  <c:v>24.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.100000000000001</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.3</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.5</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.8</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.7</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.9</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.7</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.7</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.4</c:v>
+                  <c:v>19.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.5</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.8</c:v>
+                  <c:v>28.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.9</c:v>
+                  <c:v>25.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.3</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>25.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.3</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,64 +843,64 @@
             <c:numRef>
               <c:f>charts!$K$66:$K$84</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>23.8</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.4</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.8</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.4</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.299999999999997</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.5</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.799999999999997</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.299999999999997</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.5</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.9</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.7</c:v>
+                  <c:v>42.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.6</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.6</c:v>
+                  <c:v>41.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.7</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.4</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.8</c:v>
+                  <c:v>40.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.7</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,64 +1020,64 @@
             <c:numRef>
               <c:f>charts!$L$66:$L$84</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.100000000000001</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.7</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.7</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.4</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.2</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.3</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.1</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.7</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.4</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.3</c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.6</c:v>
+                  <c:v>24.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.2</c:v>
+                  <c:v>25.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.2</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.8</c:v>
+                  <c:v>25.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66:L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,64 +2808,61 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>556302</v>
+        <v>609748</v>
       </c>
       <c r="D2" s="3">
-        <v>31.9</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E2" s="3">
-        <v>22.1</v>
+        <v>25.7</v>
       </c>
       <c r="F2" s="3">
-        <v>9.8000000000000007</v>
+        <v>14.5</v>
       </c>
       <c r="G2" s="1">
-        <v>17737</v>
+        <v>24547</v>
       </c>
       <c r="H2" s="1">
-        <v>12303</v>
+        <v>15681</v>
       </c>
       <c r="I2" s="5">
-        <v>40610</v>
+        <v>-16</v>
       </c>
       <c r="J2" s="1">
-        <v>634968</v>
+        <v>662512</v>
       </c>
       <c r="K2" s="10">
-        <v>27.9</v>
+        <v>37.1</v>
       </c>
       <c r="L2" s="10">
-        <v>19.399999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="M2" s="4">
-        <v>8.6</v>
+        <v>13.4</v>
       </c>
       <c r="N2" s="1">
-        <v>668258</v>
+        <v>660611</v>
       </c>
       <c r="O2" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P2" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q2" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R2" s="1">
-        <v>45068</v>
+        <v>27836</v>
       </c>
       <c r="S2" s="1">
-        <v>26589</v>
+        <v>17136</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="9"/>
@@ -2895,61 +2886,61 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>653185</v>
+        <v>639721</v>
       </c>
       <c r="D3" s="3">
-        <v>36.200000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E3" s="3">
-        <v>23.1</v>
+        <v>26.1</v>
       </c>
       <c r="F3" s="3">
-        <v>13</v>
+        <v>14.2</v>
       </c>
       <c r="G3" s="1">
-        <v>23640</v>
+        <v>25798</v>
       </c>
       <c r="H3" s="1">
-        <v>15117</v>
+        <v>16693</v>
       </c>
       <c r="I3" s="5">
-        <v>13046</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1">
-        <v>681012</v>
+        <v>671362</v>
       </c>
       <c r="K3" s="10">
-        <v>34.700000000000003</v>
+        <v>38.4</v>
       </c>
       <c r="L3" s="10">
-        <v>22.2</v>
+        <v>24.9</v>
       </c>
       <c r="M3" s="4">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="N3" s="1">
-        <v>680703</v>
+        <v>671236</v>
       </c>
       <c r="O3" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P3" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q3" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R3" s="1">
-        <v>45907</v>
+        <v>28284</v>
       </c>
       <c r="S3" s="1">
-        <v>27085</v>
+        <v>17412</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="9"/>
@@ -2973,61 +2964,61 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>688306</v>
+        <v>654055</v>
       </c>
       <c r="D4" s="3">
-        <v>31.3</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3">
-        <v>19.5</v>
+        <v>24.9</v>
       </c>
       <c r="F4" s="3">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
       <c r="G4" s="1">
-        <v>21547</v>
+        <v>24834</v>
       </c>
       <c r="H4" s="1">
-        <v>13440</v>
+        <v>16281</v>
       </c>
       <c r="I4" s="5">
-        <v>18758</v>
+        <v>172</v>
       </c>
       <c r="J4" s="1">
-        <v>702581</v>
+        <v>680483</v>
       </c>
       <c r="K4" s="10">
-        <v>30.7</v>
+        <v>36.5</v>
       </c>
       <c r="L4" s="10">
-        <v>19.100000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="M4" s="4">
-        <v>11.5</v>
+        <v>12.6</v>
       </c>
       <c r="N4" s="1">
-        <v>693380</v>
+        <v>682031</v>
       </c>
       <c r="O4" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P4" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q4" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R4" s="1">
-        <v>46762</v>
+        <v>28739</v>
       </c>
       <c r="S4" s="1">
-        <v>27589</v>
+        <v>17692</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="9"/>
@@ -3051,61 +3042,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>763626</v>
+        <v>669671</v>
       </c>
       <c r="D5" s="3">
-        <v>38.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3">
-        <v>25.1</v>
+        <v>26.2</v>
       </c>
       <c r="F5" s="3">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="G5" s="1">
-        <v>29244</v>
+        <v>25463</v>
       </c>
       <c r="H5" s="1">
-        <v>19180</v>
+        <v>17543</v>
       </c>
       <c r="I5" s="5">
-        <v>23115</v>
+        <v>69</v>
       </c>
       <c r="J5" s="1">
-        <v>729446</v>
+        <v>689208</v>
       </c>
       <c r="K5" s="10">
-        <v>40.1</v>
+        <v>36.9</v>
       </c>
       <c r="L5" s="10">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="M5" s="4">
-        <v>13.8</v>
+        <v>11.5</v>
       </c>
       <c r="N5" s="1">
-        <v>706293</v>
+        <v>693000</v>
       </c>
       <c r="O5" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P5" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q5" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R5" s="1">
-        <v>47633</v>
+        <v>29201</v>
       </c>
       <c r="S5" s="1">
-        <v>28103</v>
+        <v>17976</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U5" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="9"/>
@@ -3129,61 +3120,61 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>734729</v>
+        <v>674890</v>
       </c>
       <c r="D6" s="3">
-        <v>41.9</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E6" s="3">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="F6" s="3">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="G6" s="1">
-        <v>30772</v>
+        <v>27231</v>
       </c>
       <c r="H6" s="1">
-        <v>20992</v>
+        <v>16688</v>
       </c>
       <c r="I6" s="5">
-        <v>18766</v>
+        <v>173</v>
       </c>
       <c r="J6" s="1">
-        <v>762625</v>
+        <v>697197</v>
       </c>
       <c r="K6" s="10">
-        <v>40.4</v>
+        <v>39.1</v>
       </c>
       <c r="L6" s="10">
-        <v>27.5</v>
+        <v>23.9</v>
       </c>
       <c r="M6" s="4">
-        <v>12.8</v>
+        <v>15.1</v>
       </c>
       <c r="N6" s="1">
-        <v>719446</v>
+        <v>704145</v>
       </c>
       <c r="O6" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P6" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R6" s="1">
-        <v>48520</v>
+        <v>29671</v>
       </c>
       <c r="S6" s="1">
-        <v>28626</v>
+        <v>18266</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="9"/>
@@ -3207,61 +3198,61 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>766126</v>
+        <v>694545</v>
       </c>
       <c r="D7" s="3">
-        <v>39.200000000000003</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E7" s="3">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="F7" s="3">
-        <v>16.7</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>30063</v>
+        <v>26589</v>
       </c>
       <c r="H7" s="1">
-        <v>17235</v>
+        <v>16144</v>
       </c>
       <c r="I7" s="5">
-        <v>4901</v>
+        <v>846</v>
       </c>
       <c r="J7" s="1">
-        <v>791171</v>
+        <v>707913</v>
       </c>
       <c r="K7" s="10">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="L7" s="10">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="M7" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="N7" s="1">
+        <v>715470</v>
+      </c>
+      <c r="O7" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="Q7" s="3">
         <v>16.2</v>
       </c>
-      <c r="N7" s="1">
-        <v>732844</v>
-      </c>
-      <c r="O7" s="3">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="P7" s="3">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>27.7</v>
-      </c>
       <c r="R7" s="1">
-        <v>49424</v>
+        <v>30148</v>
       </c>
       <c r="S7" s="1">
-        <v>29159</v>
+        <v>18559</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="9"/>
@@ -3285,61 +3276,61 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>800936</v>
+        <v>710165</v>
       </c>
       <c r="D8" s="3">
-        <v>37.4</v>
+        <v>35.1</v>
       </c>
       <c r="E8" s="3">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="F8" s="3">
-        <v>17.5</v>
+        <v>14.3</v>
       </c>
       <c r="G8" s="1">
-        <v>29952</v>
+        <v>24959</v>
       </c>
       <c r="H8" s="1">
-        <v>15897</v>
+        <v>14802</v>
       </c>
       <c r="I8" s="5">
-        <v>5346</v>
+        <v>-111</v>
       </c>
       <c r="J8" s="1">
-        <v>808900</v>
+        <v>719204</v>
       </c>
       <c r="K8" s="10">
-        <v>37</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L8" s="10">
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="M8" s="4">
-        <v>17.399999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="N8" s="1">
-        <v>746492</v>
+        <v>726977</v>
       </c>
       <c r="O8" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P8" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q8" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R8" s="1">
-        <v>50344</v>
+        <v>30633</v>
       </c>
       <c r="S8" s="1">
-        <v>29702</v>
+        <v>18858</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="9"/>
@@ -3363,61 +3354,61 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>929531</v>
+        <v>720304</v>
       </c>
       <c r="D9" s="3">
-        <v>32.5</v>
+        <v>35.1</v>
       </c>
       <c r="E9" s="3">
-        <v>17.5</v>
+        <v>23.3</v>
       </c>
       <c r="F9" s="3">
-        <v>15</v>
+        <v>11.8</v>
       </c>
       <c r="G9" s="1">
-        <v>30188</v>
+        <v>25288</v>
       </c>
       <c r="H9" s="1">
-        <v>16229</v>
+        <v>16776</v>
       </c>
       <c r="I9" s="5">
-        <v>6315</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1">
-        <v>828421</v>
+        <v>729250</v>
       </c>
       <c r="K9" s="10">
-        <v>36.4</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L9" s="10">
-        <v>19.600000000000001</v>
+        <v>23</v>
       </c>
       <c r="M9" s="4">
-        <v>16.899999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="N9" s="1">
-        <v>760394</v>
+        <v>738669</v>
       </c>
       <c r="O9" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P9" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R9" s="1">
-        <v>51282</v>
+        <v>31125</v>
       </c>
       <c r="S9" s="1">
-        <v>30256</v>
+        <v>19161</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="9"/>
@@ -3438,64 +3429,64 @@
         <v>1904</v>
       </c>
       <c r="B10" s="1">
-        <v>763400</v>
+        <v>727500</v>
       </c>
       <c r="C10" s="1">
-        <v>832517</v>
+        <v>670102</v>
       </c>
       <c r="D10" s="3">
-        <v>40.4</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E10" s="3">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="F10" s="3">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="G10" s="1">
-        <v>33619</v>
+        <v>26906</v>
       </c>
       <c r="H10" s="1">
-        <v>23669</v>
+        <v>19305</v>
       </c>
       <c r="I10" s="5">
-        <v>4077</v>
+        <v>-116</v>
       </c>
       <c r="J10" s="1">
-        <v>848723</v>
+        <v>737880</v>
       </c>
       <c r="K10" s="10">
-        <v>39.6</v>
+        <v>36.5</v>
       </c>
       <c r="L10" s="10">
-        <v>27.9</v>
+        <v>26.2</v>
       </c>
       <c r="M10" s="4">
-        <v>11.7</v>
+        <v>10.3</v>
       </c>
       <c r="N10" s="1">
-        <v>774555</v>
+        <v>750549</v>
       </c>
       <c r="O10" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P10" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q10" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R10" s="1">
-        <v>52237</v>
+        <v>31626</v>
       </c>
       <c r="S10" s="1">
-        <v>30819</v>
+        <v>19469</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="9"/>
@@ -3516,64 +3507,64 @@
         <v>1905</v>
       </c>
       <c r="B11" s="1">
-        <v>778200</v>
+        <v>734500</v>
       </c>
       <c r="C11" s="1">
-        <v>892484</v>
+        <v>824266</v>
       </c>
       <c r="D11" s="3">
-        <v>34.700000000000003</v>
+        <v>29.8</v>
       </c>
       <c r="E11" s="3">
-        <v>21.9</v>
+        <v>25.5</v>
       </c>
       <c r="F11" s="3">
-        <v>12.8</v>
+        <v>4.3</v>
       </c>
       <c r="G11" s="1">
-        <v>30962</v>
+        <v>24558</v>
       </c>
       <c r="H11" s="1">
-        <v>19566</v>
+        <v>21041</v>
       </c>
       <c r="I11" s="5">
-        <v>10182</v>
+        <v>-93</v>
       </c>
       <c r="J11" s="1">
-        <v>862801</v>
+        <v>745365</v>
       </c>
       <c r="K11" s="10">
-        <v>35.9</v>
+        <v>32.9</v>
       </c>
       <c r="L11" s="10">
-        <v>22.7</v>
+        <v>28.2</v>
       </c>
       <c r="M11" s="4">
-        <v>13.2</v>
+        <v>4.7</v>
       </c>
       <c r="N11" s="1">
-        <v>788980</v>
+        <v>762620</v>
       </c>
       <c r="O11" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P11" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q11" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R11" s="1">
-        <v>53209</v>
+        <v>32135</v>
       </c>
       <c r="S11" s="1">
-        <v>31393</v>
+        <v>19782</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="9"/>
@@ -3594,64 +3585,64 @@
         <v>1906</v>
       </c>
       <c r="B12" s="1">
-        <v>787800</v>
+        <v>742200</v>
       </c>
       <c r="C12" s="1">
-        <v>934612</v>
+        <v>764458</v>
       </c>
       <c r="D12" s="3">
-        <v>43.3</v>
+        <v>30.8</v>
       </c>
       <c r="E12" s="3">
-        <v>26.2</v>
+        <v>21.7</v>
       </c>
       <c r="F12" s="3">
-        <v>17.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G12" s="1">
-        <v>40476</v>
+        <v>23555</v>
       </c>
       <c r="H12" s="1">
-        <v>24528</v>
+        <v>16563</v>
       </c>
       <c r="I12" s="5">
-        <v>54222</v>
+        <v>1878</v>
       </c>
       <c r="J12" s="1">
-        <v>884380</v>
+        <v>748789</v>
       </c>
       <c r="K12" s="10">
-        <v>45.8</v>
+        <v>31.5</v>
       </c>
       <c r="L12" s="10">
-        <v>27.7</v>
+        <v>22.1</v>
       </c>
       <c r="M12" s="4">
-        <v>18</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N12" s="1">
-        <v>803673</v>
+        <v>774885</v>
       </c>
       <c r="O12" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P12" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R12" s="1">
-        <v>54200</v>
+        <v>32652</v>
       </c>
       <c r="S12" s="1">
-        <v>31978</v>
+        <v>20101</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="9"/>
@@ -3672,64 +3663,64 @@
         <v>1907</v>
       </c>
       <c r="B13" s="1">
-        <v>797700</v>
+        <v>741900</v>
       </c>
       <c r="C13" s="1">
-        <v>956393</v>
+        <v>827253</v>
       </c>
       <c r="D13" s="3">
-        <v>43.2</v>
+        <v>30.6</v>
       </c>
       <c r="E13" s="3">
-        <v>26.4</v>
+        <v>18.2</v>
       </c>
       <c r="F13" s="3">
-        <v>16.899999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="G13" s="1">
-        <v>41321</v>
+        <v>25302</v>
       </c>
       <c r="H13" s="1">
-        <v>25202</v>
+        <v>15046</v>
       </c>
       <c r="I13" s="5">
-        <v>64087</v>
+        <v>1856</v>
       </c>
       <c r="J13" s="1">
-        <v>954550</v>
+        <v>757659</v>
       </c>
       <c r="K13" s="10">
-        <v>43.3</v>
+        <v>33.4</v>
       </c>
       <c r="L13" s="10">
-        <v>26.4</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M13" s="4">
-        <v>16.899999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="N13" s="1">
-        <v>818640</v>
+        <v>787347</v>
       </c>
       <c r="O13" s="3">
-        <v>67.400000000000006</v>
+        <v>42.1</v>
       </c>
       <c r="P13" s="3">
-        <v>39.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="Q13" s="3">
-        <v>27.7</v>
+        <v>16.2</v>
       </c>
       <c r="R13" s="1">
-        <v>55210</v>
+        <v>33177</v>
       </c>
       <c r="S13" s="1">
-        <v>32573</v>
+        <v>20424</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="9"/>
@@ -3750,64 +3741,64 @@
         <v>1908</v>
       </c>
       <c r="B14" s="1">
-        <v>809700</v>
+        <v>745600</v>
       </c>
       <c r="C14" s="1">
-        <v>988005</v>
+        <v>862841</v>
       </c>
       <c r="D14" s="3">
+        <v>39.6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>34136</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21216</v>
+      </c>
+      <c r="I14" s="5">
+        <v>272</v>
+      </c>
+      <c r="J14" s="1">
+        <v>769771</v>
+      </c>
+      <c r="K14" s="10">
+        <v>44.3</v>
+      </c>
+      <c r="L14" s="10">
+        <v>27.6</v>
+      </c>
+      <c r="M14" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="N14" s="1">
+        <v>800010</v>
+      </c>
+      <c r="O14" s="3">
         <v>42.7</v>
       </c>
-      <c r="E14" s="3">
-        <v>25.6</v>
-      </c>
-      <c r="F14" s="3">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1">
-        <v>42168</v>
-      </c>
-      <c r="H14" s="1">
-        <v>25334</v>
-      </c>
-      <c r="I14" s="5">
-        <v>122489</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1034756</v>
-      </c>
-      <c r="K14" s="10">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="L14" s="10">
-        <v>24.5</v>
-      </c>
-      <c r="M14" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="N14" s="1">
-        <v>833886</v>
-      </c>
-      <c r="O14" s="3">
-        <v>67.400000000000006</v>
-      </c>
       <c r="P14" s="3">
-        <v>39.799999999999997</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" s="3">
-        <v>27.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>56238</v>
+        <v>34136</v>
       </c>
       <c r="S14" s="1">
-        <v>33180</v>
+        <v>21216</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U14" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="9"/>
@@ -3828,64 +3819,64 @@
         <v>1909</v>
       </c>
       <c r="B15" s="1">
-        <v>979200</v>
+        <v>806500</v>
       </c>
       <c r="C15" s="1">
-        <v>1121002</v>
+        <v>843151</v>
       </c>
       <c r="D15" s="3">
-        <v>40.799999999999997</v>
+        <v>41.7</v>
       </c>
       <c r="E15" s="3">
-        <v>23.3</v>
+        <v>26.2</v>
       </c>
       <c r="F15" s="3">
-        <v>17.399999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="G15" s="1">
-        <v>45683</v>
+        <v>35127</v>
       </c>
       <c r="H15" s="1">
-        <v>26172</v>
+        <v>22093</v>
       </c>
       <c r="I15" s="5">
-        <v>84450</v>
+        <v>620</v>
       </c>
       <c r="J15" s="1">
-        <v>1174079</v>
+        <v>782963</v>
       </c>
       <c r="K15" s="10">
-        <v>38.9</v>
+        <v>44.9</v>
       </c>
       <c r="L15" s="10">
-        <v>22.3</v>
+        <v>28.2</v>
       </c>
       <c r="M15" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>849415</v>
+        <v>813202</v>
       </c>
       <c r="O15" s="3">
-        <v>67.400000000000006</v>
+        <v>43.2</v>
       </c>
       <c r="P15" s="3">
-        <v>39.799999999999997</v>
+        <v>27.2</v>
       </c>
       <c r="Q15" s="3">
-        <v>27.7</v>
+        <v>16</v>
       </c>
       <c r="R15" s="1">
-        <v>57285</v>
+        <v>35127</v>
       </c>
       <c r="S15" s="1">
-        <v>33798</v>
+        <v>22093</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U15" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="9"/>
@@ -3906,58 +3897,58 @@
         <v>1910</v>
       </c>
       <c r="B16" s="1">
-        <v>1047300</v>
+        <v>833400</v>
       </c>
       <c r="C16" s="1">
-        <v>1217834</v>
+        <v>860345</v>
       </c>
       <c r="D16" s="3">
-        <v>51.4</v>
+        <v>40.1</v>
       </c>
       <c r="E16" s="3">
-        <v>32.299999999999997</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3">
-        <v>19</v>
+        <v>14.1</v>
       </c>
       <c r="G16" s="1">
-        <v>62588</v>
+        <v>34475</v>
       </c>
       <c r="H16" s="1">
-        <v>39390</v>
+        <v>22352</v>
       </c>
       <c r="I16" s="5">
-        <v>29216</v>
+        <v>1050</v>
       </c>
       <c r="J16" s="1">
-        <v>1278040</v>
+        <v>796617</v>
       </c>
       <c r="K16" s="10">
-        <v>49</v>
+        <v>43.3</v>
       </c>
       <c r="L16" s="10">
-        <v>30.8</v>
+        <v>28.1</v>
       </c>
       <c r="M16" s="4">
-        <v>18.2</v>
+        <v>15.2</v>
       </c>
       <c r="N16" s="1">
-        <v>865234</v>
+        <v>826856</v>
       </c>
       <c r="O16" s="3">
-        <v>72.3</v>
+        <v>41.7</v>
       </c>
       <c r="P16" s="3">
-        <v>45.5</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="3">
-        <v>26.8</v>
+        <v>14.7</v>
       </c>
       <c r="R16" s="1">
-        <v>62588</v>
+        <v>34475</v>
       </c>
       <c r="S16" s="1">
-        <v>39390</v>
+        <v>22352</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>10</v>
@@ -3984,58 +3975,58 @@
         <v>1911</v>
       </c>
       <c r="B17" s="1">
-        <v>1064000</v>
+        <v>853400</v>
       </c>
       <c r="C17" s="1">
-        <v>1443721</v>
+        <v>890602</v>
       </c>
       <c r="D17" s="3">
-        <v>43.6</v>
+        <v>41.4</v>
       </c>
       <c r="E17" s="3">
-        <v>25.7</v>
+        <v>23.5</v>
       </c>
       <c r="F17" s="3">
         <v>17.899999999999999</v>
       </c>
       <c r="G17" s="1">
-        <v>62978</v>
+        <v>36827</v>
       </c>
       <c r="H17" s="1">
-        <v>37073</v>
+        <v>20896</v>
       </c>
       <c r="I17" s="5">
-        <v>2661</v>
+        <v>1745</v>
       </c>
       <c r="J17" s="1">
-        <v>1330454</v>
+        <v>809790</v>
       </c>
       <c r="K17" s="10">
-        <v>47.3</v>
+        <v>45.5</v>
       </c>
       <c r="L17" s="10">
-        <v>27.9</v>
+        <v>25.8</v>
       </c>
       <c r="M17" s="4">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="N17" s="1">
-        <v>917648</v>
+        <v>840029</v>
       </c>
       <c r="O17" s="3">
-        <v>68.599999999999994</v>
+        <v>43.8</v>
       </c>
       <c r="P17" s="3">
-        <v>40.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q17" s="3">
-        <v>28.2</v>
+        <v>19</v>
       </c>
       <c r="R17" s="1">
-        <v>62978</v>
+        <v>36827</v>
       </c>
       <c r="S17" s="1">
-        <v>37073</v>
+        <v>20896</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>10</v>
@@ -4062,58 +4053,58 @@
         <v>1912</v>
       </c>
       <c r="B18" s="1">
-        <v>1454100</v>
+        <v>893200</v>
       </c>
       <c r="C18" s="1">
-        <v>1469401</v>
+        <v>888643</v>
       </c>
       <c r="D18" s="3">
-        <v>42.9</v>
+        <v>39.4</v>
       </c>
       <c r="E18" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>34993</v>
+      </c>
+      <c r="H18" s="1">
+        <v>21678</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3331</v>
+      </c>
+      <c r="J18" s="1">
+        <v>827540</v>
+      </c>
+      <c r="K18" s="10">
+        <v>42.3</v>
+      </c>
+      <c r="L18" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>857705</v>
+      </c>
+      <c r="O18" s="3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="P18" s="3">
         <v>25.3</v>
       </c>
-      <c r="F18" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="G18" s="1">
-        <v>63078</v>
-      </c>
-      <c r="H18" s="1">
-        <v>37135</v>
-      </c>
-      <c r="I18" s="5">
-        <v>6623</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1359020</v>
-      </c>
-      <c r="K18" s="10">
-        <v>46.4</v>
-      </c>
-      <c r="L18" s="10">
-        <v>27.3</v>
-      </c>
-      <c r="M18" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="N18" s="1">
-        <v>946214</v>
-      </c>
-      <c r="O18" s="3">
-        <v>66.7</v>
-      </c>
-      <c r="P18" s="3">
-        <v>39.200000000000003</v>
-      </c>
       <c r="Q18" s="3">
-        <v>27.4</v>
+        <v>15.5</v>
       </c>
       <c r="R18" s="1">
-        <v>63078</v>
+        <v>34993</v>
       </c>
       <c r="S18" s="1">
-        <v>37135</v>
+        <v>21678</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>10</v>
@@ -4140,58 +4131,58 @@
         <v>1913</v>
       </c>
       <c r="B19" s="1">
-        <v>1491900</v>
+        <v>920500</v>
       </c>
       <c r="C19" s="1">
-        <v>1495669</v>
+        <v>898353</v>
       </c>
       <c r="D19" s="3">
-        <v>42.4</v>
+        <v>39.5</v>
       </c>
       <c r="E19" s="3">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="F19" s="3">
-        <v>17.3</v>
+        <v>15.4</v>
       </c>
       <c r="G19" s="1">
-        <v>63466</v>
+        <v>35521</v>
       </c>
       <c r="H19" s="1">
-        <v>37538</v>
+        <v>21658</v>
       </c>
       <c r="I19" s="5">
-        <v>29020</v>
+        <v>3220</v>
       </c>
       <c r="J19" s="1">
-        <v>1391586</v>
+        <v>844186</v>
       </c>
       <c r="K19" s="10">
-        <v>45.6</v>
+        <v>42.1</v>
       </c>
       <c r="L19" s="10">
-        <v>27</v>
+        <v>25.7</v>
       </c>
       <c r="M19" s="4">
-        <v>18.600000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>978780</v>
+        <v>874351</v>
       </c>
       <c r="O19" s="3">
-        <v>64.8</v>
+        <v>40.6</v>
       </c>
       <c r="P19" s="3">
-        <v>38.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q19" s="3">
-        <v>26.5</v>
+        <v>15.9</v>
       </c>
       <c r="R19" s="1">
-        <v>63466</v>
+        <v>35521</v>
       </c>
       <c r="S19" s="1">
-        <v>37538</v>
+        <v>21658</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>10</v>
@@ -4218,64 +4209,64 @@
         <v>1914</v>
       </c>
       <c r="B20" s="1">
-        <v>1523700</v>
+        <v>945700</v>
       </c>
       <c r="C20" s="1">
-        <v>1525543</v>
+        <v>926757</v>
       </c>
       <c r="D20" s="3">
-        <v>43.9</v>
+        <v>45.4</v>
       </c>
       <c r="E20" s="3">
-        <v>24</v>
+        <v>26.8</v>
       </c>
       <c r="F20" s="3">
-        <v>19.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G20" s="1">
-        <v>66915</v>
+        <v>42076</v>
       </c>
       <c r="H20" s="1">
-        <v>36618</v>
+        <v>24836</v>
       </c>
       <c r="I20" s="5">
-        <v>38707</v>
+        <v>1924</v>
       </c>
       <c r="J20" s="1">
-        <v>1446534</v>
+        <v>861365</v>
       </c>
       <c r="K20" s="10">
-        <v>46.3</v>
+        <v>48.8</v>
       </c>
       <c r="L20" s="10">
-        <v>25.3</v>
+        <v>28.8</v>
       </c>
       <c r="M20" s="4">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="N20" s="1">
-        <v>1033728</v>
+        <v>891434</v>
       </c>
       <c r="O20" s="3">
-        <v>64.7</v>
+        <v>42.1</v>
       </c>
       <c r="P20" s="3">
-        <v>35.4</v>
+        <v>25.9</v>
       </c>
       <c r="Q20" s="3">
-        <v>29.3</v>
+        <v>16.2</v>
       </c>
       <c r="R20" s="1">
-        <v>66915</v>
+        <v>37563</v>
       </c>
       <c r="S20" s="1">
-        <v>36618</v>
+        <v>23124</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="V20" t="s">
         <v>7</v>
@@ -4305,28 +4296,28 @@
       <c r="C21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(G2:G20)</f>
-        <v>766397</v>
+        <v>558185</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(H2:H20)</f>
-        <v>462618</v>
+        <v>357292</v>
       </c>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>576591</v>
+        <v>16954</v>
       </c>
       <c r="J21" s="1"/>
       <c r="V21" s="1">
         <f>G21-H21</f>
-        <v>303779</v>
+        <v>200893</v>
       </c>
       <c r="W21" s="1">
         <f>V21+I21</f>
-        <v>880370</v>
+        <v>217847</v>
       </c>
       <c r="Y21">
         <f>I21/W21</f>
-        <v>0.65494167225143973</v>
+        <v>7.7825262684361046E-2</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
@@ -4637,7 +4628,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>1896</v>
       </c>
@@ -4679,11 +4670,11 @@
       <c r="J66" s="1">
         <v>447935</v>
       </c>
-      <c r="K66" s="10">
-        <v>23.8</v>
-      </c>
-      <c r="L66" s="10">
-        <v>12.5</v>
+      <c r="K66" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>25.9</v>
       </c>
       <c r="M66" s="4">
         <v>11.4</v>
@@ -4712,11 +4703,8 @@
       <c r="U66">
         <v>39</v>
       </c>
-      <c r="W66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>1897</v>
       </c>
@@ -4747,11 +4735,11 @@
       <c r="J67" s="1">
         <v>453076</v>
       </c>
-      <c r="K67" s="10">
-        <v>23.4</v>
-      </c>
-      <c r="L67" s="10">
-        <v>14</v>
+      <c r="K67" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L67" s="3">
+        <v>25.9</v>
       </c>
       <c r="M67" s="4">
         <v>9.5</v>
@@ -4781,7 +4769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>1898</v>
       </c>
@@ -4812,11 +4800,11 @@
       <c r="J68" s="1">
         <v>457678</v>
       </c>
-      <c r="K68" s="10">
-        <v>29.8</v>
-      </c>
-      <c r="L68" s="10">
-        <v>20.100000000000001</v>
+      <c r="K68" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L68" s="3">
+        <v>25.9</v>
       </c>
       <c r="M68" s="4">
         <v>9.8000000000000007</v>
@@ -4846,7 +4834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>1899</v>
       </c>
@@ -4877,11 +4865,11 @@
       <c r="J69" s="1">
         <v>463377</v>
       </c>
-      <c r="K69" s="10">
-        <v>32.4</v>
-      </c>
-      <c r="L69" s="10">
-        <v>19.7</v>
+      <c r="K69" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L69" s="3">
+        <v>25.9</v>
       </c>
       <c r="M69" s="4">
         <v>12.8</v>
@@ -4911,7 +4899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>1900</v>
       </c>
@@ -4942,11 +4930,11 @@
       <c r="J70" s="1">
         <v>472768</v>
       </c>
-      <c r="K70" s="10">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="L70" s="10">
-        <v>18.600000000000001</v>
+      <c r="K70" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L70" s="3">
+        <v>25.9</v>
       </c>
       <c r="M70" s="4">
         <v>13.7</v>
@@ -4976,7 +4964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>1901</v>
       </c>
@@ -5007,11 +4995,11 @@
       <c r="J71" s="1">
         <v>482382</v>
       </c>
-      <c r="K71" s="10">
-        <v>33.5</v>
-      </c>
-      <c r="L71" s="10">
-        <v>19.600000000000001</v>
+      <c r="K71" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L71" s="3">
+        <v>25.9</v>
       </c>
       <c r="M71" s="4">
         <v>13.9</v>
@@ -5041,7 +5029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>1902</v>
       </c>
@@ -5072,11 +5060,11 @@
       <c r="J72" s="1">
         <v>492129</v>
       </c>
-      <c r="K72" s="10">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="L72" s="10">
-        <v>23.7</v>
+      <c r="K72" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L72" s="3">
+        <v>25.9</v>
       </c>
       <c r="M72" s="4">
         <v>14.1</v>
@@ -5106,7 +5094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>1903</v>
       </c>
@@ -5137,11 +5125,11 @@
       <c r="J73" s="1">
         <v>505638</v>
       </c>
-      <c r="K73" s="10">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="L73" s="10">
-        <v>23.4</v>
+      <c r="K73" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L73" s="3">
+        <v>25.9</v>
       </c>
       <c r="M73" s="4">
         <v>16</v>
@@ -5171,7 +5159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>1904</v>
       </c>
@@ -5202,11 +5190,11 @@
       <c r="J74" s="1">
         <v>521686</v>
       </c>
-      <c r="K74" s="10">
-        <v>38.5</v>
-      </c>
-      <c r="L74" s="10">
-        <v>23.2</v>
+      <c r="K74" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L74" s="3">
+        <v>25.9</v>
       </c>
       <c r="M74" s="4">
         <v>15.3</v>
@@ -5236,7 +5224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>1905</v>
       </c>
@@ -5267,11 +5255,11 @@
       <c r="J75" s="1">
         <v>544789</v>
       </c>
-      <c r="K75" s="10">
-        <v>37.9</v>
-      </c>
-      <c r="L75" s="10">
-        <v>21.3</v>
+      <c r="K75" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L75" s="3">
+        <v>25.9</v>
       </c>
       <c r="M75" s="4">
         <v>16.5</v>
@@ -5301,7 +5289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>1906</v>
       </c>
@@ -5332,11 +5320,11 @@
       <c r="J76" s="1">
         <v>561378</v>
       </c>
-      <c r="K76" s="10">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="L76" s="10">
-        <v>22.1</v>
+      <c r="K76" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>25.9</v>
       </c>
       <c r="M76" s="4">
         <v>13.6</v>
@@ -5366,7 +5354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>1907</v>
       </c>
@@ -5397,11 +5385,11 @@
       <c r="J77" s="1">
         <v>583850</v>
       </c>
-      <c r="K77" s="10">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="L77" s="10">
-        <v>23.7</v>
+      <c r="K77" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L77" s="3">
+        <v>25.9</v>
       </c>
       <c r="M77" s="4">
         <v>15.1</v>
@@ -5431,7 +5419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>1908</v>
       </c>
@@ -5462,11 +5450,11 @@
       <c r="J78" s="1">
         <v>601634</v>
       </c>
-      <c r="K78" s="10">
-        <v>44.7</v>
-      </c>
-      <c r="L78" s="10">
-        <v>27.4</v>
+      <c r="K78" s="3">
+        <v>42.7</v>
+      </c>
+      <c r="L78" s="3">
+        <v>26.5</v>
       </c>
       <c r="M78" s="4">
         <v>17.3</v>
@@ -5496,7 +5484,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>1909</v>
       </c>
@@ -5527,11 +5515,11 @@
       <c r="J79" s="1">
         <v>646413</v>
       </c>
-      <c r="K79" s="10">
-        <v>43.6</v>
-      </c>
-      <c r="L79" s="10">
-        <v>27.3</v>
+      <c r="K79" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="L79" s="3">
+        <v>27.2</v>
       </c>
       <c r="M79" s="4">
         <v>16.3</v>
@@ -5561,7 +5549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>1910</v>
       </c>
@@ -5592,11 +5580,11 @@
       <c r="J80" s="1">
         <v>688934</v>
       </c>
-      <c r="K80" s="10">
-        <v>42.6</v>
-      </c>
-      <c r="L80" s="10">
-        <v>29.9</v>
+      <c r="K80" s="3">
+        <v>41.7</v>
+      </c>
+      <c r="L80" s="3">
+        <v>27</v>
       </c>
       <c r="M80" s="4">
         <v>12.8</v>
@@ -5657,11 +5645,11 @@
       <c r="J81" s="1">
         <v>719537</v>
       </c>
-      <c r="K81" s="10">
-        <v>49.7</v>
-      </c>
-      <c r="L81" s="10">
-        <v>30.6</v>
+      <c r="K81" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="L81" s="3">
+        <v>24.9</v>
       </c>
       <c r="M81" s="4">
         <v>19.100000000000001</v>
@@ -5722,11 +5710,11 @@
       <c r="J82" s="1">
         <v>727052</v>
       </c>
-      <c r="K82" s="10">
-        <v>57.4</v>
-      </c>
-      <c r="L82" s="10">
-        <v>27.2</v>
+      <c r="K82" s="3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L82" s="3">
+        <v>25.3</v>
       </c>
       <c r="M82" s="4">
         <v>30.2</v>
@@ -5787,11 +5775,11 @@
       <c r="J83" s="1">
         <v>749841</v>
       </c>
-      <c r="K83" s="10">
-        <v>52.8</v>
-      </c>
-      <c r="L83" s="10">
-        <v>31.2</v>
+      <c r="K83" s="3">
+        <v>40.6</v>
+      </c>
+      <c r="L83" s="3">
+        <v>24.8</v>
       </c>
       <c r="M83" s="4">
         <v>21.6</v>
@@ -5852,11 +5840,11 @@
       <c r="J84" s="1">
         <v>782882</v>
       </c>
-      <c r="K84" s="10">
-        <v>51.7</v>
-      </c>
-      <c r="L84" s="10">
-        <v>31.8</v>
+      <c r="K84" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="L84" s="3">
+        <v>25.9</v>
       </c>
       <c r="M84" s="4">
         <v>19.8</v>

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B8AF7-50E5-4ACC-B1FB-347FA679702C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99765661-54C3-41D8-9ED9-052B45182A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="1380" windowWidth="32910" windowHeight="19110" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
@@ -283,61 +283,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>37.1</c:v>
+                  <c:v>33.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.4</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.5</c:v>
+                  <c:v>32.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.9</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.1</c:v>
+                  <c:v>33.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.6</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.700000000000003</c:v>
+                  <c:v>38.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.700000000000003</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.9</c:v>
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.5</c:v>
+                  <c:v>40.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.4</c:v>
+                  <c:v>41.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.3</c:v>
+                  <c:v>42.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.9</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.3</c:v>
+                  <c:v>44.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.5</c:v>
+                  <c:v>43.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.3</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.1</c:v>
+                  <c:v>46.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.8</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,61 +460,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>23.7</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.9</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.9</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.5</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.9</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.8</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.6</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.2</c:v>
+                  <c:v>19.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.2</c:v>
+                  <c:v>25.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.1</c:v>
+                  <c:v>24.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,61 +846,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.1</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.7</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.2</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.7</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.8</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>42.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.6</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.1</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,58 +1023,58 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.5</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.2</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.9</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.3</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.8</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>25.9</c:v>
@@ -1185,7 +1185,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66:L84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,61 +2808,61 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>609748</v>
+        <v>845083</v>
       </c>
       <c r="D2" s="3">
-        <v>40.299999999999997</v>
+        <v>36.1</v>
       </c>
       <c r="E2" s="3">
-        <v>25.7</v>
+        <v>22.5</v>
       </c>
       <c r="F2" s="3">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="G2" s="1">
-        <v>24547</v>
+        <v>30489</v>
       </c>
       <c r="H2" s="1">
-        <v>15681</v>
+        <v>18986</v>
       </c>
       <c r="I2" s="5">
-        <v>-16</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1">
-        <v>662512</v>
+        <v>921572</v>
       </c>
       <c r="K2" s="10">
-        <v>37.1</v>
+        <v>33.1</v>
       </c>
       <c r="L2" s="10">
-        <v>23.7</v>
+        <v>20.6</v>
       </c>
       <c r="M2" s="4">
-        <v>13.4</v>
+        <v>12.5</v>
       </c>
       <c r="N2" s="1">
-        <v>660611</v>
+        <v>915018</v>
       </c>
       <c r="O2" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P2" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q2" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R2" s="1">
-        <v>27836</v>
+        <v>39652</v>
       </c>
       <c r="S2" s="1">
-        <v>17136</v>
+        <v>22100</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="9"/>
@@ -2886,61 +2886,61 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>639721</v>
+        <v>854862</v>
       </c>
       <c r="D3" s="3">
-        <v>40.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="E3" s="3">
-        <v>26.1</v>
+        <v>24.4</v>
       </c>
       <c r="F3" s="3">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="G3" s="1">
-        <v>25798</v>
+        <v>31680</v>
       </c>
       <c r="H3" s="1">
-        <v>16693</v>
+        <v>20870</v>
       </c>
       <c r="I3" s="5">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1">
-        <v>671362</v>
+        <v>933131</v>
       </c>
       <c r="K3" s="10">
-        <v>38.4</v>
+        <v>34</v>
       </c>
       <c r="L3" s="10">
-        <v>24.9</v>
+        <v>22.4</v>
       </c>
       <c r="M3" s="4">
-        <v>13.6</v>
+        <v>11.6</v>
       </c>
       <c r="N3" s="1">
-        <v>671236</v>
+        <v>932603</v>
       </c>
       <c r="O3" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P3" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q3" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R3" s="1">
-        <v>28284</v>
+        <v>40414</v>
       </c>
       <c r="S3" s="1">
-        <v>17412</v>
+        <v>22525</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="9"/>
@@ -2964,61 +2964,61 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>654055</v>
+        <v>871148</v>
       </c>
       <c r="D4" s="3">
-        <v>38</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E4" s="3">
-        <v>24.9</v>
+        <v>22.3</v>
       </c>
       <c r="F4" s="3">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="G4" s="1">
-        <v>24834</v>
+        <v>30318</v>
       </c>
       <c r="H4" s="1">
-        <v>16281</v>
+        <v>19401</v>
       </c>
       <c r="I4" s="5">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1">
-        <v>680483</v>
+        <v>944018</v>
       </c>
       <c r="K4" s="10">
-        <v>36.5</v>
+        <v>32.1</v>
       </c>
       <c r="L4" s="10">
-        <v>23.9</v>
+        <v>20.6</v>
       </c>
       <c r="M4" s="4">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
       <c r="N4" s="1">
-        <v>682031</v>
+        <v>950526</v>
       </c>
       <c r="O4" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P4" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q4" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R4" s="1">
-        <v>28739</v>
+        <v>41190</v>
       </c>
       <c r="S4" s="1">
-        <v>17692</v>
+        <v>22958</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="9"/>
@@ -3042,61 +3042,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>669671</v>
+        <v>887698</v>
       </c>
       <c r="D5" s="3">
-        <v>38</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E5" s="3">
-        <v>26.2</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
-        <v>11.8</v>
+        <v>8.9</v>
       </c>
       <c r="G5" s="1">
-        <v>25463</v>
+        <v>30042</v>
       </c>
       <c r="H5" s="1">
-        <v>17543</v>
+        <v>22151</v>
       </c>
       <c r="I5" s="5">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1">
-        <v>689208</v>
+        <v>955010</v>
       </c>
       <c r="K5" s="10">
-        <v>36.9</v>
+        <v>31.5</v>
       </c>
       <c r="L5" s="10">
-        <v>25.5</v>
+        <v>23.2</v>
       </c>
       <c r="M5" s="4">
-        <v>11.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N5" s="1">
-        <v>693000</v>
+        <v>968793</v>
       </c>
       <c r="O5" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P5" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q5" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R5" s="1">
-        <v>29201</v>
+        <v>41982</v>
       </c>
       <c r="S5" s="1">
-        <v>17976</v>
+        <v>23399</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U5" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="9"/>
@@ -3120,61 +3120,61 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>674890</v>
+        <v>904365</v>
       </c>
       <c r="D6" s="3">
-        <v>40.299999999999997</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E6" s="3">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="F6" s="3">
-        <v>15.6</v>
+        <v>11.5</v>
       </c>
       <c r="G6" s="1">
-        <v>27231</v>
+        <v>31863</v>
       </c>
       <c r="H6" s="1">
-        <v>16688</v>
+        <v>21503</v>
       </c>
       <c r="I6" s="5">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1">
-        <v>697197</v>
+        <v>962976</v>
       </c>
       <c r="K6" s="10">
-        <v>39.1</v>
+        <v>33.1</v>
       </c>
       <c r="L6" s="10">
-        <v>23.9</v>
+        <v>22.3</v>
       </c>
       <c r="M6" s="4">
-        <v>15.1</v>
+        <v>10.8</v>
       </c>
       <c r="N6" s="1">
-        <v>704145</v>
+        <v>987411</v>
       </c>
       <c r="O6" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P6" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q6" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R6" s="1">
-        <v>29671</v>
+        <v>42789</v>
       </c>
       <c r="S6" s="1">
-        <v>18266</v>
+        <v>23849</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="9"/>
@@ -3198,61 +3198,61 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>694545</v>
+        <v>918596</v>
       </c>
       <c r="D7" s="3">
-        <v>38.299999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="E7" s="3">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F7" s="3">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="G7" s="1">
-        <v>26589</v>
+        <v>35027</v>
       </c>
       <c r="H7" s="1">
-        <v>16144</v>
+        <v>21527</v>
       </c>
       <c r="I7" s="5">
-        <v>846</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1">
-        <v>707913</v>
+        <v>973422</v>
       </c>
       <c r="K7" s="10">
-        <v>37.6</v>
+        <v>36</v>
       </c>
       <c r="L7" s="10">
-        <v>22.8</v>
+        <v>22.1</v>
       </c>
       <c r="M7" s="4">
-        <v>14.8</v>
+        <v>13.9</v>
       </c>
       <c r="N7" s="1">
-        <v>715470</v>
+        <v>1006387</v>
       </c>
       <c r="O7" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P7" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q7" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R7" s="1">
-        <v>30148</v>
+        <v>43611</v>
       </c>
       <c r="S7" s="1">
-        <v>18559</v>
+        <v>24307</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="9"/>
@@ -3276,61 +3276,61 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>710165</v>
+        <v>934567</v>
       </c>
       <c r="D8" s="3">
-        <v>35.1</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E8" s="3">
-        <v>20.8</v>
+        <v>24.5</v>
       </c>
       <c r="F8" s="3">
-        <v>14.3</v>
+        <v>15.8</v>
       </c>
       <c r="G8" s="1">
-        <v>24959</v>
+        <v>37639</v>
       </c>
       <c r="H8" s="1">
-        <v>14802</v>
+        <v>22887</v>
       </c>
       <c r="I8" s="5">
-        <v>-111</v>
+        <v>-47</v>
       </c>
       <c r="J8" s="1">
-        <v>719204</v>
+        <v>987002</v>
       </c>
       <c r="K8" s="10">
-        <v>34.700000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="L8" s="10">
-        <v>20.6</v>
+        <v>23.2</v>
       </c>
       <c r="M8" s="4">
-        <v>14.1</v>
+        <v>14.9</v>
       </c>
       <c r="N8" s="1">
-        <v>726977</v>
+        <v>1025728</v>
       </c>
       <c r="O8" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P8" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q8" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R8" s="1">
-        <v>30633</v>
+        <v>44449</v>
       </c>
       <c r="S8" s="1">
-        <v>18858</v>
+        <v>24774</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="9"/>
@@ -3354,61 +3354,61 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>720304</v>
+        <v>956813</v>
       </c>
       <c r="D9" s="3">
-        <v>35.1</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E9" s="3">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="F9" s="3">
-        <v>11.8</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>25288</v>
+        <v>38113</v>
       </c>
       <c r="H9" s="1">
-        <v>16776</v>
+        <v>20877</v>
       </c>
       <c r="I9" s="5">
-        <v>118</v>
+        <v>-53</v>
       </c>
       <c r="J9" s="1">
-        <v>729250</v>
+        <v>1001711</v>
       </c>
       <c r="K9" s="10">
-        <v>34.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="L9" s="10">
-        <v>23</v>
+        <v>20.8</v>
       </c>
       <c r="M9" s="4">
-        <v>11.7</v>
+        <v>17.2</v>
       </c>
       <c r="N9" s="1">
-        <v>738669</v>
+        <v>1045441</v>
       </c>
       <c r="O9" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P9" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R9" s="1">
-        <v>31125</v>
+        <v>45304</v>
       </c>
       <c r="S9" s="1">
-        <v>19161</v>
+        <v>25250</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="9"/>
@@ -3429,64 +3429,64 @@
         <v>1904</v>
       </c>
       <c r="B10" s="1">
-        <v>727500</v>
+        <v>1006600</v>
       </c>
       <c r="C10" s="1">
-        <v>670102</v>
+        <v>980924</v>
       </c>
       <c r="D10" s="3">
-        <v>40.200000000000003</v>
+        <v>38.9</v>
       </c>
       <c r="E10" s="3">
-        <v>28.8</v>
+        <v>20.6</v>
       </c>
       <c r="F10" s="3">
-        <v>11.3</v>
+        <v>18.3</v>
       </c>
       <c r="G10" s="1">
-        <v>26906</v>
+        <v>38179</v>
       </c>
       <c r="H10" s="1">
-        <v>19305</v>
+        <v>20238</v>
       </c>
       <c r="I10" s="5">
-        <v>-116</v>
+        <v>-96</v>
       </c>
       <c r="J10" s="1">
-        <v>737880</v>
+        <v>1019020</v>
       </c>
       <c r="K10" s="10">
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="L10" s="10">
-        <v>26.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M10" s="4">
-        <v>10.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>750549</v>
+        <v>1065533</v>
       </c>
       <c r="O10" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P10" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q10" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R10" s="1">
-        <v>31626</v>
+        <v>46174</v>
       </c>
       <c r="S10" s="1">
-        <v>19469</v>
+        <v>25736</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="9"/>
@@ -3507,64 +3507,64 @@
         <v>1905</v>
       </c>
       <c r="B11" s="1">
-        <v>734500</v>
+        <v>1023700</v>
       </c>
       <c r="C11" s="1">
-        <v>824266</v>
+        <v>1007269</v>
       </c>
       <c r="D11" s="3">
-        <v>29.8</v>
+        <v>39.4</v>
       </c>
       <c r="E11" s="3">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F11" s="3">
-        <v>4.3</v>
+        <v>13.5</v>
       </c>
       <c r="G11" s="1">
-        <v>24558</v>
+        <v>39660</v>
       </c>
       <c r="H11" s="1">
-        <v>21041</v>
+        <v>26059</v>
       </c>
       <c r="I11" s="5">
-        <v>-93</v>
+        <v>-151</v>
       </c>
       <c r="J11" s="1">
-        <v>745365</v>
+        <v>1036865</v>
       </c>
       <c r="K11" s="10">
-        <v>32.9</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="L11" s="10">
-        <v>28.2</v>
+        <v>25.1</v>
       </c>
       <c r="M11" s="4">
-        <v>4.7</v>
+        <v>13.1</v>
       </c>
       <c r="N11" s="1">
-        <v>762620</v>
+        <v>1086011</v>
       </c>
       <c r="O11" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P11" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q11" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R11" s="1">
-        <v>32135</v>
+        <v>47062</v>
       </c>
       <c r="S11" s="1">
-        <v>19782</v>
+        <v>26230</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="9"/>
@@ -3585,64 +3585,64 @@
         <v>1906</v>
       </c>
       <c r="B12" s="1">
-        <v>742200</v>
+        <v>1044800</v>
       </c>
       <c r="C12" s="1">
-        <v>764458</v>
+        <v>1025302</v>
       </c>
       <c r="D12" s="3">
-        <v>30.8</v>
+        <v>41.6</v>
       </c>
       <c r="E12" s="3">
-        <v>21.7</v>
+        <v>24.7</v>
       </c>
       <c r="F12" s="3">
-        <v>9.1</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>23555</v>
+        <v>42668</v>
       </c>
       <c r="H12" s="1">
-        <v>16563</v>
+        <v>25350</v>
       </c>
       <c r="I12" s="5">
-        <v>1878</v>
+        <v>-315</v>
       </c>
       <c r="J12" s="1">
-        <v>748789</v>
+        <v>1050315</v>
       </c>
       <c r="K12" s="10">
-        <v>31.5</v>
+        <v>40.6</v>
       </c>
       <c r="L12" s="10">
-        <v>22.1</v>
+        <v>24.1</v>
       </c>
       <c r="M12" s="4">
-        <v>9.3000000000000007</v>
+        <v>16.5</v>
       </c>
       <c r="N12" s="1">
-        <v>774885</v>
+        <v>1106882</v>
       </c>
       <c r="O12" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P12" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q12" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R12" s="1">
-        <v>32652</v>
+        <v>47966</v>
       </c>
       <c r="S12" s="1">
-        <v>20101</v>
+        <v>26734</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="9"/>
@@ -3663,64 +3663,64 @@
         <v>1907</v>
       </c>
       <c r="B13" s="1">
-        <v>741900</v>
+        <v>1079700</v>
       </c>
       <c r="C13" s="1">
-        <v>827253</v>
+        <v>1056799</v>
       </c>
       <c r="D13" s="3">
-        <v>30.6</v>
+        <v>41.5</v>
       </c>
       <c r="E13" s="3">
-        <v>18.2</v>
+        <v>22.1</v>
       </c>
       <c r="F13" s="3">
-        <v>12.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>25302</v>
+        <v>43860</v>
       </c>
       <c r="H13" s="1">
-        <v>15046</v>
+        <v>23310</v>
       </c>
       <c r="I13" s="5">
-        <v>1856</v>
+        <v>-238</v>
       </c>
       <c r="J13" s="1">
-        <v>757659</v>
+        <v>1067318</v>
       </c>
       <c r="K13" s="10">
-        <v>33.4</v>
+        <v>41.1</v>
       </c>
       <c r="L13" s="10">
-        <v>19.899999999999999</v>
+        <v>21.8</v>
       </c>
       <c r="M13" s="4">
-        <v>13.5</v>
+        <v>19.3</v>
       </c>
       <c r="N13" s="1">
-        <v>787347</v>
+        <v>1128154</v>
       </c>
       <c r="O13" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="P13" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q13" s="3">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="R13" s="1">
-        <v>33177</v>
+        <v>48888</v>
       </c>
       <c r="S13" s="1">
-        <v>20424</v>
+        <v>27248</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="9"/>
@@ -3741,64 +3741,64 @@
         <v>1908</v>
       </c>
       <c r="B14" s="1">
-        <v>745600</v>
+        <v>1124300</v>
       </c>
       <c r="C14" s="1">
-        <v>862841</v>
+        <v>1075915</v>
       </c>
       <c r="D14" s="3">
-        <v>39.6</v>
+        <v>42.8</v>
       </c>
       <c r="E14" s="3">
-        <v>24.6</v>
+        <v>26.9</v>
       </c>
       <c r="F14" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>34136</v>
+        <v>46093</v>
       </c>
       <c r="H14" s="1">
-        <v>21216</v>
+        <v>28921</v>
       </c>
       <c r="I14" s="5">
-        <v>272</v>
+        <v>-334</v>
       </c>
       <c r="J14" s="1">
-        <v>769771</v>
+        <v>1087630</v>
       </c>
       <c r="K14" s="10">
-        <v>44.3</v>
+        <v>42.4</v>
       </c>
       <c r="L14" s="10">
-        <v>27.6</v>
+        <v>26.6</v>
       </c>
       <c r="M14" s="4">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="N14" s="1">
-        <v>800010</v>
+        <v>1149835</v>
       </c>
       <c r="O14" s="3">
-        <v>42.7</v>
+        <v>43.3</v>
       </c>
       <c r="P14" s="3">
-        <v>26.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" s="3">
-        <v>16.100000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="R14" s="1">
-        <v>34136</v>
+        <v>49827</v>
       </c>
       <c r="S14" s="1">
-        <v>21216</v>
+        <v>27772</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="9"/>
@@ -3819,64 +3819,64 @@
         <v>1909</v>
       </c>
       <c r="B15" s="1">
-        <v>806500</v>
+        <v>1150400</v>
       </c>
       <c r="C15" s="1">
-        <v>843151</v>
+        <v>1104465</v>
       </c>
       <c r="D15" s="3">
-        <v>41.7</v>
+        <v>43.9</v>
       </c>
       <c r="E15" s="3">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F15" s="3">
-        <v>15.5</v>
+        <v>18.2</v>
       </c>
       <c r="G15" s="1">
-        <v>35127</v>
+        <v>48541</v>
       </c>
       <c r="H15" s="1">
-        <v>22093</v>
+        <v>28451</v>
       </c>
       <c r="I15" s="5">
-        <v>620</v>
+        <v>-798</v>
       </c>
       <c r="J15" s="1">
-        <v>782963</v>
+        <v>1104468</v>
       </c>
       <c r="K15" s="10">
-        <v>44.9</v>
+        <v>43.9</v>
       </c>
       <c r="L15" s="10">
-        <v>28.2</v>
+        <v>25.8</v>
       </c>
       <c r="M15" s="4">
-        <v>16.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="N15" s="1">
-        <v>813202</v>
+        <v>1171933</v>
       </c>
       <c r="O15" s="3">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="P15" s="3">
-        <v>27.2</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" s="3">
-        <v>16</v>
+        <v>19.2</v>
       </c>
       <c r="R15" s="1">
-        <v>35127</v>
+        <v>50785</v>
       </c>
       <c r="S15" s="1">
-        <v>22093</v>
+        <v>28306</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="9"/>
@@ -3897,64 +3897,64 @@
         <v>1910</v>
       </c>
       <c r="B16" s="1">
-        <v>833400</v>
+        <v>1182700</v>
       </c>
       <c r="C16" s="1">
-        <v>860345</v>
+        <v>1125891</v>
       </c>
       <c r="D16" s="3">
-        <v>40.1</v>
+        <v>44.5</v>
       </c>
       <c r="E16" s="3">
-        <v>26</v>
+        <v>28.6</v>
       </c>
       <c r="F16" s="3">
-        <v>14.1</v>
+        <v>15.9</v>
       </c>
       <c r="G16" s="1">
-        <v>34475</v>
+        <v>50075</v>
       </c>
       <c r="H16" s="1">
-        <v>22352</v>
+        <v>32161</v>
       </c>
       <c r="I16" s="5">
-        <v>1050</v>
+        <v>-540</v>
       </c>
       <c r="J16" s="1">
-        <v>796617</v>
+        <v>1123760</v>
       </c>
       <c r="K16" s="10">
+        <v>44.6</v>
+      </c>
+      <c r="L16" s="10">
+        <v>28.6</v>
+      </c>
+      <c r="M16" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1194455</v>
+      </c>
+      <c r="O16" s="3">
         <v>43.3</v>
       </c>
-      <c r="L16" s="10">
-        <v>28.1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>826856</v>
-      </c>
-      <c r="O16" s="3">
-        <v>41.7</v>
-      </c>
       <c r="P16" s="3">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="Q16" s="3">
-        <v>14.7</v>
+        <v>19.2</v>
       </c>
       <c r="R16" s="1">
-        <v>34475</v>
+        <v>51761</v>
       </c>
       <c r="S16" s="1">
-        <v>22352</v>
+        <v>28849</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U16" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="9"/>
@@ -3975,64 +3975,64 @@
         <v>1911</v>
       </c>
       <c r="B17" s="1">
-        <v>853400</v>
+        <v>1214700</v>
       </c>
       <c r="C17" s="1">
-        <v>890602</v>
+        <v>1152374</v>
       </c>
       <c r="D17" s="3">
-        <v>41.4</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3">
-        <v>23.5</v>
+        <v>25.4</v>
       </c>
       <c r="F17" s="3">
-        <v>17.899999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="G17" s="1">
-        <v>36827</v>
+        <v>49521</v>
       </c>
       <c r="H17" s="1">
-        <v>20896</v>
+        <v>29300</v>
       </c>
       <c r="I17" s="5">
-        <v>1745</v>
+        <v>-262</v>
       </c>
       <c r="J17" s="1">
-        <v>809790</v>
+        <v>1141134</v>
       </c>
       <c r="K17" s="10">
-        <v>45.5</v>
+        <v>43.4</v>
       </c>
       <c r="L17" s="10">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="M17" s="4">
-        <v>19.7</v>
+        <v>17.7</v>
       </c>
       <c r="N17" s="1">
-        <v>840029</v>
+        <v>1217410</v>
       </c>
       <c r="O17" s="3">
-        <v>43.8</v>
+        <v>43.3</v>
       </c>
       <c r="P17" s="3">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q17" s="3">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="R17" s="1">
-        <v>36827</v>
+        <v>52756</v>
       </c>
       <c r="S17" s="1">
-        <v>20896</v>
+        <v>29404</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="9"/>
@@ -4053,58 +4053,58 @@
         <v>1912</v>
       </c>
       <c r="B18" s="1">
-        <v>893200</v>
+        <v>1231600</v>
       </c>
       <c r="C18" s="1">
-        <v>888643</v>
+        <v>1196497</v>
       </c>
       <c r="D18" s="3">
-        <v>39.4</v>
+        <v>43.7</v>
       </c>
       <c r="E18" s="3">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F18" s="3">
-        <v>15</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>34993</v>
+        <v>52303</v>
       </c>
       <c r="H18" s="1">
-        <v>21678</v>
+        <v>29077</v>
       </c>
       <c r="I18" s="5">
-        <v>3331</v>
+        <v>-504</v>
       </c>
       <c r="J18" s="1">
-        <v>827540</v>
+        <v>1161093</v>
       </c>
       <c r="K18" s="10">
-        <v>42.3</v>
+        <v>45</v>
       </c>
       <c r="L18" s="10">
-        <v>26.2</v>
+        <v>25</v>
       </c>
       <c r="M18" s="4">
-        <v>16.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="N18" s="1">
-        <v>857705</v>
+        <v>1240806</v>
       </c>
       <c r="O18" s="3">
-        <v>40.799999999999997</v>
+        <v>42.2</v>
       </c>
       <c r="P18" s="3">
-        <v>25.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q18" s="3">
-        <v>15.5</v>
+        <v>18.7</v>
       </c>
       <c r="R18" s="1">
-        <v>34993</v>
+        <v>52303</v>
       </c>
       <c r="S18" s="1">
-        <v>21678</v>
+        <v>29077</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>10</v>
@@ -4131,58 +4131,58 @@
         <v>1913</v>
       </c>
       <c r="B19" s="1">
-        <v>920500</v>
+        <v>1246700</v>
       </c>
       <c r="C19" s="1">
-        <v>898353</v>
+        <v>1197497</v>
       </c>
       <c r="D19" s="3">
-        <v>39.5</v>
+        <v>45.7</v>
       </c>
       <c r="E19" s="3">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="F19" s="3">
-        <v>15.4</v>
+        <v>21.3</v>
       </c>
       <c r="G19" s="1">
-        <v>35521</v>
+        <v>54756</v>
       </c>
       <c r="H19" s="1">
-        <v>21658</v>
+        <v>29278</v>
       </c>
       <c r="I19" s="5">
-        <v>3220</v>
+        <v>-718</v>
       </c>
       <c r="J19" s="1">
-        <v>844186</v>
+        <v>1183815</v>
       </c>
       <c r="K19" s="10">
-        <v>42.1</v>
+        <v>46.3</v>
       </c>
       <c r="L19" s="10">
-        <v>25.7</v>
+        <v>24.7</v>
       </c>
       <c r="M19" s="4">
-        <v>16.399999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="N19" s="1">
-        <v>874351</v>
+        <v>1263528</v>
       </c>
       <c r="O19" s="3">
-        <v>40.6</v>
+        <v>43.3</v>
       </c>
       <c r="P19" s="3">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="Q19" s="3">
-        <v>15.9</v>
+        <v>20.2</v>
       </c>
       <c r="R19" s="1">
-        <v>35521</v>
+        <v>54756</v>
       </c>
       <c r="S19" s="1">
-        <v>21658</v>
+        <v>29278</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>10</v>
@@ -4209,64 +4209,64 @@
         <v>1914</v>
       </c>
       <c r="B20" s="1">
-        <v>945700</v>
+        <v>1261200</v>
       </c>
       <c r="C20" s="1">
-        <v>926757</v>
+        <v>1235219</v>
       </c>
       <c r="D20" s="3">
-        <v>45.4</v>
+        <v>46.4</v>
       </c>
       <c r="E20" s="3">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F20" s="3">
-        <v>18.600000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="G20" s="1">
-        <v>42076</v>
+        <v>57348</v>
       </c>
       <c r="H20" s="1">
-        <v>24836</v>
+        <v>33306</v>
       </c>
       <c r="I20" s="5">
-        <v>1924</v>
+        <v>-524</v>
       </c>
       <c r="J20" s="1">
-        <v>861365</v>
+        <v>1208575</v>
       </c>
       <c r="K20" s="10">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
       <c r="L20" s="10">
-        <v>28.8</v>
+        <v>27.6</v>
       </c>
       <c r="M20" s="4">
-        <v>20</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>891434</v>
+        <v>1288288</v>
       </c>
       <c r="O20" s="3">
-        <v>42.1</v>
+        <v>44.5</v>
       </c>
       <c r="P20" s="3">
         <v>25.9</v>
       </c>
       <c r="Q20" s="3">
-        <v>16.2</v>
+        <v>18.7</v>
       </c>
       <c r="R20" s="1">
-        <v>37563</v>
+        <v>57348</v>
       </c>
       <c r="S20" s="1">
-        <v>23124</v>
+        <v>33306</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U20" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="V20" t="s">
         <v>7</v>
@@ -4296,28 +4296,28 @@
       <c r="C21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(G2:G20)</f>
-        <v>558185</v>
+        <v>788175</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(H2:H20)</f>
-        <v>357292</v>
+        <v>473653</v>
       </c>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>16954</v>
+        <v>-4131</v>
       </c>
       <c r="J21" s="1"/>
       <c r="V21" s="1">
         <f>G21-H21</f>
-        <v>200893</v>
+        <v>314522</v>
       </c>
       <c r="W21" s="1">
         <f>V21+I21</f>
-        <v>217847</v>
+        <v>310391</v>
       </c>
       <c r="Y21">
         <f>I21/W21</f>
-        <v>7.7825262684361046E-2</v>
+        <v>-1.3309019913592856E-2</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
@@ -4671,10 +4671,10 @@
         <v>447935</v>
       </c>
       <c r="K66" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L66" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M66" s="4">
         <v>11.4</v>
@@ -4736,10 +4736,10 @@
         <v>453076</v>
       </c>
       <c r="K67" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L67" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M67" s="4">
         <v>9.5</v>
@@ -4801,10 +4801,10 @@
         <v>457678</v>
       </c>
       <c r="K68" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L68" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M68" s="4">
         <v>9.8000000000000007</v>
@@ -4866,10 +4866,10 @@
         <v>463377</v>
       </c>
       <c r="K69" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L69" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M69" s="4">
         <v>12.8</v>
@@ -4931,10 +4931,10 @@
         <v>472768</v>
       </c>
       <c r="K70" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L70" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M70" s="4">
         <v>13.7</v>
@@ -4996,10 +4996,10 @@
         <v>482382</v>
       </c>
       <c r="K71" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L71" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M71" s="4">
         <v>13.9</v>
@@ -5061,10 +5061,10 @@
         <v>492129</v>
       </c>
       <c r="K72" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L72" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M72" s="4">
         <v>14.1</v>
@@ -5126,10 +5126,10 @@
         <v>505638</v>
       </c>
       <c r="K73" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L73" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M73" s="4">
         <v>16</v>
@@ -5191,10 +5191,10 @@
         <v>521686</v>
       </c>
       <c r="K74" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L74" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M74" s="4">
         <v>15.3</v>
@@ -5256,10 +5256,10 @@
         <v>544789</v>
       </c>
       <c r="K75" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L75" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M75" s="4">
         <v>16.5</v>
@@ -5321,10 +5321,10 @@
         <v>561378</v>
       </c>
       <c r="K76" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L76" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M76" s="4">
         <v>13.6</v>
@@ -5386,10 +5386,10 @@
         <v>583850</v>
       </c>
       <c r="K77" s="3">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="L77" s="3">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="M77" s="4">
         <v>15.1</v>
@@ -5451,10 +5451,10 @@
         <v>601634</v>
       </c>
       <c r="K78" s="3">
-        <v>42.7</v>
+        <v>43.3</v>
       </c>
       <c r="L78" s="3">
-        <v>26.5</v>
+        <v>24.2</v>
       </c>
       <c r="M78" s="4">
         <v>17.3</v>
@@ -5516,10 +5516,10 @@
         <v>646413</v>
       </c>
       <c r="K79" s="3">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="L79" s="3">
-        <v>27.2</v>
+        <v>24.2</v>
       </c>
       <c r="M79" s="4">
         <v>16.3</v>
@@ -5581,10 +5581,10 @@
         <v>688934</v>
       </c>
       <c r="K80" s="3">
-        <v>41.7</v>
+        <v>43.3</v>
       </c>
       <c r="L80" s="3">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="M80" s="4">
         <v>12.8</v>
@@ -5646,10 +5646,10 @@
         <v>719537</v>
       </c>
       <c r="K81" s="3">
-        <v>43.8</v>
+        <v>43.3</v>
       </c>
       <c r="L81" s="3">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="M81" s="4">
         <v>19.100000000000001</v>
@@ -5711,10 +5711,10 @@
         <v>727052</v>
       </c>
       <c r="K82" s="3">
-        <v>40.799999999999997</v>
+        <v>42.2</v>
       </c>
       <c r="L82" s="3">
-        <v>25.3</v>
+        <v>23.4</v>
       </c>
       <c r="M82" s="4">
         <v>30.2</v>
@@ -5776,10 +5776,10 @@
         <v>749841</v>
       </c>
       <c r="K83" s="3">
-        <v>40.6</v>
+        <v>43.3</v>
       </c>
       <c r="L83" s="3">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="M83" s="4">
         <v>21.6</v>
@@ -5841,7 +5841,7 @@
         <v>782882</v>
       </c>
       <c r="K84" s="3">
-        <v>42.1</v>
+        <v>44.5</v>
       </c>
       <c r="L84" s="3">
         <v>25.9</v>

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99765661-54C3-41D8-9ED9-052B45182A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBC24F-3264-4C19-943E-10B77C8B0FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="1380" windowWidth="32910" windowHeight="19110" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="11">
   <si>
     <t> </t>
   </si>
@@ -283,61 +283,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>33.1</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>32.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.3</c:v>
+                  <c:v>35.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,61 +460,61 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>20.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.7</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.7</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,61 +2808,61 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>845083</v>
+        <v>741690</v>
       </c>
       <c r="D2" s="3">
-        <v>36.1</v>
+        <v>39.5</v>
       </c>
       <c r="E2" s="3">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
-        <v>13.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>30489</v>
+        <v>29309</v>
       </c>
       <c r="H2" s="1">
-        <v>18986</v>
+        <v>14803</v>
       </c>
       <c r="I2" s="5">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1">
-        <v>921572</v>
+        <v>813959</v>
       </c>
       <c r="K2" s="10">
-        <v>33.1</v>
+        <v>36</v>
       </c>
       <c r="L2" s="10">
-        <v>20.6</v>
+        <v>18.2</v>
       </c>
       <c r="M2" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="N2" s="1">
-        <v>915018</v>
-      </c>
-      <c r="O2" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P2" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R2" s="1">
-        <v>39652</v>
-      </c>
-      <c r="S2" s="1">
-        <v>22100</v>
+        <v>17.8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="2">
-        <v>77</v>
+      <c r="U2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="9"/>
@@ -2886,61 +2886,61 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>854862</v>
+        <v>789191</v>
       </c>
       <c r="D3" s="3">
-        <v>37.1</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E3" s="3">
-        <v>24.4</v>
+        <v>18.8</v>
       </c>
       <c r="F3" s="3">
-        <v>12.6</v>
+        <v>18.3</v>
       </c>
       <c r="G3" s="1">
-        <v>31680</v>
+        <v>29339</v>
       </c>
       <c r="H3" s="1">
-        <v>20870</v>
+        <v>14869</v>
       </c>
       <c r="I3" s="5">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1">
-        <v>933131</v>
+        <v>828483</v>
       </c>
       <c r="K3" s="10">
-        <v>34</v>
+        <v>35.4</v>
       </c>
       <c r="L3" s="10">
-        <v>22.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M3" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="N3" s="1">
-        <v>932603</v>
-      </c>
-      <c r="O3" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P3" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>40414</v>
-      </c>
-      <c r="S3" s="1">
-        <v>22525</v>
+        <v>17.5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="2">
-        <v>78</v>
+      <c r="U3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="9"/>
@@ -2964,61 +2964,61 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>871148</v>
+        <v>808089</v>
       </c>
       <c r="D4" s="3">
-        <v>34.799999999999997</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="F4" s="3">
-        <v>12.5</v>
+        <v>16.7</v>
       </c>
       <c r="G4" s="1">
-        <v>30318</v>
+        <v>32317</v>
       </c>
       <c r="H4" s="1">
-        <v>19401</v>
+        <v>18852</v>
       </c>
       <c r="I4" s="5">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1">
-        <v>944018</v>
+        <v>842985</v>
       </c>
       <c r="K4" s="10">
-        <v>32.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="L4" s="10">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="M4" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>950526</v>
-      </c>
-      <c r="O4" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P4" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>41190</v>
-      </c>
-      <c r="S4" s="1">
-        <v>22958</v>
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="2">
-        <v>74</v>
+      <c r="U4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="9"/>
@@ -3042,61 +3042,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>887698</v>
+        <v>829222</v>
       </c>
       <c r="D5" s="3">
-        <v>33.799999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="E5" s="3">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F5" s="3">
-        <v>8.9</v>
+        <v>12.5</v>
       </c>
       <c r="G5" s="1">
-        <v>30042</v>
+        <v>31196</v>
       </c>
       <c r="H5" s="1">
-        <v>22151</v>
+        <v>20838</v>
       </c>
       <c r="I5" s="5">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1">
-        <v>955010</v>
+        <v>856493</v>
       </c>
       <c r="K5" s="10">
-        <v>31.5</v>
+        <v>36.4</v>
       </c>
       <c r="L5" s="10">
-        <v>23.2</v>
+        <v>24.3</v>
       </c>
       <c r="M5" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="N5" s="1">
-        <v>968793</v>
-      </c>
-      <c r="O5" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P5" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>41982</v>
-      </c>
-      <c r="S5" s="1">
-        <v>23399</v>
+        <v>12.1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="2">
-        <v>72</v>
+      <c r="U5" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="9"/>
@@ -3120,61 +3120,61 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>904365</v>
+        <v>843036</v>
       </c>
       <c r="D6" s="3">
-        <v>35.200000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="E6" s="3">
-        <v>23.8</v>
+        <v>22.2</v>
       </c>
       <c r="F6" s="3">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="G6" s="1">
-        <v>31863</v>
+        <v>29124</v>
       </c>
       <c r="H6" s="1">
-        <v>21503</v>
+        <v>18749</v>
       </c>
       <c r="I6" s="5">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1">
-        <v>962976</v>
+        <v>866863</v>
       </c>
       <c r="K6" s="10">
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="L6" s="10">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="M6" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="N6" s="1">
-        <v>987411</v>
-      </c>
-      <c r="O6" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P6" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R6" s="1">
-        <v>42789</v>
-      </c>
-      <c r="S6" s="1">
-        <v>23849</v>
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="2">
-        <v>74</v>
+      <c r="U6" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="9"/>
@@ -3198,61 +3198,61 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>918596</v>
+        <v>853407</v>
       </c>
       <c r="D7" s="3">
-        <v>38.1</v>
+        <v>34.1</v>
       </c>
       <c r="E7" s="3">
-        <v>23.4</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>29110</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16247</v>
+      </c>
+      <c r="I7" s="5">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>877249</v>
+      </c>
+      <c r="K7" s="10">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L7" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="M7" s="4">
         <v>14.7</v>
       </c>
-      <c r="G7" s="1">
-        <v>35027</v>
-      </c>
-      <c r="H7" s="1">
-        <v>21527</v>
-      </c>
-      <c r="I7" s="5">
-        <v>80</v>
-      </c>
-      <c r="J7" s="1">
-        <v>973422</v>
-      </c>
-      <c r="K7" s="10">
-        <v>36</v>
-      </c>
-      <c r="L7" s="10">
-        <v>22.1</v>
-      </c>
-      <c r="M7" s="4">
-        <v>13.9</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1006387</v>
-      </c>
-      <c r="O7" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P7" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>43611</v>
-      </c>
-      <c r="S7" s="1">
-        <v>24307</v>
+      <c r="N7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="2">
-        <v>80</v>
+      <c r="U7" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="9"/>
@@ -3276,61 +3276,61 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>934567</v>
+        <v>866265</v>
       </c>
       <c r="D8" s="3">
-        <v>40.299999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="E8" s="3">
-        <v>24.5</v>
+        <v>20.6</v>
       </c>
       <c r="F8" s="3">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>37639</v>
+        <v>31705</v>
       </c>
       <c r="H8" s="1">
-        <v>22887</v>
+        <v>17847</v>
       </c>
       <c r="I8" s="5">
-        <v>-47</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1">
-        <v>987002</v>
+        <v>890132</v>
       </c>
       <c r="K8" s="10">
-        <v>38.1</v>
+        <v>35.6</v>
       </c>
       <c r="L8" s="10">
-        <v>23.2</v>
+        <v>20</v>
       </c>
       <c r="M8" s="4">
-        <v>14.9</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1025728</v>
-      </c>
-      <c r="O8" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>44449</v>
-      </c>
-      <c r="S8" s="1">
-        <v>24774</v>
+        <v>15.6</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="2">
-        <v>85</v>
+      <c r="U8" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="9"/>
@@ -3354,61 +3354,61 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>956813</v>
+        <v>804757</v>
       </c>
       <c r="D9" s="3">
-        <v>39.799999999999997</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E9" s="3">
-        <v>21.8</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3">
-        <v>18</v>
+        <v>15.2</v>
       </c>
       <c r="G9" s="1">
-        <v>38113</v>
+        <v>26718</v>
       </c>
       <c r="H9" s="1">
-        <v>20877</v>
+        <v>14476</v>
       </c>
       <c r="I9" s="5">
-        <v>-53</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1">
-        <v>1001711</v>
+        <v>904012</v>
       </c>
       <c r="K9" s="10">
-        <v>38</v>
+        <v>29.6</v>
       </c>
       <c r="L9" s="10">
-        <v>20.8</v>
+        <v>16</v>
       </c>
       <c r="M9" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1045441</v>
-      </c>
-      <c r="O9" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P9" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>45304</v>
-      </c>
-      <c r="S9" s="1">
-        <v>25250</v>
+        <v>13.5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U9" s="2">
-        <v>84</v>
+      <c r="U9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="9"/>
@@ -3429,64 +3429,64 @@
         <v>1904</v>
       </c>
       <c r="B10" s="1">
-        <v>1006600</v>
+        <v>892700</v>
       </c>
       <c r="C10" s="1">
-        <v>980924</v>
+        <v>816900</v>
       </c>
       <c r="D10" s="3">
-        <v>38.9</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
-        <v>20.6</v>
+        <v>23.7</v>
       </c>
       <c r="F10" s="3">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="G10" s="1">
-        <v>38179</v>
+        <v>29377</v>
       </c>
       <c r="H10" s="1">
-        <v>20238</v>
+        <v>19371</v>
       </c>
       <c r="I10" s="5">
-        <v>-96</v>
+        <v>-23</v>
       </c>
       <c r="J10" s="1">
-        <v>1019020</v>
+        <v>916266</v>
       </c>
       <c r="K10" s="10">
-        <v>37.5</v>
+        <v>32.1</v>
       </c>
       <c r="L10" s="10">
-        <v>19.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="M10" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1065533</v>
-      </c>
-      <c r="O10" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P10" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R10" s="1">
-        <v>46174</v>
-      </c>
-      <c r="S10" s="1">
-        <v>25736</v>
+        <v>10.9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="2">
-        <v>83</v>
+      <c r="U10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="9"/>
@@ -3507,64 +3507,64 @@
         <v>1905</v>
       </c>
       <c r="B11" s="1">
-        <v>1023700</v>
+        <v>901900</v>
       </c>
       <c r="C11" s="1">
-        <v>1007269</v>
+        <v>833940</v>
       </c>
       <c r="D11" s="3">
-        <v>39.4</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E11" s="3">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3">
-        <v>13.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G11" s="1">
-        <v>39660</v>
+        <v>29751</v>
       </c>
       <c r="H11" s="1">
-        <v>26059</v>
+        <v>21661</v>
       </c>
       <c r="I11" s="5">
-        <v>-151</v>
+        <v>-100</v>
       </c>
       <c r="J11" s="1">
-        <v>1036865</v>
+        <v>926278</v>
       </c>
       <c r="K11" s="10">
-        <v>38.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="L11" s="10">
-        <v>25.1</v>
+        <v>23.4</v>
       </c>
       <c r="M11" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1086011</v>
-      </c>
-      <c r="O11" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P11" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R11" s="1">
-        <v>47062</v>
-      </c>
-      <c r="S11" s="1">
-        <v>26230</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="2">
-        <v>84</v>
+      <c r="U11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="9"/>
@@ -3585,64 +3585,64 @@
         <v>1906</v>
       </c>
       <c r="B12" s="1">
-        <v>1044800</v>
+        <v>909100</v>
       </c>
       <c r="C12" s="1">
-        <v>1025302</v>
+        <v>838075</v>
       </c>
       <c r="D12" s="3">
-        <v>41.6</v>
+        <v>37.4</v>
       </c>
       <c r="E12" s="3">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F12" s="3">
-        <v>16.899999999999999</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1">
-        <v>42668</v>
+        <v>31382</v>
       </c>
       <c r="H12" s="1">
-        <v>25350</v>
+        <v>20482</v>
       </c>
       <c r="I12" s="5">
-        <v>-315</v>
+        <v>-290</v>
       </c>
       <c r="J12" s="1">
-        <v>1050315</v>
+        <v>934268</v>
       </c>
       <c r="K12" s="10">
-        <v>40.6</v>
+        <v>33.6</v>
       </c>
       <c r="L12" s="10">
-        <v>24.1</v>
+        <v>21.9</v>
       </c>
       <c r="M12" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1106882</v>
-      </c>
-      <c r="O12" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P12" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>47966</v>
-      </c>
-      <c r="S12" s="1">
-        <v>26734</v>
+        <v>11.7</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="2">
-        <v>89</v>
+      <c r="U12" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="9"/>
@@ -3663,64 +3663,64 @@
         <v>1907</v>
       </c>
       <c r="B13" s="1">
-        <v>1079700</v>
+        <v>918800</v>
       </c>
       <c r="C13" s="1">
-        <v>1056799</v>
+        <v>845331</v>
       </c>
       <c r="D13" s="3">
-        <v>41.5</v>
+        <v>47.6</v>
       </c>
       <c r="E13" s="3">
-        <v>22.1</v>
+        <v>25.9</v>
       </c>
       <c r="F13" s="3">
-        <v>19.399999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="G13" s="1">
-        <v>43860</v>
+        <v>40253</v>
       </c>
       <c r="H13" s="1">
-        <v>23310</v>
+        <v>21870</v>
       </c>
       <c r="I13" s="5">
-        <v>-238</v>
+        <v>-154</v>
       </c>
       <c r="J13" s="1">
-        <v>1067318</v>
+        <v>944931</v>
       </c>
       <c r="K13" s="10">
-        <v>41.1</v>
+        <v>42.6</v>
       </c>
       <c r="L13" s="10">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="M13" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1128154</v>
-      </c>
-      <c r="O13" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P13" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R13" s="1">
-        <v>48888</v>
-      </c>
-      <c r="S13" s="1">
-        <v>27248</v>
+        <v>19.5</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="2">
-        <v>90</v>
+      <c r="U13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="9"/>
@@ -3741,64 +3741,64 @@
         <v>1908</v>
       </c>
       <c r="B14" s="1">
-        <v>1124300</v>
+        <v>931000</v>
       </c>
       <c r="C14" s="1">
-        <v>1075915</v>
+        <v>855067</v>
       </c>
       <c r="D14" s="3">
-        <v>42.8</v>
+        <v>44.2</v>
       </c>
       <c r="E14" s="3">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F14" s="3">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="G14" s="1">
-        <v>46093</v>
+        <v>37797</v>
       </c>
       <c r="H14" s="1">
-        <v>28921</v>
+        <v>23872</v>
       </c>
       <c r="I14" s="5">
-        <v>-334</v>
+        <v>-30</v>
       </c>
       <c r="J14" s="1">
-        <v>1087630</v>
+        <v>963223</v>
       </c>
       <c r="K14" s="10">
-        <v>42.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="L14" s="10">
-        <v>26.6</v>
+        <v>24.8</v>
       </c>
       <c r="M14" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1149835</v>
-      </c>
-      <c r="O14" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R14" s="1">
-        <v>49827</v>
-      </c>
-      <c r="S14" s="1">
-        <v>27772</v>
+        <v>14.5</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U14" s="2">
-        <v>93</v>
+      <c r="U14" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="9"/>
@@ -3819,64 +3819,64 @@
         <v>1909</v>
       </c>
       <c r="B15" s="1">
-        <v>1150400</v>
+        <v>943700</v>
       </c>
       <c r="C15" s="1">
-        <v>1104465</v>
+        <v>869800</v>
       </c>
       <c r="D15" s="3">
-        <v>43.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E15" s="3">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="F15" s="3">
-        <v>18.2</v>
+        <v>14.4</v>
       </c>
       <c r="G15" s="1">
-        <v>48541</v>
+        <v>34137</v>
       </c>
       <c r="H15" s="1">
-        <v>28451</v>
+        <v>21654</v>
       </c>
       <c r="I15" s="5">
-        <v>-798</v>
+        <v>-29</v>
       </c>
       <c r="J15" s="1">
-        <v>1104468</v>
+        <v>977119</v>
       </c>
       <c r="K15" s="10">
-        <v>43.9</v>
+        <v>34.9</v>
       </c>
       <c r="L15" s="10">
-        <v>25.8</v>
+        <v>22.2</v>
       </c>
       <c r="M15" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1171933</v>
-      </c>
-      <c r="O15" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P15" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R15" s="1">
-        <v>50785</v>
-      </c>
-      <c r="S15" s="1">
-        <v>28306</v>
+        <v>12.8</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="2">
-        <v>96</v>
+      <c r="U15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="9"/>
@@ -3897,64 +3897,64 @@
         <v>1910</v>
       </c>
       <c r="B16" s="1">
-        <v>1182700</v>
+        <v>957100</v>
       </c>
       <c r="C16" s="1">
-        <v>1125891</v>
+        <v>882420</v>
       </c>
       <c r="D16" s="3">
-        <v>44.5</v>
+        <v>39.1</v>
       </c>
       <c r="E16" s="3">
-        <v>28.6</v>
+        <v>25.3</v>
       </c>
       <c r="F16" s="3">
-        <v>15.9</v>
+        <v>13.8</v>
       </c>
       <c r="G16" s="1">
-        <v>50075</v>
+        <v>34528</v>
       </c>
       <c r="H16" s="1">
-        <v>32161</v>
+        <v>22359</v>
       </c>
       <c r="I16" s="5">
-        <v>-540</v>
+        <v>-73</v>
       </c>
       <c r="J16" s="1">
-        <v>1123760</v>
+        <v>989573</v>
       </c>
       <c r="K16" s="10">
-        <v>44.6</v>
+        <v>34.9</v>
       </c>
       <c r="L16" s="10">
-        <v>28.6</v>
+        <v>22.6</v>
       </c>
       <c r="M16" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1194455</v>
-      </c>
-      <c r="O16" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P16" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R16" s="1">
-        <v>51761</v>
-      </c>
-      <c r="S16" s="1">
-        <v>28849</v>
+        <v>12.3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="2">
-        <v>97</v>
+      <c r="U16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="9"/>
@@ -3975,64 +3975,64 @@
         <v>1911</v>
       </c>
       <c r="B17" s="1">
-        <v>1214700</v>
+        <v>971200</v>
       </c>
       <c r="C17" s="1">
-        <v>1152374</v>
+        <v>894060</v>
       </c>
       <c r="D17" s="3">
-        <v>43</v>
+        <v>39.5</v>
       </c>
       <c r="E17" s="3">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="F17" s="3">
-        <v>17.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G17" s="1">
-        <v>49521</v>
+        <v>35315</v>
       </c>
       <c r="H17" s="1">
-        <v>29300</v>
+        <v>20631</v>
       </c>
       <c r="I17" s="5">
-        <v>-262</v>
+        <v>-138</v>
       </c>
       <c r="J17" s="1">
-        <v>1141134</v>
+        <v>1001669</v>
       </c>
       <c r="K17" s="10">
-        <v>43.4</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="L17" s="10">
-        <v>25.7</v>
+        <v>20.6</v>
       </c>
       <c r="M17" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1217410</v>
-      </c>
-      <c r="O17" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P17" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="R17" s="1">
-        <v>52756</v>
-      </c>
-      <c r="S17" s="1">
-        <v>29404</v>
+        <v>14.7</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U17" s="2">
-        <v>94</v>
+      <c r="U17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="9"/>
@@ -4053,64 +4053,64 @@
         <v>1912</v>
       </c>
       <c r="B18" s="1">
-        <v>1231600</v>
+        <v>986600</v>
       </c>
       <c r="C18" s="1">
-        <v>1196497</v>
+        <v>905345</v>
       </c>
       <c r="D18" s="3">
-        <v>43.7</v>
+        <v>42.6</v>
       </c>
       <c r="E18" s="3">
-        <v>24.3</v>
+        <v>21.5</v>
       </c>
       <c r="F18" s="3">
-        <v>19.399999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="G18" s="1">
-        <v>52303</v>
+        <v>38596</v>
       </c>
       <c r="H18" s="1">
-        <v>29077</v>
+        <v>19465</v>
       </c>
       <c r="I18" s="5">
-        <v>-504</v>
+        <v>-473</v>
       </c>
       <c r="J18" s="1">
-        <v>1161093</v>
+        <v>1016258</v>
       </c>
       <c r="K18" s="10">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L18" s="10">
-        <v>25</v>
+        <v>19.2</v>
       </c>
       <c r="M18" s="4">
-        <v>20</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1240806</v>
-      </c>
-      <c r="O18" s="3">
-        <v>42.2</v>
-      </c>
-      <c r="P18" s="3">
-        <v>23.4</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="R18" s="1">
-        <v>52303</v>
-      </c>
-      <c r="S18" s="1">
-        <v>29077</v>
+        <v>18.8</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="9"/>
@@ -4131,64 +4131,64 @@
         <v>1913</v>
       </c>
       <c r="B19" s="1">
-        <v>1246700</v>
+        <v>1002200</v>
       </c>
       <c r="C19" s="1">
-        <v>1197497</v>
+        <v>918619</v>
       </c>
       <c r="D19" s="3">
-        <v>45.7</v>
+        <v>40.5</v>
       </c>
       <c r="E19" s="3">
-        <v>24.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F19" s="3">
-        <v>21.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G19" s="1">
-        <v>54756</v>
+        <v>37198</v>
       </c>
       <c r="H19" s="1">
-        <v>29278</v>
+        <v>18775</v>
       </c>
       <c r="I19" s="5">
-        <v>-718</v>
+        <v>-697</v>
       </c>
       <c r="J19" s="1">
-        <v>1183815</v>
+        <v>1034937</v>
       </c>
       <c r="K19" s="10">
-        <v>46.3</v>
+        <v>35.9</v>
       </c>
       <c r="L19" s="10">
-        <v>24.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="M19" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1263528</v>
-      </c>
-      <c r="O19" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="P19" s="3">
-        <v>23.2</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>20.2</v>
-      </c>
-      <c r="R19" s="1">
-        <v>54756</v>
-      </c>
-      <c r="S19" s="1">
-        <v>29278</v>
+        <v>17.8</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="9"/>
@@ -4209,65 +4209,49 @@
         <v>1914</v>
       </c>
       <c r="B20" s="1">
-        <v>1261200</v>
+        <v>1018300</v>
       </c>
       <c r="C20" s="1">
-        <v>1235219</v>
+        <v>918619</v>
       </c>
       <c r="D20" s="3">
-        <v>46.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E20" s="3">
-        <v>27</v>
+        <v>21.3</v>
       </c>
       <c r="F20" s="3">
-        <v>19.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>57348</v>
+        <v>37387</v>
       </c>
       <c r="H20" s="1">
-        <v>33306</v>
+        <v>19559</v>
       </c>
       <c r="I20" s="5">
-        <v>-524</v>
+        <v>-290</v>
       </c>
       <c r="J20" s="1">
-        <v>1208575</v>
+        <v>1052663</v>
       </c>
       <c r="K20" s="10">
-        <v>47.5</v>
+        <v>35.5</v>
       </c>
       <c r="L20" s="10">
-        <v>27.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M20" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1288288</v>
-      </c>
-      <c r="O20" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="P20" s="3">
-        <v>25.9</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="R20" s="1">
-        <v>57348</v>
-      </c>
-      <c r="S20" s="1">
-        <v>33306</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U20" s="2">
-        <v>100</v>
-      </c>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="2"/>
       <c r="V20" t="s">
         <v>7</v>
       </c>
@@ -4296,28 +4280,28 @@
       <c r="C21" s="1"/>
       <c r="G21" s="1">
         <f>SUM(G2:G20)</f>
-        <v>788175</v>
+        <v>624539</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(H2:H20)</f>
-        <v>473653</v>
+        <v>366380</v>
       </c>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>-4131</v>
+        <v>-2128</v>
       </c>
       <c r="J21" s="1"/>
       <c r="V21" s="1">
         <f>G21-H21</f>
-        <v>314522</v>
+        <v>258159</v>
       </c>
       <c r="W21" s="1">
         <f>V21+I21</f>
-        <v>310391</v>
+        <v>256031</v>
       </c>
       <c r="Y21">
         <f>I21/W21</f>
-        <v>-1.3309019913592856E-2</v>
+        <v>-8.3114935300803421E-3</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/territory-chart.xlsx
+++ b/rtss-pre1917/territory-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBC24F-3264-4C19-943E-10B77C8B0FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923A340-5055-4C36-B22E-179A242EAAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1380" windowWidth="32910" windowHeight="19110" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
+    <workbookView xWindow="705" yWindow="2340" windowWidth="32910" windowHeight="19110" xr2:uid="{DA233FF1-1F5C-4C19-B65A-485A17C190AF}"/>
   </bookViews>
   <sheets>
     <sheet name="charts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="10">
   <si>
     <t> </t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>% мигр</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -846,61 +843,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>43.3</c:v>
+                  <c:v>45.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.3</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.3</c:v>
+                  <c:v>43.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.3</c:v>
+                  <c:v>48.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.3</c:v>
+                  <c:v>44.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.3</c:v>
+                  <c:v>42.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.3</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.3</c:v>
+                  <c:v>44.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.3</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.3</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.3</c:v>
+                  <c:v>42.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.3</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.3</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.3</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.3</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.3</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.2</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.3</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.5</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,61 +1020,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>24.2</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.2</c:v>
+                  <c:v>25.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.2</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.2</c:v>
+                  <c:v>29.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.2</c:v>
+                  <c:v>22.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.2</c:v>
+                  <c:v>22.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.2</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.2</c:v>
+                  <c:v>24.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.2</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.2</c:v>
+                  <c:v>24.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.2</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.2</c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.2</c:v>
+                  <c:v>26.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.2</c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.2</c:v>
+                  <c:v>31.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.4</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.2</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.9</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0671D9-6A75-48C3-B9C8-7263176E6C18}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="V113" sqref="V113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,61 +4628,61 @@
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>375383</v>
+        <v>1827194</v>
       </c>
       <c r="D66" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="E66" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="F66" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>85704</v>
+      </c>
+      <c r="H66" s="1">
+        <v>54186</v>
+      </c>
+      <c r="I66" s="5">
+        <v>-913</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1902010</v>
+      </c>
+      <c r="K66" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="L66" s="3">
         <v>28.5</v>
       </c>
-      <c r="E66" s="3">
-        <v>14.9</v>
-      </c>
-      <c r="F66" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="G66" s="1">
-        <v>10680</v>
-      </c>
-      <c r="H66" s="1">
-        <v>5591</v>
-      </c>
-      <c r="I66" s="5">
-        <v>52</v>
-      </c>
-      <c r="J66" s="1">
-        <v>447935</v>
-      </c>
-      <c r="K66" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="L66" s="3">
-        <v>24.2</v>
-      </c>
       <c r="M66" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="N66" s="1">
-        <v>443408</v>
-      </c>
-      <c r="O66">
-        <v>62.5</v>
-      </c>
-      <c r="P66">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q66">
-        <v>26.8</v>
-      </c>
-      <c r="R66" s="1">
-        <v>27734</v>
-      </c>
-      <c r="S66" s="1">
-        <v>15835</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T66" t="s">
         <v>0</v>
       </c>
-      <c r="U66">
-        <v>39</v>
+      <c r="U66" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -4696,61 +4693,61 @@
         <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>416418</v>
+        <v>1936403</v>
       </c>
       <c r="D67" s="3">
-        <v>25.5</v>
+        <v>44.3</v>
       </c>
       <c r="E67" s="3">
-        <v>15.2</v>
+        <v>25.2</v>
       </c>
       <c r="F67" s="3">
-        <v>10.3</v>
+        <v>19</v>
       </c>
       <c r="G67" s="1">
-        <v>10607</v>
+        <v>85731</v>
       </c>
       <c r="H67" s="1">
-        <v>6325</v>
+        <v>48849</v>
       </c>
       <c r="I67" s="5">
-        <v>320</v>
+        <v>924</v>
       </c>
       <c r="J67" s="1">
-        <v>453076</v>
+        <v>1932615</v>
       </c>
       <c r="K67" s="3">
-        <v>43.3</v>
+        <v>44.4</v>
       </c>
       <c r="L67" s="3">
-        <v>24.2</v>
+        <v>25.3</v>
       </c>
       <c r="M67" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="N67" s="1">
-        <v>452690</v>
-      </c>
-      <c r="O67">
-        <v>62.5</v>
-      </c>
-      <c r="P67">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q67">
-        <v>26.8</v>
-      </c>
-      <c r="R67" s="1">
-        <v>28314</v>
-      </c>
-      <c r="S67" s="1">
-        <v>16166</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T67" t="s">
         <v>0</v>
       </c>
-      <c r="U67">
-        <v>37</v>
+      <c r="U67" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -4761,61 +4758,61 @@
         <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>436566</v>
+        <v>1966905</v>
       </c>
       <c r="D68" s="3">
-        <v>31.3</v>
+        <v>43.6</v>
       </c>
       <c r="E68" s="3">
-        <v>21</v>
+        <v>24.6</v>
       </c>
       <c r="F68" s="3">
-        <v>10.3</v>
+        <v>19</v>
       </c>
       <c r="G68" s="1">
-        <v>13659</v>
+        <v>85818</v>
       </c>
       <c r="H68" s="1">
-        <v>9179</v>
+        <v>48360</v>
       </c>
       <c r="I68" s="5">
-        <v>1219</v>
+        <v>1308</v>
       </c>
       <c r="J68" s="1">
-        <v>457678</v>
+        <v>1970421</v>
       </c>
       <c r="K68" s="3">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="L68" s="3">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="M68" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="N68" s="1">
-        <v>462166</v>
-      </c>
-      <c r="O68">
-        <v>62.5</v>
-      </c>
-      <c r="P68">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q68">
-        <v>26.8</v>
-      </c>
-      <c r="R68" s="1">
-        <v>28907</v>
-      </c>
-      <c r="S68" s="1">
-        <v>16505</v>
+        <v>19</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T68" t="s">
         <v>0</v>
       </c>
-      <c r="U68">
-        <v>47</v>
+      <c r="U68" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -4826,61 +4823,61 @@
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>447847</v>
+        <v>1971225</v>
       </c>
       <c r="D69" s="3">
-        <v>33.5</v>
+        <v>49</v>
       </c>
       <c r="E69" s="3">
-        <v>20.3</v>
+        <v>29.7</v>
       </c>
       <c r="F69" s="3">
-        <v>13.2</v>
+        <v>19.3</v>
       </c>
       <c r="G69" s="1">
-        <v>15022</v>
+        <v>96569</v>
       </c>
       <c r="H69" s="1">
-        <v>9110</v>
+        <v>58534</v>
       </c>
       <c r="I69" s="5">
-        <v>3479</v>
+        <v>-397</v>
       </c>
       <c r="J69" s="1">
-        <v>463377</v>
+        <v>2009187</v>
       </c>
       <c r="K69" s="3">
-        <v>43.3</v>
+        <v>48.1</v>
       </c>
       <c r="L69" s="3">
-        <v>24.2</v>
+        <v>29.1</v>
       </c>
       <c r="M69" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="N69" s="1">
-        <v>471840</v>
-      </c>
-      <c r="O69">
-        <v>62.5</v>
-      </c>
-      <c r="P69">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q69">
-        <v>26.8</v>
-      </c>
-      <c r="R69" s="1">
-        <v>29512</v>
-      </c>
-      <c r="S69" s="1">
-        <v>16850</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T69" t="s">
         <v>0</v>
       </c>
-      <c r="U69">
-        <v>51</v>
+      <c r="U69" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -4891,61 +4888,61 @@
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>449522</v>
+        <v>2043871</v>
       </c>
       <c r="D70" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E70" s="3">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="F70" s="3">
-        <v>14.4</v>
+        <v>22.1</v>
       </c>
       <c r="G70" s="1">
-        <v>15268</v>
+        <v>91998</v>
       </c>
       <c r="H70" s="1">
-        <v>8788</v>
+        <v>46912</v>
       </c>
       <c r="I70" s="5">
-        <v>3134</v>
+        <v>-455</v>
       </c>
       <c r="J70" s="1">
-        <v>472768</v>
+        <v>2046825</v>
       </c>
       <c r="K70" s="3">
-        <v>43.3</v>
+        <v>44.9</v>
       </c>
       <c r="L70" s="3">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="M70" s="4">
-        <v>13.7</v>
-      </c>
-      <c r="N70" s="1">
-        <v>481717</v>
-      </c>
-      <c r="O70">
-        <v>62.5</v>
-      </c>
-      <c r="P70">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q70">
-        <v>26.8</v>
-      </c>
-      <c r="R70" s="1">
-        <v>30130</v>
-      </c>
-      <c r="S70" s="1">
-        <v>17203</v>
+        <v>22</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T70" t="s">
         <v>0</v>
       </c>
-      <c r="U70">
-        <v>51</v>
+      <c r="U70" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -4956,61 +4953,61 @@
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>461362</v>
+        <v>2087238</v>
       </c>
       <c r="D71" s="3">
-        <v>35</v>
+        <v>42.8</v>
       </c>
       <c r="E71" s="3">
-        <v>20.5</v>
+        <v>22.6</v>
       </c>
       <c r="F71" s="3">
-        <v>14.5</v>
+        <v>20.2</v>
       </c>
       <c r="G71" s="1">
-        <v>16143</v>
+        <v>89324</v>
       </c>
       <c r="H71" s="1">
-        <v>9457</v>
+        <v>47254</v>
       </c>
       <c r="I71" s="5">
-        <v>3061</v>
+        <v>-27</v>
       </c>
       <c r="J71" s="1">
-        <v>482382</v>
+        <v>2091456</v>
       </c>
       <c r="K71" s="3">
-        <v>43.3</v>
+        <v>42.7</v>
       </c>
       <c r="L71" s="3">
-        <v>24.2</v>
+        <v>22.6</v>
       </c>
       <c r="M71" s="4">
-        <v>13.9</v>
-      </c>
-      <c r="N71" s="1">
-        <v>491800</v>
-      </c>
-      <c r="O71">
-        <v>62.5</v>
-      </c>
-      <c r="P71">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q71">
-        <v>26.8</v>
-      </c>
-      <c r="R71" s="1">
-        <v>30760</v>
-      </c>
-      <c r="S71" s="1">
-        <v>17563</v>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T71" t="s">
         <v>0</v>
       </c>
-      <c r="U71">
-        <v>52</v>
+      <c r="U71" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -5021,61 +5018,61 @@
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>489627</v>
+        <v>2142537</v>
       </c>
       <c r="D72" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E72" s="3">
-        <v>23.8</v>
+        <v>26.3</v>
       </c>
       <c r="F72" s="3">
-        <v>14.2</v>
+        <v>19.7</v>
       </c>
       <c r="G72" s="1">
-        <v>18599</v>
+        <v>98577</v>
       </c>
       <c r="H72" s="1">
-        <v>11639</v>
+        <v>56392</v>
       </c>
       <c r="I72" s="5">
-        <v>6549</v>
+        <v>-272</v>
       </c>
       <c r="J72" s="1">
-        <v>492129</v>
+        <v>2133499</v>
       </c>
       <c r="K72" s="3">
-        <v>43.3</v>
+        <v>46.2</v>
       </c>
       <c r="L72" s="3">
-        <v>24.2</v>
+        <v>26.4</v>
       </c>
       <c r="M72" s="4">
-        <v>14.1</v>
-      </c>
-      <c r="N72" s="1">
-        <v>502094</v>
-      </c>
-      <c r="O72">
-        <v>62.5</v>
-      </c>
-      <c r="P72">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q72">
-        <v>26.8</v>
-      </c>
-      <c r="R72" s="1">
-        <v>31404</v>
-      </c>
-      <c r="S72" s="1">
-        <v>17931</v>
+        <v>19.8</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T72" t="s">
         <v>0</v>
       </c>
-      <c r="U72">
-        <v>59</v>
+      <c r="U72" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -5086,61 +5083,61 @@
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>478080</v>
+        <v>2124487</v>
       </c>
       <c r="D73" s="3">
-        <v>41.6</v>
+        <v>45.7</v>
       </c>
       <c r="E73" s="3">
-        <v>24.7</v>
+        <v>25.5</v>
       </c>
       <c r="F73" s="3">
-        <v>16.899999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="G73" s="1">
-        <v>19893</v>
+        <v>97034</v>
       </c>
       <c r="H73" s="1">
-        <v>11819</v>
+        <v>54167</v>
       </c>
       <c r="I73" s="5">
-        <v>7974</v>
+        <v>-2119</v>
       </c>
       <c r="J73" s="1">
-        <v>505638</v>
+        <v>2175824</v>
       </c>
       <c r="K73" s="3">
-        <v>43.3</v>
+        <v>44.6</v>
       </c>
       <c r="L73" s="3">
-        <v>24.2</v>
+        <v>24.9</v>
       </c>
       <c r="M73" s="4">
-        <v>16</v>
-      </c>
-      <c r="N73" s="1">
-        <v>512604</v>
-      </c>
-      <c r="O73">
-        <v>62.5</v>
-      </c>
-      <c r="P73">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q73">
-        <v>26.8</v>
-      </c>
-      <c r="R73" s="1">
-        <v>32062</v>
-      </c>
-      <c r="S73" s="1">
-        <v>18306</v>
+        <v>19.7</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T73" t="s">
         <v>0</v>
       </c>
-      <c r="U73">
-        <v>62</v>
+      <c r="U73" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -5148,64 +5145,64 @@
         <v>1904</v>
       </c>
       <c r="B74" s="1">
-        <v>496900</v>
+        <v>2195200</v>
       </c>
       <c r="C74" s="1">
-        <v>534898</v>
+        <v>2183638</v>
       </c>
       <c r="D74" s="3">
-        <v>37.6</v>
+        <v>43.5</v>
       </c>
       <c r="E74" s="3">
-        <v>22.7</v>
+        <v>24.7</v>
       </c>
       <c r="F74" s="3">
-        <v>14.9</v>
+        <v>18.8</v>
       </c>
       <c r="G74" s="1">
-        <v>20086</v>
+        <v>94969</v>
       </c>
       <c r="H74" s="1">
-        <v>12124</v>
+        <v>53942</v>
       </c>
       <c r="I74" s="5">
-        <v>15141</v>
+        <v>-2674</v>
       </c>
       <c r="J74" s="1">
-        <v>521686</v>
+        <v>2216799</v>
       </c>
       <c r="K74" s="3">
-        <v>43.3</v>
+        <v>42.8</v>
       </c>
       <c r="L74" s="3">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="M74" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="N74" s="1">
-        <v>523334</v>
-      </c>
-      <c r="O74">
-        <v>62.5</v>
-      </c>
-      <c r="P74">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q74">
-        <v>26.8</v>
-      </c>
-      <c r="R74" s="1">
-        <v>32733</v>
-      </c>
-      <c r="S74" s="1">
-        <v>18689</v>
+        <v>18.5</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T74" t="s">
         <v>0</v>
       </c>
-      <c r="U74">
-        <v>61</v>
+      <c r="U74" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -5213,64 +5210,64 @@
         <v>1905</v>
       </c>
       <c r="B75" s="1">
-        <v>504400</v>
+        <v>2236900</v>
       </c>
       <c r="C75" s="1">
-        <v>577508</v>
+        <v>2182421</v>
       </c>
       <c r="D75" s="3">
-        <v>35.700000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E75" s="3">
-        <v>20.100000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="F75" s="3">
-        <v>15.6</v>
+        <v>11.8</v>
       </c>
       <c r="G75" s="1">
-        <v>20627</v>
+        <v>86579</v>
       </c>
       <c r="H75" s="1">
-        <v>11624</v>
+        <v>60921</v>
       </c>
       <c r="I75" s="5">
-        <v>7586</v>
+        <v>-8334</v>
       </c>
       <c r="J75" s="1">
-        <v>544789</v>
+        <v>2255152</v>
       </c>
       <c r="K75" s="3">
-        <v>43.3</v>
+        <v>38.4</v>
       </c>
       <c r="L75" s="3">
-        <v>24.2</v>
+        <v>27</v>
       </c>
       <c r="M75" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="N75" s="1">
-        <v>534289</v>
-      </c>
-      <c r="O75">
-        <v>62.5</v>
-      </c>
-      <c r="P75">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q75">
-        <v>26.8</v>
-      </c>
-      <c r="R75" s="1">
-        <v>33418</v>
-      </c>
-      <c r="S75" s="1">
-        <v>19080</v>
+        <v>11.4</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T75" t="s">
         <v>0</v>
       </c>
-      <c r="U75">
-        <v>62</v>
+      <c r="U75" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
@@ -5278,64 +5275,64 @@
         <v>1906</v>
       </c>
       <c r="B76" s="1">
-        <v>511800</v>
+        <v>2262400</v>
       </c>
       <c r="C76" s="1">
-        <v>568342</v>
+        <v>2209627</v>
       </c>
       <c r="D76" s="3">
-        <v>35.299999999999997</v>
+        <v>43.9</v>
       </c>
       <c r="E76" s="3">
-        <v>21.8</v>
+        <v>25.6</v>
       </c>
       <c r="F76" s="3">
-        <v>13.5</v>
+        <v>18.3</v>
       </c>
       <c r="G76" s="1">
-        <v>20049</v>
+        <v>97111</v>
       </c>
       <c r="H76" s="1">
-        <v>12399</v>
+        <v>56609</v>
       </c>
       <c r="I76" s="5">
-        <v>14822</v>
+        <v>-20526</v>
       </c>
       <c r="J76" s="1">
-        <v>561378</v>
+        <v>2272805</v>
       </c>
       <c r="K76" s="3">
-        <v>43.3</v>
+        <v>42.7</v>
       </c>
       <c r="L76" s="3">
-        <v>24.2</v>
+        <v>24.9</v>
       </c>
       <c r="M76" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="N76" s="1">
-        <v>545473</v>
-      </c>
-      <c r="O76">
-        <v>62.5</v>
-      </c>
-      <c r="P76">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q76">
-        <v>26.8</v>
-      </c>
-      <c r="R76" s="1">
-        <v>34117</v>
-      </c>
-      <c r="S76" s="1">
-        <v>19480</v>
+        <v>17.8</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T76" t="s">
         <v>0</v>
       </c>
-      <c r="U76">
-        <v>59</v>
+      <c r="U76" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -5343,64 +5340,64 @@
         <v>1907</v>
       </c>
       <c r="B77" s="1">
-        <v>533100</v>
+        <v>2302100</v>
       </c>
       <c r="C77" s="1">
-        <v>580628</v>
+        <v>2278351</v>
       </c>
       <c r="D77" s="3">
-        <v>39</v>
+        <v>47.9</v>
       </c>
       <c r="E77" s="3">
-        <v>23.8</v>
+        <v>26.8</v>
       </c>
       <c r="F77" s="3">
-        <v>15.2</v>
+        <v>21.1</v>
       </c>
       <c r="G77" s="1">
-        <v>22654</v>
+        <v>109176</v>
       </c>
       <c r="H77" s="1">
-        <v>13839</v>
+        <v>61012</v>
       </c>
       <c r="I77" s="5">
-        <v>8957</v>
+        <v>-9411</v>
       </c>
       <c r="J77" s="1">
-        <v>583850</v>
+        <v>2292781</v>
       </c>
       <c r="K77" s="3">
-        <v>43.3</v>
+        <v>47.6</v>
       </c>
       <c r="L77" s="3">
-        <v>24.2</v>
+        <v>26.6</v>
       </c>
       <c r="M77" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="N77" s="1">
-        <v>556891</v>
-      </c>
-      <c r="O77">
-        <v>62.5</v>
-      </c>
-      <c r="P77">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q77">
-        <v>26.8</v>
-      </c>
-      <c r="R77" s="1">
-        <v>34832</v>
-      </c>
-      <c r="S77" s="1">
-        <v>19888</v>
+        <v>21</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T77" t="s">
         <v>0</v>
       </c>
-      <c r="U77">
-        <v>65</v>
+      <c r="U77" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -5408,64 +5405,64 @@
         <v>1908</v>
       </c>
       <c r="B78" s="1">
-        <v>557100</v>
+        <v>2344800</v>
       </c>
       <c r="C78" s="1">
-        <v>592551</v>
+        <v>2317803</v>
       </c>
       <c r="D78" s="3">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E78" s="3">
-        <v>27.9</v>
+        <v>26.9</v>
       </c>
       <c r="F78" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="G78" s="1">
+        <v>103466</v>
+      </c>
+      <c r="H78" s="1">
+        <v>62461</v>
+      </c>
+      <c r="I78" s="5">
+        <v>-6957</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2331906</v>
+      </c>
+      <c r="K78" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="L78" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="M78" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="G78" s="1">
-        <v>26910</v>
-      </c>
-      <c r="H78" s="1">
-        <v>16508</v>
-      </c>
-      <c r="I78" s="5">
-        <v>34377</v>
-      </c>
-      <c r="J78" s="1">
-        <v>601634</v>
-      </c>
-      <c r="K78" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="L78" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="M78" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="N78" s="1">
-        <v>568548</v>
-      </c>
-      <c r="O78">
-        <v>62.5</v>
-      </c>
-      <c r="P78">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q78">
-        <v>26.8</v>
-      </c>
-      <c r="R78" s="1">
-        <v>35561</v>
-      </c>
-      <c r="S78" s="1">
-        <v>20304</v>
+      <c r="N78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T78" t="s">
         <v>0</v>
       </c>
-      <c r="U78">
-        <v>76</v>
+      <c r="U78" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -5473,64 +5470,64 @@
         <v>1909</v>
       </c>
       <c r="B79" s="1">
-        <v>566100</v>
+        <v>2393100</v>
       </c>
       <c r="C79" s="1">
-        <v>614171</v>
+        <v>2365034</v>
       </c>
       <c r="D79" s="3">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="E79" s="3">
-        <v>28.7</v>
+        <v>26.9</v>
       </c>
       <c r="F79" s="3">
-        <v>17.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G79" s="1">
-        <v>28162</v>
+        <v>108840</v>
       </c>
       <c r="H79" s="1">
-        <v>17616</v>
+        <v>63591</v>
       </c>
       <c r="I79" s="5">
-        <v>31975</v>
+        <v>-8395</v>
       </c>
       <c r="J79" s="1">
-        <v>646413</v>
+        <v>2365954</v>
       </c>
       <c r="K79" s="3">
-        <v>43.3</v>
+        <v>46</v>
       </c>
       <c r="L79" s="3">
-        <v>24.2</v>
+        <v>26.9</v>
       </c>
       <c r="M79" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="N79" s="1">
-        <v>580449</v>
-      </c>
-      <c r="O79">
-        <v>62.5</v>
-      </c>
-      <c r="P79">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q79">
-        <v>26.8</v>
-      </c>
-      <c r="R79" s="1">
-        <v>36305</v>
-      </c>
-      <c r="S79" s="1">
-        <v>20729</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T79" t="s">
         <v>0</v>
       </c>
-      <c r="U79">
-        <v>78</v>
+      <c r="U79" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -5538,64 +5535,64 @@
         <v>1910</v>
       </c>
       <c r="B80" s="1">
-        <v>617200</v>
+        <v>2441200</v>
       </c>
       <c r="C80" s="1">
-        <v>680510</v>
+        <v>2405171</v>
       </c>
       <c r="D80" s="3">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="E80" s="3">
-        <v>30.3</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F80" s="3">
-        <v>12.9</v>
+        <v>10.3</v>
       </c>
       <c r="G80" s="1">
-        <v>29382</v>
+        <v>103378</v>
       </c>
       <c r="H80" s="1">
-        <v>20590</v>
+        <v>78708</v>
       </c>
       <c r="I80" s="5">
-        <v>21811</v>
+        <v>-10294</v>
       </c>
       <c r="J80" s="1">
-        <v>688934</v>
+        <v>2402809</v>
       </c>
       <c r="K80" s="3">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="L80" s="3">
-        <v>24.2</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M80" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="N80" s="1">
-        <v>592599</v>
-      </c>
-      <c r="O80">
-        <v>62.5</v>
-      </c>
-      <c r="P80">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q80">
-        <v>26.8</v>
-      </c>
-      <c r="R80" s="1">
-        <v>37065</v>
-      </c>
-      <c r="S80" s="1">
-        <v>21163</v>
+        <v>10.3</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T80" t="s">
         <v>0</v>
       </c>
-      <c r="U80">
-        <v>79</v>
+      <c r="U80" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -5603,64 +5600,64 @@
         <v>1911</v>
       </c>
       <c r="B81" s="1">
-        <v>624000</v>
+        <v>2490200</v>
       </c>
       <c r="C81" s="1">
-        <v>712971</v>
+        <v>2448354</v>
       </c>
       <c r="D81" s="3">
-        <v>50.2</v>
+        <v>41</v>
       </c>
       <c r="E81" s="3">
         <v>30.9</v>
       </c>
       <c r="F81" s="3">
-        <v>19.3</v>
+        <v>10.1</v>
       </c>
       <c r="G81" s="1">
-        <v>35773</v>
+        <v>100357</v>
       </c>
       <c r="H81" s="1">
-        <v>22009</v>
+        <v>75591</v>
       </c>
       <c r="I81" s="5">
-        <v>-6249</v>
+        <v>2067</v>
       </c>
       <c r="J81" s="1">
-        <v>719537</v>
+        <v>2417344</v>
       </c>
       <c r="K81" s="3">
-        <v>43.3</v>
+        <v>41.5</v>
       </c>
       <c r="L81" s="3">
-        <v>24.2</v>
+        <v>31.3</v>
       </c>
       <c r="M81" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="N81" s="1">
-        <v>605003</v>
-      </c>
-      <c r="O81">
-        <v>59.1</v>
-      </c>
-      <c r="P81">
-        <v>36.4</v>
-      </c>
-      <c r="Q81">
-        <v>22.8</v>
-      </c>
-      <c r="R81" s="1">
-        <v>35773</v>
-      </c>
-      <c r="S81" s="1">
-        <v>22009</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>10</v>
-      </c>
-      <c r="U81">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U81" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -5668,64 +5665,64 @@
         <v>1912</v>
       </c>
       <c r="B82" s="1">
-        <v>680100</v>
+        <v>2538900</v>
       </c>
       <c r="C82" s="1">
-        <v>749143</v>
+        <v>2472542</v>
       </c>
       <c r="D82" s="3">
-        <v>55.7</v>
+        <v>41.3</v>
       </c>
       <c r="E82" s="3">
-        <v>26.4</v>
+        <v>31.6</v>
       </c>
       <c r="F82" s="3">
-        <v>29.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G82" s="1">
-        <v>41760</v>
+        <v>102159</v>
       </c>
       <c r="H82" s="1">
-        <v>19811</v>
+        <v>78205</v>
       </c>
       <c r="I82" s="5">
-        <v>840</v>
+        <v>-3448</v>
       </c>
       <c r="J82" s="1">
-        <v>727052</v>
+        <v>2444177</v>
       </c>
       <c r="K82" s="3">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="L82" s="3">
-        <v>23.4</v>
+        <v>32</v>
       </c>
       <c r="M82" s="4">
-        <v>30.2</v>
-      </c>
-      <c r="N82" s="1">
-        <v>612518</v>
-      </c>
-      <c r="O82">
-        <v>68.2</v>
-      </c>
-      <c r="P82">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="Q82">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="R82" s="1">
-        <v>41760</v>
-      </c>
-      <c r="S82" s="1">
-        <v>19811</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>10</v>
-      </c>
-      <c r="U82">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -5733,64 +5730,64 @@
         <v>1913</v>
       </c>
       <c r="B83" s="1">
-        <v>689500</v>
+        <v>2588400</v>
       </c>
       <c r="C83" s="1">
-        <v>798737</v>
+        <v>2448642</v>
       </c>
       <c r="D83" s="3">
-        <v>49.6</v>
+        <v>41.9</v>
       </c>
       <c r="E83" s="3">
-        <v>29.3</v>
+        <v>31.9</v>
       </c>
       <c r="F83" s="3">
-        <v>20.3</v>
+        <v>10</v>
       </c>
       <c r="G83" s="1">
-        <v>39620</v>
+        <v>102503</v>
       </c>
       <c r="H83" s="1">
-        <v>23407</v>
+        <v>78027</v>
       </c>
       <c r="I83" s="5">
-        <v>16828</v>
+        <v>-6621</v>
       </c>
       <c r="J83" s="1">
-        <v>749841</v>
+        <v>2464684</v>
       </c>
       <c r="K83" s="3">
-        <v>43.3</v>
+        <v>41.6</v>
       </c>
       <c r="L83" s="3">
-        <v>23.2</v>
+        <v>31.7</v>
       </c>
       <c r="M83" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="N83" s="1">
-        <v>635307</v>
-      </c>
-      <c r="O83">
-        <v>62.4</v>
-      </c>
-      <c r="P83">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="Q83">
-        <v>25.5</v>
-      </c>
-      <c r="R83" s="1">
-        <v>39620</v>
-      </c>
-      <c r="S83" s="1">
-        <v>23407</v>
+        <v>9.9</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>10</v>
-      </c>
-      <c r="U83">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U83" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -5798,64 +5795,64 @@
         <v>1914</v>
       </c>
       <c r="B84" s="1">
-        <v>697700</v>
+        <v>2657300</v>
       </c>
       <c r="C84" s="1">
-        <v>823885</v>
+        <v>2472605</v>
       </c>
       <c r="D84" s="3">
-        <v>49.1</v>
+        <v>31.8</v>
       </c>
       <c r="E84" s="3">
-        <v>30.2</v>
+        <v>16.7</v>
       </c>
       <c r="F84" s="3">
-        <v>18.8</v>
+        <v>15.1</v>
       </c>
       <c r="G84" s="1">
-        <v>40446</v>
+        <v>78693</v>
       </c>
       <c r="H84" s="1">
-        <v>24917</v>
+        <v>41275</v>
       </c>
       <c r="I84" s="5">
-        <v>23481</v>
+        <v>-6350</v>
       </c>
       <c r="J84" s="1">
-        <v>782882</v>
+        <v>2482560</v>
       </c>
       <c r="K84" s="3">
-        <v>44.5</v>
+        <v>31.7</v>
       </c>
       <c r="L84" s="3">
-        <v>25.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M84" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="N84" s="1">
-        <v>668348</v>
-      </c>
-      <c r="O84">
-        <v>60.5</v>
-      </c>
-      <c r="P84">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="Q84">
-        <v>23.2</v>
-      </c>
-      <c r="R84" s="1">
-        <v>40446</v>
-      </c>
-      <c r="S84" s="1">
-        <v>24917</v>
+        <v>15.1</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>10</v>
-      </c>
-      <c r="U84">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U84" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
